--- a/output/Total_time_range_data/安徽省/淮南市_学习考察.xlsx
+++ b/output/Total_time_range_data/安徽省/淮南市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F222"/>
+  <dimension ref="A1:G222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7102 +436,7770 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>96</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>寿县政协来凤考察学习</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2020-06-24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/xwzx/ftyw/8000593.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['6月24日，寿县政协副主席朱运阔一行来凤考察学习民族宗教管理及民族乡村经济社会发展工作。县政协副主席闪电厂及政协相关委室负责人对口接待。', '朱运阔一行先后对安徽香胡农业发展有限公司、凤台县三兄弟小磨麻油有限公司、城关清真寺和城关基督教堂等地进行实地考察。', '通过实地考察学习，朱运阔一行对我县在民族宗教管理工作和民族乡村经济社会发展取得的成绩给予高度评价；希望凤寿两地能加强交流，互相吸收学习两地在民族宗教管理和民族乡村经济社会发展中好的做法，齐心协力，促进两地民族宗教管理和民族乡村经济社会发展共同进步。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>96</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>淮南市社接待阜阳市社考察学习</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-06-24</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://gxs.huainan.gov.cn/xwzx/gzdt/551762634.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['6月18日至19日，阜阳市供销社党组副书记、监事会主任李永亮，党组成员、理事会副主任、阜阳供销集团总经理万雅龙及相关科室、企业一行5人来淮调研供销集团运营管理、“双社联动”试点工作。淮南市供销社党组副书记、监事会主任陈红，党组成员、理事会副主任郭杰及相关科室负责人全程陪同。', '18日，阜阳市社调研组首先与淮南市社领导、相关科室、供销集团负责人进行座谈，双方就供销集团的制度规范、人员架构、运营机制、科学管理进行深入交流。随后李永亮一行参观了淮南市供销集团牛肉汤有限公司、淮南市供销优选乡村振兴馆、供销优选城市折扣仓及社有企业，各参观点负责人介绍了供销集团及社有企业发展优势及特色。', '19日上午，李永亮一行赴寿县参观了迎河为农服务中心、堰口青莲供销合作社有限公司。寿县供销社党组书记、理事会主任廖先卫，党组成员、理事会副主任章立青及相关基层社负责人陪同调研。廖先卫介绍了寿县供销系统以“双社联动 强基赋能”为载体，借助全省唯一“绿色农资”试点县契机，推进集采集配模式，构建了一个上下贯通的为农服务网络，巩固了供销社在农资流通领域的主导地位，也实现了让利于民。', '李永亮对淮南市社各项工作高度赞赏，希望在农业社会化服务、农产品流通领域加强合作，作出成绩，实现共赢。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>96</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>大通区来凤考察学习</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2014-08-07</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/public/118322989/257477817.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['8月7日，大通区委常委、副区长虞吉新，副区长姚国飞率大通区考察团，来我县考察学习土地托管、秸秆全量还田、机插秧等工作经验。副县长陈万新、县农委副主任刘枫及县环保局和杨村镇负责人陪同。', '考察团一行先后参观考察了我县土地托管中心，杨村镇店集村秸秆全量还田、土地托管、机插秧等工作现场，并听取了有关工作经验介绍。', '在杨村镇店集村召开的座谈会上，陈万新对大通区考察团一行的到来表示欢迎；简要介绍了近年来我县全程社会化服务，秸秆全量还田、粉碎，土地托管，机插秧等工作情况；就一些经验做法和下步打算进行了交流；希望今后两地进一步加强学习交流，共同推进有关工作上台阶。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>96</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>考察学习寿县城管局组织人员到合肥城管局考察学习</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/public/118322782/1259515331.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['2月21日，寿县城管局组织城管渣土大队、政策法规股、新桥国际产业园、城管炎刘中心所部分同志，到合肥市城管局考察学习渣土运输管理工作。', '在考察学习中，合肥城管局相关工作负责同志就渣土运输工地出入口管理、渣土运输企业资质审批、工地渣土处置证许可、渣土运输企业及从业人员信用考核等渣土管理事项进行了详细地介绍，同时就一线工作出现的一些具体问题处理方法和经验进行了交流。（', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>96</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>考察学习借鉴提高</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2018-11-16</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.tja.gov.cn/xxgk/jryw/7999923.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['11月2日上午，田家庵区人大赵旭副主任率领部分区人大代表和区教育部门的有关领导12人，到长丰县考察学习引进优质教育资源工作。近年来长丰县经济社会快速发展，不仅实现了由国家级贫困县向全国百强县的历史性跨越，且2018年，位列全国综合实力百强县第82位、科技创新百强县第67位、全国绿色发展百强县市第54位等。在经济快速发展的同时，高度重视教育工作，坚持教育优先发展战略，大力优化教育布局，着力提升教育品质，提出“深化办学体制改革，构建现代学校制度”。在义务教育、普通高中教育和中职教育阶段，采取独立办学、合作办学、委托管理、冠名加托管、结对交流等多种形式，分别引进省内外公办、民办优质品牌学校近十多所。先进的教育教学理念和成熟的管理模式，快速提升了长丰县教育教学水平，成效斐然。田家庵区是淮南市优质教育资源的集聚区，近年来，在深化教育教学改革中，取得了一批成果，集团化办学、特色办学、民办教育上走在全市前列。通过考察发现，田家庵区目前还存在引进省内外优质教育资源起步慢，教学理念相对落后，教学管理方式单一，现有民办教育规模小、数量少、对教育前瞻性规划和相应的制度设计滞后等差距。做强教育对田家庵区发展起着至关重要的作用。经济发展，教育先行，只有把教育办好办强了，才能为经济社会发展提供强有力的人才和智力支撑。', '参加考察学习的人大代表和教育工作者认为，今后办好办强田家庵区的教育，借鉴长丰经验，结合田家庵区实际提出：一是区政府要高度重视教育工作。要提高发展站位，超前谋划，高起点制定教育规划、发展方向、发展路径，大胆改革现行教育体制，突破现有体制机制的束缚，积极引进各类优质教育资源，为促进田家庵区公办民办教育大发展提供必要条件。二是积极引进各类优质教育资源。要采取独立办学、合作办学、委托管理、冠名加托管、结对交流等形式，多管齐下。既引进九年一贯制义务教育方面的优质教育资源，又引进省内外有影响力的民办优质教育资源，并积极探索与国内外高校合作，引进从小学、初中、高中、对口升入大学的一条龙教育产业，同时做大做强田家庵区现有民办教育。三是进一步探索集团化办学模式，要在巩固现有学区化办学、集团化管理成果基础上，总结提高，规范集团办学具体管理方式方法，推动集团办学更好更快更强发展。四是加大对教育资金投入，保障教育基础设施建设、教师福利待遇不断提高，努力稳定教师尤其是高职称教师队伍；保障义务教育阶段的优质均衡发展需求，为引进优质教育资源创造条件等。五是不断延伸教育链条。一方面加强对少儿舞蹈艺术的建设研发，把享誉国内外的少儿舞蹈艺术做成产业，将少儿舞蹈艺术名片擦得更亮。另一方面，赋予特色教育更加富有内涵，让每一个学生特长都能得到充分发展，为拓宽他们成长成才途径奠定坚实基础。（区人大：许元虎）']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>96</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>县人大老干部支部赴利辛县考察学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2024-04-24</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/xwzx/bmdt/8131538.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['4月23日，凤台县人大老干部支部赴利辛县阚疃镇考察引江济淮江水北送工程，深入了解该工程的效益发挥情况。 据悉，引江济淮西淝河北站是江水北送西淝河线上的第三级泵站，承接阚疃南站抽水继续北调，提水入茨淮新河，有效解决了工业和城乡生活用水不足问题，具有显著的供水、生态等综合效益。', '考察中，老干部行来到西淝河北站，实地参观了中控室、泵站机房，观看了引江济淮专题片，听取了有关负责人的情况介绍。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>96</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>考察学习为抓手相互交流促提升</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2024-03-22</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://nyncj.huainan.gov.cn/xwzx/tzgg/551751292.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['3月18日，淮南市三普办组织相关县区三普办负责同志一行8人赴全国土壤普查试点县滁州明光市，考察学习三普工作做法及经验。', '考察组一行听取了明光市“三普”办的工作经验介绍，详细了解在组织保障、资金支持、服务单位招标、成果汇总等方面的经验做法，并就工作中遇到的问题进行了探讨交流。', '现场考察学习了明光市土壤样品库（明光市土壤馆），图件成果、报告成果、数据库成果等，对明光市土壤普查工作取得的成效表示钦佩。', '通过此次考察，对淮南市的土壤普查工作启发很大，对“三普”工作全过程有了一个直观、整体的认识，将充分消化，吸收外地成功做法，优化后续工作方案，在充分借鉴试点县工作经验的基础上，抓重点、攻难点、把节点，全力推进全市“三普”工作开展，保证按时序、高质量完成各项任务']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>96</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>寿县政协考察团来凤考察学习</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-11-10</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/xwzx/ftyw/8117903.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['11月10日，寿县政协考察团来凤考察学习现代农业及新能源产业发展先进经验和成功做法。县政协主席马士平，县政协副主席王兆文等对口接待。 在凤期间，寿县政协考察团一行深入凤台县板张集革命烈士陵园接受革命传统教育。随后，考察团一行还实地考察了我县的安徽州来绿港智慧农业科技发展有限公司、中环低碳（安徽）新能源光伏科技有限公司凤台光伏产业基地项目，详细了解了我县现代农业及新能源产业发展等工作情况。', '通过实地考察，寿县政协考察团高度评价了我县现代农业及新能源产业发展工作取得的成绩，表示将认真总结借鉴其先进经验和成功做法，继续加强与凤台县的深入学习交流，相互取长补短，不断开创政协工作新局面。', '马士平希望两县今后进一步密切交流合作，在推进现代农业及新能源产业发展上携手前行、共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>96</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>山王镇赴长丰县开展考察学习</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-05-13</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.bagongshan.gov.cn/zhxx/xzjd/11259012254.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['近日，山王镇党委主要负责人带领镇分管负责人及各村党组织书记一行赴长丰县义井镇、陶楼镇、杨庙镇开展实地考察学习。', '考察组先后考察了义井镇蔡岗村人居环境整治及美丽乡村中心村建设情况，详细了解了陶楼镇新丰社区特色农业经验做法，深入学习了杨庙镇马郢村建设精品示范村思路对策。', '通过此次考察学习，成员们开阔了新视野、拓展了新思路，并一致认为受益匪浅，将把考察学习到的新理念、新经验、新做法进行取长补短、融会贯通，并结合本镇实际，完善乡村建设，提升人居环境整治，推动乡村振兴各项工作实现新突破，奋力谱写山王镇高质量发展新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>96</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>考察学习促提升镇际交流促合作</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-10-13</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.panji.gov.cn/pjzx/jcgz/11258989364.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['10月12日上午，上窑镇党委书记刘子健一行赴夹沟镇考察调研。夹沟镇主要负责人陪同调研。', '考察组一行首先来到华李村水蛭基地，考察水蛭养殖情况。华李村充分利用水蛭的药用价值和经济价值，在村支两委的资金扶持和技术指导下，成立了华李村水蛭养殖基地。考察组充分肯定水蛭养殖带来的经济收益，并在技术交流、与村集体经济相结合等方面提出了宝贵的意见和建议。', '随后，考察组来到华李村积分超市、村史馆等地，充分了解华李村在党建引领基层治理、文化振兴等方面的工作经验和成效，并就村级党建、农业产业、乡村旅游等问题同夹沟镇镇村干部开展热烈讨论。', '上窑镇考察组一行纷纷表示，夹沟镇生态环境优美、产业项目众多、居民生活富足，各项工作都取得不菲成绩，值得大力学习借鉴，通过这一次考察交流，受益匪浅，进一步明确了镇村未来发展方向，拓宽了用好各类资源壮大集体经济的有效思路。', '下一步，夹沟镇将继续加大对外沟通交流力度，将“请进来”和“走出去”相结合，统筹用好多方资源力量，学习各地经验举措，坚持党建引领，围绕“产业、人才、文化、生态、组织”五大振兴战略，着力提升发展的“含新量”“含金量”，推动夹沟高质量发展新局面。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>96</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>经开区市场局赴滁州经开区考察学习</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-08-07</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://jkq.huainan.gov.cn/zwgk/bmdt/551721568.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['调研组一行首先参观了滁州经开区政务服务中心，听取滁州经开区市场局窗口负责人企业登记注册窗口、帮办代办服务、', '24小时自助服务等为企服务相关业务经验介绍，并围绕企业开办、市场监管、知识产权三个方面工作开展学习交流。大家一路走、一路看、一路聆听、一路交流，纷纷表示此次考察学习收获颇丰，既对标先进开阔了眼界，又提升了境界明晰了思路。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>96</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>市经信局赴宿州数据局考察学习</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-06-09</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://jxj.huainan.gov.cn/xwzx/gzdt/551713526.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['6月8日，市经信局局长张斌带队赴宿州市数据局考察学习市通信发展办公室成立有关事宜，四级调研员杨洁、信息化科、铁塔公司陪同。', '张斌一行在宿州市数据局召开了座谈会并参观了宿州市通信发展办公室，宿州市数据局将宿州市通信发展办公室组建情况，重点工作开展情况做了详细介绍，张斌表示，来宿州市数据局学习，受益匪浅，让我们进一步明确了方向，要让宿州学习成果尽快在淮南落地，努力提升淮南市通信发展水平。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>96</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>考察学习促提升对标先进促发展</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.panji.gov.cn/pjzx/jcgz/11258975887.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['为深入学习贯彻党的二十大精神，进一步提升全区基层医疗机构卫生服务能力，更好地服务于全区人民群众的健康需求。4月18日，潘集区卫健委赴寿县考察学习基层医疗机构卫生服务能力建设和绩效管理的先进做法。市五院党委书记王运超，各乡镇（街道）卫生院负责同志参加考察活动。', '考察组与寿县卫生健康委、寿县安丰镇中心卫生院、迎河镇中心卫生院等单位进行了座谈交流并实地参观学习，期间双方围绕医院运营、绩效管理、人才培养、家庭医生签约、村卫生室标准化建设等相关工作进行深入交流。', '他山之石，可以攻玉。下一步，潘集区卫生健康委将进一步提炼考察学习成果，并结合潘集卫健实际，深入推动基层医疗机构改革进展，逐步建立优质高效的基层卫生服务体系，为潘集高质量发展和人民群众安全健康保驾护航！']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>96</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>淮南市林业局赴安庆滁州考察学习</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-07-11</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://lyj.huainan.gov.cn/xwzx/zxdt/551717590.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['7月5日至6日，市林业局党组书记、局长王希帮赴安庆、滁州考察学习林长制改革先进经验，局党组成员、副局长常国辉陪同。', '5日上午，王希帮一行首先来到了省级重点生态功能区域安庆市大龙山国家森林公园，现场查看了林长制改革成效展示牌，听取了安庆市林业局负责同志关于自然保护地整合优化等工作情况介绍。下午，在安庆市林业局召开座谈会，相关负责同志详细介绍了安庆市林长制改革工作思路、主要举措和创新亮点，双方就一些重难点问题进行了深入交流。王希帮表示，安庆是我省乃至全国林长制改革的排头兵，打造了生态文明建设的安庆样板，是“两山”理论的生动实践，感谢安庆林业部门各位同志毫无保留的分享，给我们传经送宝。', '6日，一行来到滁州皇甫山林场，实地调研了国家储备林项目现场以及林下种植示范点，在皇甫山林场会议室观看了滁州市森林防火信息系统演示，并就林业投资平台建设运行、国家储备林项目实施等重点工作与滁州市林业部门分管负责同志开展了座谈。王希帮在会上说，滁州市近年来始终处于我省林长制改革工作的第一方阵，2022年又受到国务院林长制工作激励，是我们学习的榜样，下一步我们将持续加强与滁州市林业部门的沟通交流，共同推进江淮分水岭地区林长制改革工作迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>96</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>考察学习促提升对标先进促发展</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-04-20</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://wjw.huainan.gov.cn/xwzx/jcdt/551706128.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['为深入学习贯彻党的二十大精神，进一步提升全区基层医疗机构卫生服务能力，更好地服务于全区人民群众的健康需求。4月18日，潘集区卫健委党组书记、主任吕锦芳带队赴寿县考察学习基层医疗机构卫生服务能力建设和绩效管理的先进做法。市五院党委书记王运超，各乡镇（街道）卫生院负责同志参加考察活动。', '考察组与寿县卫生健康委、寿县安丰镇中心卫生院、迎河镇中心卫生院等单位进行了座谈交流并实地参观学习，期间双方围绕医院运营、绩效管理、人才培养、家庭医生签约、村卫生室标准化建设等相关工作进行深入交流。 座谈中，吕锦芳主任指出，通过此次考察调研，深切感受到寿县卫生健康事业日新月异、拔节生长的发展势头和干部队伍解放思想、奋发进取的精神状态。寿县安丰镇、迎河镇两家中心卫生院在医院管理、信息化建设、人才培养、特色科室建设、绩效管理等方面的先进经验和具体做法值得我们学习借鉴。 他山之石，可以攻玉。下一步，潘集区卫生健康委将进一步提炼考察学习成果，并结合潘集卫健实际，深入推进基层医疗卫生机构改革，大力提升服务能力，坚持以人民为中心的发展理念，强弱项、补短板，以扎实的工作作风推动全区卫生健康事业发展再上新台阶。', '座谈中，吕锦芳主任指出，通过此次考察调研，深切感受到寿县卫生健康事业日新月异、拔节生长的发展势头和干部队伍解放思想、奋发进取的精神状态。寿县安丰镇、迎河镇两家中心卫生院在医院管理、信息化建设、人才培养、特色科室建设、绩效管理等方面的先进经验和具体做法值得我们学习借鉴。', '他山之石，可以攻玉。下一步，潘集区卫生健康委将进一步提炼考察学习成果，并结合潘集卫健实际，深入推进基层医疗卫生机构改革，大力提升服务能力，坚持以人民为中心的发展理念，强弱项、补短板，以扎实的工作作风推动全区卫生健康事业发展再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>96</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>市乡村振兴局到六安市考察学习</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://xczxj.huainan.gov.cn/dtyw/xwdt/551630083.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['6月30日，市乡村振兴局党组书记、局长徐权率队到六安市考察学习巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作。', '在六安市，考察组听取了六安市在乡村振兴工作体制机制建设、巩固脱贫攻坚成果措施成效及资金项目谋划实施等方面的情况介绍，大家就关注的问题进行了深入座谈交流。', '近年来，六安市在巩固拓展脱贫攻坚成果同乡村振兴有效衔工作中突出产业发展，围绕市级“138+N”“6969”工程完善项目库建设，发展特色优势产业，对资金项目实施全过程进行监管调度，形成了一套完备的体制机制，在全省巩固拓展脱贫攻坚成果工作中起到示范作用，六安市连续4年获得省政府督查奖励。', '参加考察学习的同志纷纷表示，六安市在巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作上亮点多、创新多、成效好，在全省处在领跑行列，回去过后一定会认真总结，向先进看齐，结合具体工作，弥补短板不足，促进淮南市乡村振兴工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>96</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>高新区赴宿州市泗县考察学习</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-04-01</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://gxq.huainan.gov.cn/yqdt/551704315.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['3月31日，高新区管委会二级调研员刘维林率队赴宿州市泗县考察学习，高新建发集团董事长王怀亮，四级调研员张敬，区建设领域相关部门负责同志陪同。', '泗县政府热情接待了高新区考察团一行，泗县副县长何凯，泗县城管局、住建局、自然资源和规划局、城投公司、房屋征收中心负责同志与考察团就城市基础建设、棚户区改造，以及政府与大型央企、国企开展合作的先进理念及经验开展座谈交流。', '考察团先后参观调研了泗县首创水务有限责任公司、城市之光西区、中央公园、泗县一中、新濉河公园等项目，对泗县在城市整体建设规划、城区绿化建设、项目建设管理方面予以高度评价。', '考察中刘维林强调，此次考察学习，学到了兄弟单位许多好经验好做法，考察团成员要以此为契机，寻找自身在思想认识与工作主动性等方面差距和不足，切实把考察成果转化为推动工作的强大动力。考察团成员纷纷表示，此次考察让人倍受启发，将进一步解放思想，转变思路，努力推进高新区建设事业提质增效，为高新区实现跨越式发展做出更大贡献。（建设发展局 陶陶）']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>96</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>太湖县来凤考察学习民俗进校园工作</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2020-10-28</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/xwzx/bmdt/8010276.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['10月28日，太湖县委宣传部有关负责人，太湖县财政局、教育局等单位负责人一行，来我县考察学习“民俗进校园”工作。市委宣传部有关科室、县委宣传部、县教育局等单位负责人进行了热情接待。 太湖县考察团一行深入朱马店镇中心校考察了“民俗进校园”工作开展情况；观看了朱马店镇中心校“民俗进校园”工作成果专题片；听取了我县“民俗进校园”工作开展情况、取得成果等方面的介绍。 通过实地考察、听取汇报，太湖县考察团表示感受到了凤台县对“民俗进校园”工作的高度重视，回去后将吸收、借鉴、推广成功经验和有效做法，期待双方加强交流，实现优势互补。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>96</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>张永强一行赴山西太原招商考察学习</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://zdgc.huainan.gov.cn/gzdt/xwdt/551592941.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['10月29日至30日，市重点工程建设管理中心党组书记、主任张永强率队赴山西省太原市开展考察学习工作。', '在太原期间，张永强一行实地考察了太重煤机工业园区，并同太重煤机有限公司党委副书记费续东、山西太重煤机煤矿装备成套有限公司总经理宋景哲进行洽谈，深入宣传推介了我市的招商政策和区位优势，邀请对方来淮投资拓展业务。', '太原重工始建于1950年，是新中国自行设计建造的第一座重型机械制造企业，被誉为“中国采煤机之父”，拥有矿山采掘装备及智能制造国家重点实验室。主要生产煤炭采掘设备、输煤设备、瓦斯抽送设备、安全设备等10大类产品，具备了“三机一架”综采设备的试验、组装成套供应能力。', '在太原西北二环骆驼山隧道项目建设现场，张永强一行详细了解了施工工艺、建设流程、技术特点，并就项目管理、安全生产防护、文明施工管理等方面，与承建单位中铁六局太原公司负责人进行了深入交流探讨。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>96</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>我市赴六安市考察学习乡村振兴工作</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2021-07-27</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://xczxj.huainan.gov.cn/dtyw/xwdt/551579741.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['7月22日至7月23日，按照淮南市政协“巩固拓展脱贫攻坚成果同乡村振兴有效衔接”资政会工作安排，淮南市政协、市乡村振兴局到六安市金寨县、霍山县等地，考察学习低收入人口监测与帮扶、政策衔接、产业发展等巩固拓展脱贫攻坚同乡村振兴有效衔接的相关工作。市政协副主席李大松，市委副秘书长、市乡村振兴局局长贾俊等参加调研活动。', '调研组来到金寨县花石乡大湾村，调研习近平总书记视察大湾村座谈会旧址、大湾村农光互补产业基地、大别山农耕博物馆、易地扶贫搬迁安置点等地，全面了解大湾村牢记总书记的嘱托，实干创新推进高质量脱贫的先进经验。大湾村始终把脱贫攻坚作为最大政治任务，实事求是、因地制宜，分类指导、精准扶贫，着力打造基层党建示范、脱贫攻坚示范、乡村振兴示范，走出了一条“党建引领，山上种茶，家中迎客，红绿相映”的精准扶贫之路。', '在霍山县，调研组先后考察了与儿街桑田小镇蚕丝基地、安徽卓美亚家纺有限公司蚕丝被项目，黑石渡镇万亩蔬菜基地项目、大林公社药植园项目，磨子潭镇宋家河村古村茶栈项目，全面了解乡村振兴推进情况。霍山县作为首批国家全域旅游示范区、国家级“两山”理论创新实践基地，始终坚持“红色领航”、“绿色振兴”，走出了一条高质量绿色发展之路。近年来，霍山县抢抓大别山旅游扶贫快速通道建设这一重大历史机遇，打造了“霍山最美环线”，带动沿线近20万人致富增收，实现了生态建设成果的绿色共享。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>96</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>安徽省北京商会赴我区考察学习交流</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2022-03-07</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.maoji.gov.cn/zxzx/bmdt/8057215.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['3月4日，安徽省北京商会赴我区学习交流，区工委委员、区人武部部长柏发淮，区管委调研员朱家新，区直相关单位部门负责人等接待了考察团一行。', '座谈会上，柏发淮对商会一行领导的到来表示诚挚欢迎。向商会一行介绍了我区的基本情况，希望来我区考察的企业家能够更深入认识、了解毛集，在毛集投资发展，区工委、区管委将加快打造良好营商环境，确保项目在毛集顺利落地。', '安徽省北京商会顾问，在发言中对参与此次考察的企业家进行了简单介绍，对毛集优越的区位条件和良好的营商环境给予高度评价，对双方以后的发展提出了建设性的意见和建议。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>96</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>大通区赴滁州市定远县考察学习</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2021-11-11</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://www.hndt.gov.cn/xwzx/dtyw/8046625.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['众兴菌业公司、兴荣家庭农场，查看调研乡村振兴产业发展情况。深入江淮分水岭综合试验站项目实地调研并座谈，详细了解安农大与', '潘金钟在座谈中对考察团一行表示欢迎，简要介绍了定远县招商引资、农业产业化项目建设情况，', '明冠雷对参观点的建设发展给予了肯定，称赞了安农大与定远县的合作模式和成果，表示将学习借鉴', '好的做法，也希望江淮分水岭综合试验站积极发挥辐射带动作用，助力大通科技示范推广、农业产业发展。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>96</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>区教体局赴凤台县教育局考察学习</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2020-03-25</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://www.hndt.gov.cn/xwzx/bmdt/7993615.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['3月24日下午，由副区长陈光煚带队，区教体局局长姚冬梅、副局长李娟和相关工作人员一行10人赴凤台县教育局考察学习。凤台县副县长李萍、县教育局局长高友柱等局班子成员和相关科室负责人出席见面会并共同交流学习。', '见面会上，陈光煚首先表明来意，他表示，近年来，凤台县在教育教学管理、寄宿制学校建设、公办幼儿园建设、校车管理和教师激励机制建设等方面工作都取得了丰富的实践经验，非常值得我们借鉴和学习。李萍对大家的到来表示欢迎，并就凤台县近年来的教育工作做了简单介绍。随后，考察组一行就关注的工作向凤台县教育局积极请教和交流，并做好资料收集。见面会结束后，大通区考察组一行在高友柱局长的陪同下深入凤台县凤凰中学，现场考察学习寄宿制学校建设情况。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>96</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>徐权带队赴滁州考察学习</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://gxq.huainan.gov.cn/yqdt/551535394.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['8月25日，党工委副书记徐权率领区科技局、建设局、招商局、科创中心、投资服务中心等部门负责同志赴滁州经济开发区、苏滁现代产业园区专题考察学习园区规划建设、招商引资、产业培育等，管委会四级调研员彭树文参加考察。', '徐权一行先后走访了惠科、康佳等在滁重点企业，实地参观了滁州经济开发区、苏滁现代产业园区，并与园区负责同志、相关部门负责人进行了交流座谈。徐权同志表示，将积极吸取借鉴滁州园区建设先进经验做法，推动淮南高新区建设发展。（党政办 刘卯卯）']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>96</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>八公山区新型职业农民外出考察学习</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2019-11-29</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.bagongshan.gov.cn/public/118323448/257496663.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>96</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>高新区赴和县考察学习脱贫攻坚工作</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2019-10-14</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://gxq.huainan.gov.cn/ztzl/tpgj/147317270.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['考察组听取了和县脱贫攻坚工作介绍，参观了香泉镇蔬菜大棚产业扶贫项目，考察了长寿村脱贫攻坚专项巡视整改、村级基础资料建设、精准帮扶等工作，着重学习了和县', '彭树文强调，他山之石，可以攻玉，高新区要将耳目一新、眼前一亮的考察学习，化作推动我区脱贫攻坚工作的具体行动，在学先进、寻不足、找差距中，进一步提升政治站位，进一步补短板、强弱项、提质量，全面推动脱贫攻坚工作上台阶上水平。（扶贫办']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>96</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>县人大考察团赴颍上县考察学习</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2019-04-04</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/xwzx/ftyw/7905043.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['4月4日，县人大常委会副主任马洪林率县人大退休老干部前往颍上县考察学习城市建设、生态环境保护工作，受到颍上县人大常委会主任、政法委书记汪利军，颍上县委常委、副县长邢焕新，颍上县人大常委会副主任蒋灵的热情接待。', '马洪林一行先后参观考察了颍上县丰河竹林公园、游客接待中心、花园小镇、尤家花园、城市规划馆、明清苑，听取了颍上县生态环境保护、城市建设等工作开展情况的介绍。', '通过实地考察和听取介绍，马洪林高度评价了颍上县城市建设、生态环境保护工作所取得的成绩；认为颍上县城市建设、生态环境保护工作有很多好的经验和做法，值得学习和借鉴；希望两地加强交流，互相学习，共同促进两县各项工作取得新进展。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>96</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>市扶贫办组织人员赴蒙城县考察学习</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://xczxj.huainan.gov.cn/dtyw/xwdt/143024203.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['9月6日，市扶贫办副主任朱传克带队赴蒙城县考察学习中央脱贫攻坚专项巡视整改工作。市委整改办、市扶贫办相关科室及各县区整改办人员参加考察学习。', '考察组听取了蒙城县巡视整改工作经验和做法，并就巡视整改工作中的共性问题进行了深入的探讨与交流。蒙城县在巡视整改工作中建立健全县乡村三级整改台账资料，成立扶贫暗访人才库，对问题整改开展复核，尤其是针对扶贫项目资金管理、产业扶贫、电商扶贫、扶贫车间、光伏扶贫、小额信贷等6个方面的问题整改，实行“每周一暗访”，对整改不到位的进行常态化约谈，确保巡视反馈问题整改彻底。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>96</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>安徽华联商厦赴河南考察学习</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2019-03-25</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://swj.huainan.gov.cn/hnsw/113500599.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['为进一步学习行业领先企业发展的先进理念和现代企业管理运作模式，开拓发展视野，提升自身能力，促进企业转型升级和快速发展，3月13日，公司组织领导班子成员及全体中层干部赴河南商业零售企业巨头胖东来商贸集团公司进行考察学习。在考察以后，大家纷纷表示，考察过程中的所见所闻，令人耳目一新，感触很大，也体会到与优秀的企业存在着不少差距，进一步增强了企业需要加快发展的危机感、责任感和使命感。下一步要根据自身企业的实际情况，狠抓企业内部管理提高工作效率，进一步加大创新力度，不断壮大企业实力，提升经济效益，努力为我市经济社会发展做出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>96</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>区政协赴凤台县考察学习</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2019-08-28</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://www.xiejiaji.gov.cn/xwzx/zwyw/8060751.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['日前，区政协副主席杨永霞率民宗委一行10人赴凤台县就民族经济、宗教文化及旅游产业发展等方面进行考察学习。凤台县政协副主席闪电厂陪同。', '考察组一行先后来到香胡麻油厂、李冲清真古寺、茅仙古洞等地，详细了解了少数民族企业发展、宗教管理、文物保护、旅游产业融合发展等情况，并听取了相关工作人员的介绍。', '杨永霞表示，此次考察学习让考察组一行受益匪浅，特别是凤台县认真落实民族政策，推动民族村经济社会发展的多项举措，以及对宗教文化的保护和传承值得我们学习借鉴。', '闪电厂希望今后两地政协加强沟通和交流，互相学习好的经验和做法，共同推动两地各项社会事业发展。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>96</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>高新区赴合肥高新区考察学习</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2019-02-19</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://gxq.huainan.gov.cn/yqdt/108075297.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['2019年2月18日，高新区党工委委员、管委会副主任徐权带队，科技局、招商局、财政局主要负责同志赴合肥高新区考察学习招商引资工作先进经验，合肥高新区招商局主要负责同志热情接待并主持座谈，经贸局、财政局、科技局相关负责同志参与座谈。', '座谈会上，徐权就淮南高新区历史发展、园区概况、招商现状等方面进行介绍，双方就政策制定与兑现、招商经验等方面展开交流。徐权表示，合肥高新区作为全国一流园区标杆，先进的招商工作管理经验值得淮南高新区认真学习，希望双方今后进一步加强交流，努力共建战略合作关系。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>96</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>谢家集区政协来凤考察学习</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2019-08-23</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/xwzx/ftyw/7907051.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['8月23日，谢家集区政协副主席杨永霞率谢家集区政协民宗委一行10人，来我县就民族经济、宗教文化及旅游产业发展等方面进行考察学习。县政协副主席闪电厂陪同。', '考察组一行先后来到香胡麻油厂、李冲清真古寺、茅仙古洞等地，详细了解了少数民族企业发展、宗教管理、文物保护、旅游产业融合发展等情况，并听取了相关工作人员的介绍。 杨永霞表示，此次考察学习让考察组一行受益匪浅，特别是凤台县认真落实民族政策，推动民族村经济社会发展的多项举措，以及对宗教文化的保护和传承值得我们学习借鉴。 闪电厂希望今后两地政协加强沟通和交流，互相学习好的经验和做法，共同推动两地各项社会事业发展。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>96</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>安徽华联商厦赴南京新百考察学习</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2018-10-25</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://swj.huainan.gov.cn/hnsw/95047333.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['为进一步学习行业领先企业发展的先进理念和现代企业管理运作模式，开拓发展视野，提升自身境界，促进企业转型升级和快速发展，10月13日，公司党委书记、董事长吴雷带领公司部分领导班子成员及部门负责人赴南京新百股份有限公司进行考察学习。南京新百股份有限公司总经理傅敦汛对考察团一行表示热烈欢迎，并详细介绍了企业党建情况、发展理念、经营情况以及精细化管理等方面的先进经验。吴雷董事长表示，考察过程中的所见所闻，令人耳目一新，感触很大，也体会到与优秀的企业存在着不少差距，进一步增强了企业需要加快发展的危机感、责任感和使命感。下一步要根据自身企业的实际情况，狠抓企业内部管理提高工作效率，进一步加大创新力度，不断壮大企业实力，提升经济效益，努力为我市经济社会发展做出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>96</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>吴良斯率队赴上海市供销社考察学习</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2018-08-07</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://gxs.huainan.gov.cn/xwzx/xyyw/82565408.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['8月2日下午，省供销社党组书记、理事会主任吴良斯在党组成员、理事会副主任魏邦余陪同下，率部分投资企业主要负责人，赴上海市供销社考察学习。', '座谈交流中，吴良斯向上海市供销社理事会主任、党委副书记赵刚介绍了全省系统改革发展基本情况，并对上海市供销社近年来的改革发展表示高度赞赏。他表示，希望沪皖两地充分发挥系统优势，进一步加强交流合作，在农产品贸易、再生资源回收利用等领域开展深入合作，共同为供销社服务乡村振兴、促进“三农”事业发展作出应有努力。', '赵刚介绍了上海市社改革发展基本情况，并表示，接下来愿意与安徽省社在更广业务领域中加强合作，共同推动供销合作事业发展迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>96</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>重庆市政协考察组来凤考察学习</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2018-06-20</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/xwzx/ftyw/7904076.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['6月20日，重庆市政协副主席陈贵云率考察组对我县实施乡村振兴战略和农民合作社发展进行考察。市政协副主席、县委书记李大松，县政协主席马士平，县委常委、副县长操海群，县政协副主席李纯海等对口接待。', '在凤台县沿淝糯米专业合作社和农旺植保服务专业合作社，考察组一行听取了情况介绍，对凤台县沿淝糯米专业合作社充分利用农机专业合作社的有利资源，实现机耕、机插、机防、机收“一条龙”社会化服务体系给予高度评价；对农旺植保服务专业合作社采用“互联网+农业”，集高科技、专业化、智能化农业综合服务的做法表示赞叹。在安徽坤霖生物科技有限公司，考察组一行详细了解该公司独特的运营、管理模式，高度赞扬了我县在培育农村新型产业发展带动农民共同致富的做法。 通过实地考察、听取汇报，考察组认为，凤台县在实施乡村振兴战略方面思路明确、措施具体、成效显著，农民合作社科技含量高、发展前景广；表示通过本次考察学习，拓宽了实施乡村振兴战略的思路，丰富了农民合作社发展的举措，要将好的经验和做法带回去，结合当地实际，充分利用资源，提高实施乡村振兴战略和农民合作社发展水平，加快经济社会转型提速发展。 李大松对考察组一行的到来表示欢迎；希望今后进一步加强两地的交流、合作，共同探讨实施乡村振兴战略和农民合作社发展的好经验、好做法，促进两地共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>96</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>西藏措美县考察团来凤考察学习</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2018-04-26</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/xwzx/ftyw/7902300.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['4月26日，西藏措美县委副书记杜祝涛带领村（社区）负责同志组成的考察团对我县社区党建、现代农业、美丽乡村建设等进行考察学习。县委常委、组织部长郑田宏陪同考察。', '考察团一行利用一天的时间，先后对凤凰镇芮集社区党建示范点、凤台现代农业示范区、凤台电厂、顾桥煤矿、朱马店镇美丽乡村示范点等地进行了实地考察，详细了解相关工作经验和做法，并对社区精细化党建、利用现代栽培技术创造出的“智能化、可视化、艺术化”的智慧农业等工作给予了高度评价。 考察团表示，凤台县各方面都有许多亮点和经验，通过此次考察加深了对凤台县了解；希望凤台与措美两县能够继续保持密切沟通，携手推动两地共同发展。 郑田宏对西藏措美县考察团来我县考察表示热烈欢迎；表示今后我县将进一步加强与措美县的沟通协作，在基层党建、农业发展、工业经济、乡村建设等多个领域积极探索合作途径，搭建合作平台，共同推动两县经济社会健康快速发展。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>96</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>淮北市宣传部考察团来凤考察学习</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2018-05-29</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/xwzx/ftyw/7903497.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['5月29日，淮北市宣传部副部长丁傲然率淮北市宣传部、淮北市文旅体委有关负责人一行来凤，考察学习文艺院团改革发展工作。县委常委、宣传部长王毅及市县宣传部、文广体局有关负责人等陪同。', '丁傲然一行实地参观了我县艺校学生上课、艺术团演员排练节目等情况；随后在县艺术团会议室，县文广体局负责人介绍了我县“两团一校”基本情况，与我县“两团一校”负责人进行了座谈交流。', '通过实地察看、听取汇报、座谈交流，丁傲然对我县文艺院团改革发展工作给予高度评价，认为我县在开展文艺院团改革发展工作做到了注重市场导向、注重队伍建设、注重打造精品、注重改革体制机制创新；希望两地加强交流学习，全力推进文化事业大繁荣，促进文化产业大发展。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>96</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>李萍赴天长市考察学习科技创新工作</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2017-06-23</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/public/118322983/257219079.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['6月21至22日，副县长李萍率县科技局、经济开发区、县国家农业科技园区及有关企业负责同志一行前往天长市考察学习科技创新工作。', '考察团一行受到了天长市政府和市科技局的热情接待，天长市政府副市长周继安主持了两地科技工作交流座谈会，天长市科技局局长何永介绍了近几年天长市科技创新，特别是孵化器建设工作先进经验。天长市科技创新硕果累累，现有高新技术企业64家，国家级科技企业孵化器1家，国家级众创空间1家，国家级知识产权示范企业1家，省级院士工作站5家、创新型试点企业14家、工程技术研究中心6家，产学研合作高校院所达100多家。', '李萍副县长就我县近年来的科技创新工作情况作了交流，谈到凤台与天长相比，科技工作了还存在较大的差距和不足，下一步我县将借鉴天长市的先进经验和创新举措，推动科技工作的快速发展。会后，李萍一行深入天长市创新服务中心、天康集团、电子商务产业园等重点企业进行了现场考察。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>96</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>区教育局赴包河区教体局考察学习</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2017-05-23</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://www.tja.gov.cn/xxgk/bmdt/8006903.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['为学习合肥市包河区教体育局集团化办学、人事制度改革和督学责任区建设等方面的先进经验，5月17日，田家庵区教育局考察组赴合肥市包河区教体局考察学习。', '在5月17日上午座谈会上，合肥市包河区教体局党委书记、局长陈雪梅介绍了集团化办学、督学工作等先进经验，副局长高俊对督导工作做了详细的介绍，教育科、督导室、人事科负责人及教育集团张校长就集团化办学、人事制度改革等事项与做法进行了细致的说明。下午，督导室主任带领考察组参观了督学责任区办公室并做了精彩的督导责任区建设工作先进经验介绍。', '考察组一致认为，此次考察学习，收获颇丰、受益匪浅。包河区教体局在集团化办学、督导责任区建设及人事制度改革等方面取得的卓越成绩让大家深深感受到了全国教育强区的魅力。包河区教育人既有高屋建瓴的顶层设计，又有脚踏实地解决问题的具体措施。正是这些措施的施行，规范了行政行为，促进了教育飞速发展。考察组人员表示，将深入领会学习收获，进一步推动我区区域内教育发展。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>96</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>八公山区党政领导来我区考察学习</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2017-05-17</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.maoji.gov.cn/zxzx/zwyw/7803414.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['5月16日下午，八公山区区委书记梁立昌，区委常委、副区长杨春，副区长、发改委主任管迎悦一行来我区考察学习园区建设发展和投融资工作。区工委书记、人大工委主任赵期中，区管委主任胡林娜，区工委副书记、政协工委主任管恒川，管委副主任张跃勇等人参加座谈或陪同考察。', '毛集经济开发区位于合淮阜高速公路毛集出口处和102省道两侧，主要发展农副产品加工、先进制造、高新技术等产业，规划面积12.23平方公里。区里科学修改完善开发区总体规划和产业发展规划，明晰园区产业发展重点，按照“布局集中、用地集约、产业集聚”的原则，采用PPP方式，加强开发区基础设施建设和标准化厂房建设，促进产业结构升级，实现资源型地区可持续发展，带动当地经济社会全面发展。', '在投融资方面，我区通过创新投融资体制机制，加快推动融资平台建设，组建投融资担保公司，全面拓宽投融资渠道，加强资金管理，进一步强化项目建设计划与资金需求计划的匹配，使资金计划与项目建设计划有效衔接。为经济社会发展注入强劲活力。', '赵期中对八公山区党政领导的到来表示欢迎，简要介绍了毛集园区建设发展和投融资工作，同时也希望两区之间要加强沟通交流，相互学习借鉴，共同推进两地经济社会又好又快发展。', '梁立昌对我区园区建设发展和投融资工作取得的成绩给予高度评价，表示将学习实验区的先进经验做法，与本区实际相结合，推动区里园区建设和投融资工作取得更大的进步。并前往毛集经济开发区实地参观考察。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>96</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>李郢孜镇组织赴寿县堰口镇考察学习</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2017-03-10</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://www.xiejiaji.gov.cn/xwzx/xzbd/8087837.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['3月9日，李郢孜镇党委委员、武装部长张兵带队赴寿县堰口镇考察学习美丽乡村建设工作。堰口镇党委副书记沈永热情接待了考察组，陪同参观了堰口镇的魏岗村和十路中心村。', '十字路中心村为省级中心村，考察组实地查看了其道路硬化、环境整治、绿化亮化、沟塘治理、“微田园”等建设情况，重点交流学习了村级环境整治工作的经验。', '通过参观对比学习，拓宽了我镇美丽乡村建设思路，为我镇现阶段村级环境卫生整治工作增强了信心。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>96</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>邹玲一行赴广东考察学习</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2017-04-11</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://jxj.huainan.gov.cn/ywzl/xmtz/19948785.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['为推进招商引资工作，4月6日—4月9日，委党委委员、纪委书记邹玲一行赴广东省深圳市、清远市考察学习。先后考察学习了华讯方舟科技有限公司、恒拓高工业技术股份有限公司、大鹏新区及清远市的相关产业发展，并向有关政府、部门及企业负责人就淮南投资发展环境进行宣传推介，积极洽谈，寻求合作。', '在深圳市华讯方舟科技有限公司，该公司相关部门负责人详细介绍了华讯方舟的在建项目与发展规划，公司架构及运营情况等。座谈会上，经济促进局负责人介绍了如何为企业发展搞好服务，优化发展环境的好经验好做法，邹玲一行就互联网+政务服务APP、来淮投资基地建设等重点问题和企业进行了深入讨论。', '在深圳市恒拓高工业技术股份有限公司，邹玲一行详细了解了恒拓高工业技术股份有限公司气动元件、液压元件以及工业机器人、自动化数字化智能化机电工程与周边设备的生产，并针对目前我市的具体情况，与恒拓高工业技术股份有限公司负责人进一步探讨了来淮投资兴业、商业开发合作的可能。', '在深圳市大鹏新区，旅游局负责同志介绍了该区在旅游发展、商业开发等方面的经验与做法，并陪同邹玲一行先后考察了深圳大鹏旅游产业发展情况及半岛国家地质公园博物馆等。邹玲表示，大鹏新区区位优势和资源优势非常突出，致力于打造深圳的后花园，我们将学习借鉴大鹏新区的经验做法、发展思路，助推我市旅游业健康快速发展。', '在广东省清远市，邹玲一行实地考察了清远旅游资源开发情况及在建项目，详细听取了规划介绍，认真学习了把“绿水青山”的生态资源转换为“金山银山”的经济优势的发展理念。邹玲表示，淮南市历史悠久、交通便捷、资源丰富、潜力巨大。近年来，市委、市政府大力推进招商引资工作，高度重视来淮投资的新兴产业与企业。希望双方加强沟通与交流，热情欢迎清远市领导和企业来淮考察，我们将全力做好服务，实现合作共赢。（办公室）']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>96</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>市粮食局赴河北柏乡粮库考察学习</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://lswz.huainan.gov.cn/lyyw/sjdt/14982753.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['日，市粮食局组织考察组赴河北柏乡国家粮食储备库考察，实地学习柏乡粮库先进工作经验。党委书记、局长李艳景、副局长祁家学、纪委书记宋逊田、各县区粮食局、局属各购销企业和局机关科室负责人参加考察。', '考察组参观了柏粮道德建设展览馆，听取了全国道德模范、全国劳动模范、粮库主任尚金锁同志的先进事迹介绍，考察了粮食仓储管理，与邢台市粮食局、柏乡粮库有关同志就企业管理、诚信经营等方面工作进行了座谈交流。通过学习和交流，', '大家真切地感受了柏粮人“宁流千滴汗，保鲜一粒粮”的爱粮敬业精神、“管好粮先做好人”的人本管理理念、“人人讲诚信、事事讲诚信、时时讲诚信”的行业风尚和积极履行社会责任的正能量', '柏乡粮库是粮食系统的一面旗帜，是粮食行业崇严尚实的表率。我们不仅要学习柏乡粮库在制度建设、仓储管理、诚信经营、科技创新、企业文化、以人为本等方面的好经验、好做法，更要深刻领会柏粮精神的实质内涵。在今后的工作中，全市粮食系统将把柏粮精神内化于心，外化于行，补齐工作短板，转变发展理念，强化党的建设，打造企业文化，坚持科技兴粮，构建现代粮食仓储管理体系，推进淮南粮食工作持续健康发展。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>96</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>李郢孜镇组织村干部赴外考察学习</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2017-04-18</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://www.xiejiaji.gov.cn/xwzx/xzbd/8088281.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['为了更好的推进农村环境集中整治工作，打好“向垃圾宣战 建美丽家园”攻坚战，4月18日，李郢孜镇组织机关、村干部人员赴怀远县考察学习，考察队由徐明镇长带队，分管工作武装部长张兵、副镇长卫星，党委委员边鑫、镇创建办及6个村两委负责人一行20人组成。', '考察队先后来到了曹河村、何巷村、寨头村，通过实地走访，深入了解其道路硬化、环境卫生、绿化美化、沟塘治理等建设情况。现场交流了农村环境整治经验。', '通过参观对比学习，拓宽了我镇环境集中整治行动工作思路，为我镇下阶段工作开展增强了信心。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>96</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>李郢孜镇组织村干部赴外考察学习</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2017-04-19</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://www.xiejiaji.gov.cn/public/118323139/1259098134.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['为了更好的推进农村环境集中整治工作，打好“向垃圾宣战 建美丽家园”攻坚战，4月18日，李郢孜镇组织机关、村干部人员赴怀远县考察学习，考察队由徐明镇长带队，分管工作武装部长张兵、副镇长卫星，党委委员边鑫、镇创建办及6个村两委负责人一行20人组成。', '考察队先后来到了曹河村、何巷村、寨头村，通过实地走访，深入了解其道路硬化、环境卫生、绿化美化、沟塘治理等建设情况。现场交流了农村环境整治经验。', '通过参观对比学习，拓宽了我镇环境集中整治行动工作思路，为我镇下阶段工作开展增强了信心。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>96</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>袁祖怀考察学习水利泵站建管工作</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2016-07-25</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/public/118322647/1259207634.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['7月22至23日，县长袁祖怀带队赴扬州考察学习水利泵站建设管理工作。副县长邵朝辉和县永幸河灌区管理处负责同志陪同。', '在江苏航天水利设备有限公司，袁祖怀一行实地查看了生产设备、工艺流程和产品类型。在会议室，总经理崔佃德全面介绍了公司的发展历程和生产经营情况。副总经理邵春兵重点汇报了公司的产品类型，特别是大型水泵广泛应用于国家重点工程如南水北调、重点流域和城市供水调水等工程。袁祖怀简要介绍了凤台经济社会发展和水利工作现状。双方围绕西淝河站水泵机组的设计生产、安装使用和维护管养等进行深入探讨。袁祖怀要求，永幸河灌区管理处等相关单位要组织技术人员，提前介入，全程参与，切实做好泵站建管工作。崔佃德表示，公司将尽最大努力，运用最新技术，提供最优服务，确保水泵安全运行。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>96</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>寿县人才交流中心来我县考察学习</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2017-03-01</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/public/118323004/257339118.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['2月28日上午，寿县人才交流中心主任程晋礼一行3人来我县考察学习人事人才工作。县人社局和县人事服务和人事考试中心相关人员参加了考察座谈。', '两县结合近年来各自工作情况，就人力资源市场整合、高校毕业生就业服务、人事考试以及流动人员人事档案管理等方面的经验做法进行了深入交流，双方并对当前人事人才服务工作中遇到的一些新情况、新问题、新特点进行了积极探讨，提出了建设性的意见，共享了人事人才服务工作中的成功做法和宝贵经验，进一步推动了两地人事人才工作的发展。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>96</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>我校组织创新班教师外出考察学习</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2015-12-18</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>https://www.huainan.gov.cn/public/118319882/12983971.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['10月9日，在陈仁珊副校长的带领下，淮南二中高一文理创新班的全体老师及班主任前往安徽郎溪中学交流学习。教务处、教研处及高一年级部主任一同参与了此次活动。', '郎溪中学是安徽宣城地区一所县级中学，因这几年在自主招生班办学上取得的优异成绩而出名。这次交流活动学校酝酿已久，旨在了解郎溪中学自主招生部的办学特点，学习其有益经验，从而办出有淮南二中特色的创新班。', '在郎溪中学雷宗靓校长的热情陪同下，我们首先参观了郎溪中学美丽的校园，然后分学科在自主招生部的三个年级听课，从课堂教学、学生学习氛围、班级文化到教室布置等多方面进行学习。', '在会议室，大家进行了亲切的交流。雷校长、胡校长及陈强主任向我们介绍了郎溪中学自主招生部办学的背景、过程、成功的经验，着重介绍了课程的设置、竞赛的安排等，同时也和我们分享了成功背后的困惑和思考，为我们办好淮南二中创新班提供了经验，增强了信心。陈仁珊副校长在发言中代表淮南二中感谢郎溪中学的热情接待和真诚的经验分享，然后表达了此行的感想和收获，向郎溪中学的领导和老师们发出热情的邀请，欢迎他们到二中进行教学、教研等多方面的联谊活动。', '这次交流活动让大家学习到了有益的经验，使我们对创新班管理和教学增加了信心。我们相信，在大家的共同努力下，我们一定能够培养出知识扎实、思维活跃、成绩优异的精英型人才。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>96</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>潘集镇考察学习拓思路携手共进促发展</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2024-05-17</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>https://www.panji.gov.cn/public/118323352/1260215794.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['为深入学习和美乡村建设、乡村振兴产业、基层治理、村集体经济等方面的先进经验做法，推进潘集镇和美乡村建设再上新台阶、乡村振兴再上新高度。5月13日，潘集镇组织领导班子成员、各村书记赴宿州市泗县考察学习，为期三天。', '考察期间，潘集镇考察团先后赶赴宿州市泗县关庙村、长沟镇蔬菜基地、泗州薯业、墩集草莓生产基地、七河生物、屏山花卉基地、屏山镇老山村、大庄镇曙光村、草庙镇、网周村、现代农业高新技术研发中心、隋唐大运河博物馆考察乡村治理、和美乡村建设、乡村振兴产业发展等情况。每到一处，学员们都与当地村干部、村民、种植大户等认真交流，仔细听取当地基层干部对村庄规划、自然村庄整治建设、乡村振兴产业的经验与做法。一路走来，成员们切身感受到泗县各镇各村皆以旺盛的干事创业热情、强劲的工作活力蓬勃发展，大家拧成一股绳、心往一处想、劲往一处使，团结所有力量朝着一个目标努力奋斗。不积跬步无以至千里，不积小流无以成江海，任何成功都不是一蹴而就的，泗县始终坚持以习近平新时代中国特色社会主义思想为指引，深入学习贯彻党的二十大精神，坚持工业化、城镇化“双轮驱动”，在建设“经济强、百姓富、生态美”的高质量现代化的道路上取得了显著成就。', '考察过程中，大家认真观摩、仔细聆听、用心思考，感到深受启发、收获很大。大家一致认为，泗县之所以能够荣获全国脱贫攻坚先进集体、全国脱贫攻坚组织创新奖，入选全国县域发展潜力百强县，正是因为其抢抓长三角一体化发展、皖北“两个加快”等重大战略机遇，推动绿色食品产业加速聚集，加快向现代化工业强县、现代化农业强县、现代化中等城市的“三大跨越”；始终坚持以党建为引领，将自治、法治、德治高度融合，形成“党组织引领、多主体参与、全要素联动”的市域社会治理格局；干部群众一条心，敢于创新、共同创业，聚焦特色产业高质量发展，实现一村一品，提升村集体经济，焕发乡村振兴活力。', '考察结束后，各位成员在泗县就地召开集中学习研讨座谈会。听取各位主要负责人发言后，潘集镇党委副书记、纪委书记王远江指出要在党员日常教育上下功夫，强化党建引领作用，发挥党员先锋模范作用。结合党纪学习教育，夯实广大党员干部纪律意识、提高党性修养；学习泗县优秀经验，壮大村集体经济。因地制宜，利用好采煤沉陷区，盘活资产资源、集体发展特色产业；涵养为民情怀，真挚服务人民群众。急群众之所急，想群众之所想，解决好人民群众最关心、最直接、最现实的利益问题。', '潘集镇党委副书记、镇长邓加奎强调，各部门、各村应打开思路、拓展眼界、提升格局，打破经济发展北方不如南方的旧观念。一是整治人居环境，助力乡村治理。各部门、各村主要负责人要明白乡村治理应该干什么、怎么干，党员干部要“亮身份，做承诺，当先锋，树形象”完善村庄公共设施、优化公共服务，将乡村治理前期规划与日常管护相结合，逐步推进美丽乡村建设。二是畅通信访渠道，提升化解能力。各村要建立健全以村党总支为领导，村委会、监委会为基础的基层治理体系，在进行村民代表选举时要确保年龄结构合理，发挥“五老”人员优势，经常性开展议事协商活动，实现矛盾纠纷一次性化解，做到“小事不出村，大事不出镇”。三是用好乡贤能人，激发振兴功能。建立“乡贤能人库”，将政治素质好、个人能力强、群众威信高的经商人员、致富带头人、种植大户作为入库对象，积极对接好、服务好成功人士，争取引进新项目，吸引新投资，提升强村富民新高度。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>96</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>市科技局一行赴合肥国家大学科技园考察学习</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>https://kjj.huainan.gov.cn/xwzx/tpxw/551730888.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['10月19日，市科技局党组成员、副局长谢郁坦和淮南经开区党工委委员、副主任姚多智率队赴合肥国家大学科技园考察学习，市科技局成果科、淮南经开区商务科技局负责人参加了学习。', '谢郁坦一行与合肥国家大学科技园总经理王荣钊、副总经理毛庆进行了座谈交流，了解合肥国家大学科技园发展历程、运营模式，以及人才团队培养、成果转化、投融资服务等方面的先进经验。', '谢郁坦表示，科技企业孵化器是促进科技成果转化、培育高新技术企业的服务机构，合肥国家大学科技园作为全省首屈一指的孵化载体，拥有成熟的运营管理模式和亮眼的孵化成效。希望合肥国家大学科技园能与淮南加强交流合作，探索推动淮南市科技企业孵化器高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>96</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>毛集镇考察学习眼界宽促进合作强发展</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2023-10-12</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>https://www.maoji.gov.cn/zxzx/bmdt/8115622.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['10月8日-10月10日，毛集镇主要负责同志带领招商考察团队赴广州市、苏州市开展招商引资及学习考察活动，拜访有关企业，深化沟通交流,拓宽合作领域，提升合作层次，推进产业合作，努力实现互利共赢，为毛集经济高质量发展赋能。区投资促进局局长孙武同志及镇经发办相关人员一同参加活动。', '招商队一行先后到广州普今电子股份有限公司、苏州戈雷姆智能科技有限公司进行实地考察，仔细了解各企业产业结构、运营模式、生产经营状况以及下一步发展规划等情况，并与企业负责人进行了深入交谈，对毛集营商环境、产业基础和资源优势进行全方位推介，就双方关心的有关问题互换了意见，进一步拓展合作空间。', '广州普今电子股份有限公司，该公司位于广州市增城区新塘镇，现拥有厂房8000平方米，有独立的办公楼和宿舍楼，是一家专注于逆变电源产品设计、研发、生产、销售为一体的高科技企业。产品应用领域包含：家用、车载、船用、太阳能发电系统、户外移动储能等。产品远销欧美、东南亚、中东、非洲等200多个国家和地区。', '苏州戈雷姆智能科技有限公司，由毛集区焦岗湖镇村民牛多邦创办，目前该公司主要生产家用机电设备及配件，是一家集研发、生产、销售为一体的生产厂家，大部分产品是出口，在国内主要给海尔小家电做配套。此次邀请毛集镇到公司考察主要是讨论回乡投资的意向。由于订单量较大，之前的厂房满足不了现在的市场需求，计划回毛集投资兴业，意向把加工基地迁回毛集工业园区，苏州这边作为研发和销售基地。计划征地30亩建设高标准的厂房和独立的办公区域，牛总表示广州展销会结束将立刻回毛集实地考察地块和厂房，并详谈投资计划。', '在招商过程中，各企业负责人热情欢迎毛集镇招商队一行的到来，对到毛集投资兴业表现出浓厚兴趣，表示毛集发展潜力巨大，生态、区位、资源优势明显，将加强与毛集的沟通对接，多角度寻找合作切入点，实施产业转移，开拓新的发展空间，实现资源共享、合作共赢。招商队强调，毛集镇交通便利，具有生态环境优美、自然资源富集等优势，并表达了毛集打造一流营商环境的决心，表示将以公平竞争的市场环境、便捷高效的政务环境、遵纪守法的法治环境、诚实守信的信用环境，为毛集客商保驾护航，全力支持企业发展壮大。希望各位企业家多到毛集考察调研、投资兴业、共谋发展,为毛集新经济新业态的发展注入更多源头活水。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>96</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>寿县总工会考察学习工人文化宫建设运营情况</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2023-02-27</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/zwzx/bmdt/8096230.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['为推进寿县工人文化宫建设，2月23日至24日，寿县总工会党组书记、副主席胡德宝带领班子等人赴休宁县总工会、青阳县总工会考察学习工人文化宫建设、运营管理情况。期间，休宁县总工会党组书记、副主席余国扬，青阳县总工会党组书记、副主席王康松等领导全程陪同。', '考察团先后参观两县工人文化宫的工运史馆、职工服务中心、职工培训教室及体育运动场馆等功能区；详细了解工人文化宫阵地建设、运营管理模式；认真听取两县工人文化宫关于技能培训，文化惠工等品牌工作的情况介绍。', '通过实地调研工人文化宫建设运营情况，大家深受启发和激励，两县工人文化宫的科学运营和先进管理经验值得学习借鉴，并希望今后加强交流，相互促进，围绕广大职工需求创新工作思路，提升服务职工水平。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>96</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>寿县医保局赴六安市叶集区医保局考察学习</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/public/118322839/1259720660.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['5月9日，寿县医保局党组成员、副局长李忠平率医保中心及省级医保基层示范点申报单位负责人员一行8人，赴兄弟单位六安市叶集区进行考察学习。', '考察学习通过实地考察和研讨相结合，首先对叶集区孙岗乡医保服务站和三元镇沣桥村医保服务点进行了实地考察，通过经办服务下沉、人员专兼互补、设施升级改造等方式，叶集区打造', '2021年度省级医疗保障基层服务示范点，并构建起“大事不出镇、小事不出村”的医保基层服务体系，获得了群众的一致好评。实地考察后，叶集区医保局领导就基本医保政落实、基层建设、医疗机构监管等进行了详细介绍。同时，针对一线工作中共性的业务经办和具体问题处理方法和经验进行了交流。', '。寿县医保局将积极应对新形势、新挑战，持续优化医保经办流程，创建优质高效服务，推进我县医保工作高质量发展。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>96</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>高新区赴合肥市蜀山区考察学习乡村振兴工作</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>https://gxq.huainan.gov.cn/ztzl/tpgj/551708818.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['5月6日，高新区土地征收中心主任陈明德带队赴合肥市蜀山区小庙镇考察学习农文旅乡村振兴示范项目，三和镇镇长倪龙江、副镇长张祝标和部分村主要负责同志陪同考察学习。', '陈明德一行先后考察肥西县李长庄农村人居环境和蜀山区小庙镇大小岭南农文旅和民宿项目，实地参观并详细了解庐州驿大麦季项目规模和运营情况。', '随后，一行人员与项目运营公司安徽誉阳集体总经理马后来等人座谈交流。倪龙江在考察中向项目方详细介绍了三和镇社会经济发展、独特地域优势和发展前景规划，三和镇区域优势明显，人口聚集、消费空间巨大，适合发展乡村旅游项目。陈明德表示，真诚邀请企业到淮南市高新区三和镇进行实地考察，希望就农文旅项目能够进一步探讨，促进达成合作意向。马后来表示近期将安排团队前往实地考察，详细了解，争取达成合作意向。', '下一步，高新区三和镇将以人居环境改善和乡村环境营造为重点，挖掘浓厚的乡土文化氛围，建设有活力的新农村，打造宜居宜业的和美乡村。（供稿人：郑广梅）']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>96</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>寿县城管局组织人员到合肥城管局考察学习</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/zwzx/bmdt/8095922.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['2月21日，寿县城管局组织城管渣土大队、政策法规股、新桥国际产业园、城管炎刘中心所部分同志，到合肥市城管局考察学习渣土运输管理工作。', '在考察学习中，合肥城管局相关工作负责同志就渣土运输工地出入口管理、渣土运输企业资质审批、工地渣土处置证许可、渣土运输企业及从业人员信用考核等渣土管理事项进行了详细地介绍，同时就一线工作出现的一些具体问题处理方法和经验进行了交流。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>96</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>淮南市赴六安市考察学习乡村振兴工作</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>https://xczxj.huainan.gov.cn/dtyw/xwdt/551650866.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['11月18日，市乡村振兴局局长徐权率领相关科室负责人和各县区乡村振兴局负责人到六安市金寨县考察学习低收入人口监测与帮扶、政策衔接、产业发展等巩固拓展脱贫攻坚同乡村振兴有效衔接的相关工作。', '考察组来到金寨县金寨县乡村振兴局，与金寨县乡村振兴局负责同志座谈，学习该县的好做法、好经验。近年来，金寨县深入贯彻落实党中央、国务院及省、市关于乡村振兴战略的决策部署，抢抓新时代革命老区振兴、长三角一体化发展政策机遇，乡村振兴步伐全面加快，农业农村经济持续健康发展，连续三年被评为安徽省实施乡村振兴战略实绩考核优秀等次，荣获国务院2021年度“促进乡村产业振兴、改善农村人居环境等乡村振兴重点工作成效明显的地方”激励表彰，乡村振兴实现良好开局。', '调研组来到金寨县花石乡大湾村，调研习近平总书记视察大湾村座谈会旧址、大湾村农光互补产业基地、大别山农耕博物馆等地，全面了解大湾村牢记总书记的嘱托，实干创新推进高质量脱贫的先进经验。大湾村始终把脱贫攻坚作为最大政治任务，实事求是、因地制宜，分类指导、精准扶贫，着力打造基层党建示范、脱贫攻坚示范、乡村振兴示范，走出了一条“党建引领，山上种茶，家中迎客，红绿相映”的精准扶贫之路。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>96</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>毛集实验区党政代表团赴颍上县考察学习</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>https://www.maoji.gov.cn/zxzx/zwyw/8083636.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['9月16日，区工委书记、人大工委主任胡林娜带领毛集实验区党政考察团赴颍上县考察，学习项目建设、生态绿化、人居环境整治、文化旅游等方面的经验做法。区工委副书记、管委主任陈彦臣，区领导王啸、田文静、李立正、杨秀风、刘庆武，以及区直相关部门和各镇主要负责人参加考察。颍上县委副书记、县长程晓醒，县人大常委会主任胡伟，县领导虢磊、马树行陪同考察。', '考察团先后前往颍上经济开发区部分企业、五里湖湿地公园二期、八里河镇渔民社区、尤岗社区、尤家花园、管仲老街等地，通过实地查看、听取介绍、相互交流等方式全面了解颍上县在项目建设、产业发展、生态绿化、人居环境整治、文化旅游等方面取得的成绩及好经验、好做法。大家边走边看边学，对颍上县因地制宜，探索总结出的经验和做法频频点赞。希望今后继续加强两地沟通交流、相互学习借鉴，共同促进各项工作高质量发展。', '通过考察大家纷纷表示，毛集与颍上一衣带水、地缘相近、人文相通，颍上许多开拓创新的经验模式在毛集值得借鉴推广。考察回去后，将全面动员、迅速行动，抢抓时间、抢抓机遇，大力开展招商引资和项目建设，扎实推进农村人居环境整治，积极开展生态绿化和文化旅游建设等工作，以只争朝夕的状态和作风，把学习成果转化为善谋善作、大抓发展的实际行动，全力推进乡村振兴战略实施。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>96</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>市乡村振兴局到舒城考察学习产业振兴工作</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>https://xczxj.huainan.gov.cn/dtyw/xwdt/551633717.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['7月15日至16日，淮南市乡村振兴局副局长朱传克、四级调研员陈太益率领相关科室负责人到六安市舒城县，考察学习产业振兴工作。', '考察组先后来到六安国家农业科技园、千人桥镇水稻育插秧中心、桃溪国家农业科技园区、春秋乡文冲村，调研产业发展工作。', '近年来，舒城县严格按照“产业兴旺、生态宜居、乡风文明、治理有效、生活富裕”乡村振兴战略总体要求，以巩固拓展脱贫攻坚成果为首要任务，以增加农民收入为核心目标，以深化农村综合改革为根本动力，创新举措、整合资源、聚合项目，以点串线、以线带面，全面推进巩固拓展脱贫攻坚成果同乡村振兴有效衔接。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>96</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>寿县文旅局赴微山湖游客中心考察学习</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2021-09-07</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>https://wlj.huainan.gov.cn/ztzl/aqwmly/551585475.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['我县古城游客集散中心作用，9月2日-3日寿县文旅局和国投集团分管负责人一行去山东省济宁市微山湖景区考察学习，借鉴游客中心好经验、好做法。', '智慧旅游运营指挥中心，实际操作通过智慧旅游平台化、便利化、标准化建设，为景区如何提供智能化管理手段，', '寿州古城游客集散中心位于寿县宾阳大道和寿蔡路交口东北侧，占地面积约120亩，分为主体楼（含停车场）和景观工程两部分，其中主体楼建筑面积约4539㎡。目前已作精装修改造，生态停车场约30000㎡，约可同时停放大巴车120辆、小车300辆。游客中心主体建筑、']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>96</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>毛集镇赴寿县保义镇考察学习美丽乡村建设</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2023-07-20</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>https://www.maoji.gov.cn/zxzx/bmdt/8108398.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['7月20日上午，毛集镇在镇人大主席蒋春耕的带领下，组成考察学习团一行14人，赴寿县保义镇考察学习美丽乡村建设工作。', '在保义镇镇长余守全以及人武部长常传利的陪同，考察团一行先后来到省级美丽乡村金祠村酒坊中心村、桃园村老井中心村，听取保义镇关于美丽乡村建设相关工作的介绍，参观美丽乡村建设文化广场、宅间道路、景观文化墙及一村一品等亮点打造。考察团每到一处，认真看、仔细听，进行热情认真交流，详细了解金祠村和桃园村在美丽乡村的整体规划设计、清杂清乱、沟渠整治、改水改厕、绿化美化亮化等各项工作，考察团就美丽乡村建设过程的先进经验和好的做法进行了交流。', '长效管护机制健全，柏油道路干净整洁，家庭院落错落有致，房前屋后绿树掩映，健身广场设施齐全，道路两侧新绿分外清新，一面面生动的墙绘，生态又美观的污水终端处理，一幅幅美丽的乡村画卷让人流连忘返，跟随考察组一行的毛集镇康庙村书记袁绪强深受触动，随即兴诗“上下齐心建美屯，内外颜色焕然新”。保义镇紧紧围绕乡村振兴战略，多轮驱动、多措并举，合理利用现有村落布局，集中统一规划建设，注重保护自然景观，深入推进农村“三大革命”，通过沟渠整治、亮化绿化等工程，村容村貌不断升级改造；积极开展多彩多样文化活动，培育乡风文明，通过“好婆婆好媳妇”评选、党员户挂牌、“美丽庭院户”创建等活动，不断丰富群众精神文化生活，乡风民风建设得以持续推进。', '这次考察学习活动，收获颇丰。大家一致表示，此次外出学习为毛集镇美丽乡村建设提供了很好的素材，同时也看到了差距，认识了不足，进一步理清了工作思路。毛集镇将以此次考察学习契机，进一步强化思想认识，压紧压实责任，把美丽乡村建设工作做细、做实；充分动员群众，立足实际、集中智慧、挖掘地方特色，增强动力和信心，不断巩固提升美丽乡村建设水平。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>96</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>岳西县到寿县考察学习应急广播建设工作</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2023-10-11</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/public/118322746/1259852256.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['10月10日，岳西县人大常委会副主任、二级调研员程松树一行到寿县融媒体中心考察学习应急广播建设工作，县人大常委会副主任王多好及县融媒体中心主要负责人等陪同接见。', '考察人员实地参观了融媒体中心建设情况。在座谈会上调研人员观看了应急广播建设情况宣传片，同时听取了应急广播建设运营管理情况的介绍。县融媒体中心成立运行后，按照县委、县政府工作部署，把应急广播体系建设与管理纳入县融媒体中心建设的重要内容。2019年正式启动应急广播建设，项目总投资1500万元，2022年底覆盖全县25个乡镇，278个村（社区）的3635个终端全面建成，顺利通过评估验收。应急广播体系投入运行后，有效发挥了政策传达、新闻发布、三农服务、文化宣传、应急信息发布等平台功能，尤其疫情防控期间发挥了非常重要的作用，有效打通了基层媒体服务群众、服务基层、服务乡村的最后一公里。', '程松树一行对寿县应急广播建设领导高度重视、高度融合、群众认可度高，使应急广播发挥了最好的作用表示高度认可，认为值得学习借鉴。希望两县融媒体中心继续加强沟通交流和紧密协作，携手推动应急广播体系建设创新发展。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>96</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>寿县医保局赴六安市叶集区医保局考察学习</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2023-05-16</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>https://ybj.huainan.gov.cn/gzdt/xqdt/551709486.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['5月9日，寿县医保局党组成员、副局长李忠平率医保中心及省级医保基层示范点申报单位负责人员一行8人，赴兄弟单位六安市叶集区进行考察学习。', '考察学习通过实地考察和研讨相结合，首先对叶集区孙岗乡医保服务站和三元镇沣桥村医保服务点进行了实地考察，通过经办服务下沉、人员专兼互补、设施升级改造等方式，叶集区打造2021年度省级医疗保障基层服务示范点，并构建起“大事不出镇、小事不出村”的医保基层服务体系，获得了群众的一致好评。实地考察后，叶集区医保局领导就基本医保政落实、基层建设、医疗机构监管等进行了详细介绍。同时，针对一线工作中共性的业务经办和具体问题处理方法和经验进行了交流。', '通过这次考察学习，开拓了视野，启迪了思路。寿县医保局将积极应对新形势、新挑战，持续优化医保经办流程，创建优质高效服务，推进我县医保工作高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>96</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>秦红权主任带队赴深圳公积金中心考察学习</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2023-06-14</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>https://gjj.huainan.gov.cn/xwdt/zxxw/551713791.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['为学习深圳住房公积金管理中心在政务服务效能提升、信息化建设、数字化发展等方面工作经验，6月9日，市住房公积金管理中心主任秦红权带队赴深圳中心学习考察。', '座谈中，深圳市住房公积金管理中心副主任谭建明介绍了深圳公积金机构、人员、业务、资金等方面基本情况以及当前重点工作，综合管理部、信息管理部、互联网应用发展部分别介绍了“惠民公积金 服务暖人心”工作实施情况、信息化建设情况以及住房公积金数字化发展工作的思路与实践等。秦红权表示，深圳作为改革开放的前沿，住房公积金的发展引人注目，深圳住房公积金事业发展的成功经验和成熟做法是经实践证明和时间考验的，我们要学习借鉴深圳公积金的经验做法，对标学习一流，抓好服务效能提升，积极推进信息化建设，加强内部规范化建设，优化业务运行模式，积极实践党建引领，实现事业发展质的提升。', '通过学习考察，进一步解放了思想、更新了观念、开阔了眼界，为推动我中心今后发展提供了诸多宝贵经验和有益借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>96</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>市文旅局局长程昊赴歙县卖花渔村考察学习</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>https://wlj.huainan.gov.cn/xwzx/bmdt/551723784.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['8月19日，市文旅局党组书记、局长程昊赴黄山市卖花渔村考察学习，实地走访卖花渔村，并与卖花渔村徽派盆景技艺人员、产业发展大户进行交流，详细了解卖花渔村徽派盆景技艺传承、“盆景+”产业发展模式和经营现状等情况。', '程昊指出，卖花渔村倡导农户将自家院子打造成美丽庭院，在提升村庄颜值的同时，促进了庭院经济发展，', '实现了旅游发展、产业兴旺、村民增收。我们淮南许多乡村不缺少卖花渔村这样的资源，有的乡村文化遗产、非遗项目、生态环境都很好，我们要学习卖花渔村将“卖盆景”转化为“说文化”的经验，深度挖掘我们乡村历史文化资源，讲好历史文化故事，通过培育壮大特色产业推动乡村旅游融合发展。', '实现了旅游发展、产业兴旺、村民增收。我们淮南许多乡村不缺少卖花渔村这样的资源，有的乡村文化遗产、非遗项目、生态环境都很好，我们要学习卖花渔村将']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>96</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>我县赴歙县考察学习灾害风险普查工作</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/xwzx/bmdt/8040126.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['为做好我县第一次全国自然灾害综合风险普查工作，9月1日至2日，凤台县应急管理局组织全县灾害风险普查单位赴试点县黄山市歙县应急管理局进行风险普查工作考察学习。县应急管理局和相关风险普查部门负责人参加考察。 在歙县应急管理局，凤台考察学习组与歙县应急管理局工作人员进行了座谈交流，对开展综合风险普查工作的经验方法、经费保障、宣传培训、第三方服务等难点重点问题进行了学习。歙县应急管理局就在试点过程中存在的问题逐一进行了答疑解惑，提供了宝贵的经验。随后，凤台考察学习组参观了歙县普查办公室，详细了解了普查工作情况，翻阅了普查成果资料，并进行了面对面地交流。 通过此次考察学习，为我县开展自然灾害综合风险普查工作积累了经验，奠定了坚实基础。参与人员纷纷表示，此次考察受益匪浅，对加快推进我县自然灾害综合风险普查工作具有重要意义。 县应急管理局表示，下一步，我县将按照省、市统一部署，借鉴试点县的经验，积极有序推进风险普查工作。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>96</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>淮南市供销社赴阜阳市供销社考察学习</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>https://gxs.huainan.gov.cn/xwzx/gzdt/551579900.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['7月26日，淮南市供销社党组成员、监事会主任邓传国带队，党组成员、理事会副主任顾云光、詹骏，市委组织部农组科和市供销社办公室负责同志一行8人到阜阳市供销社考察学习供销社“社企分开”和“党建引领 村社共建”等方面的先进经验。阜阳市社党组成员、理事会副主任万雅龙、高文良及相关科室负责人全程陪同考察，阜阳市社党组书记、理事会主任刘军参加了下午的座谈会，并交流了工作体会和建议。', '2019年阜阳市委组织部、市供销社两部门联合发文，开展“党建引领 村社共建”工作，取得了良好成效，有力推动了农村集体经济发展。此次市委组织部、市供销社联合赴阜阳市社参观学习，就是为了学习借鉴宝贵经验，推广村社共建工作，助力乡村振兴。', '上午，考察组一行来到阜阳市颍州区三合镇三星村和井孜村，参观村级供销社建设情况。近年来，三星村和井孜村供销社强化党建引领，依托“1256”经营模式，积极拓展基层供销社农业社会化服务，在促进村集体经济快速发展方面发挥了重要作用。', '下午，考察组与阜阳市社领导班子及相关科室负责人进行了座谈交流。阜阳市社党组书记、理事会主任刘军介绍了阜阳市社目前的发展情况，着重介绍了开展“党建引领 村社共建”情况和组建阜阳市供销集团等相关工作情况。', '邓传国对阜阳市供销社取得的成绩表示赞赏。他指出，此次考察学习受益良多，开阔了视野，拓展了思路，对我们今后工作给予了启发。邓传国对阜阳市社的热情接洽表示感谢，并诚挚邀请阜阳市社来淮南市社传经送宝。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>96</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>华源公司赴杭州考察学习产业园区运营管理</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2021-07-14</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://jxj.huainan.gov.cn/xwzx/jcdt/551577818.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['7月12日，华源公司党委书记、董事长宋旭带队前往杭州滨江区、上城区，考察学习产业园区开发、建设、运营管理等先进经验、做法，公司相关职能部门负责人参加考察学习。', '在国家级科技孵化园杭州人工智能产业园，详细考察了园区运营方在聚集产业前瞻发展趋势，集聚产业发展要素，发挥园区平台功能，提供产业发展环境，提供全要素的企业成长服务，打造集专业化服务功能、多资源聚合功能、产学研转化功能于一体的新型产业园区经济方面的好做法、好经验，并与园区运营方、国家级园区运营商杭州智新泽地科技发展有限公司就相关产业园区规划、建设运营等系统化深度定制合作达成初步意向。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>96</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>市乡村振兴局到阜阳市考察学习乡村振兴工作</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>https://xczxj.huainan.gov.cn/dtyw/xwdt/551584951.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['8月31日，市委副秘书长、市乡村振兴局局长贾俊率领市乡村振兴局全体人员，到阜阳市颍上县考察学习巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作。', '考察组一行先后来到赛涧回族乡双孢菇种植基地、王岗镇淮罗村庄台、御莲源万亩莲藕种植专业合作社、夏桥镇徐家湾村扶贫车间等项目，听取当地负责人情况介绍，现场学习颍上县在产业发展、稳岗就业、行蓄洪区搬迁等多方面先进经验和典型做法。颍上县以促进就业创业为支撑点，大力实施“一乡一业、一村一品”特色增收产业培育，推进产业发展特色化、规模化、现代化、品牌化，同时推进就业意愿、就业技能与就业岗位精准对接，不断加大就业创业技能培训力度，变“输血”为“造血”，多渠道推进群众增收。', '“颍上县巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作亮点多、创新多、成效好，在全省处在领跑行列。同时，在经济发展、城建管理等工作中也有很多值得我们学习和推广的好经验、好做法。”参加考察学习的同志纷纷表示。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>96</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>凤台县统计局组织赴宁国市统计局考察学习</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2021-06-23</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>https://tjj.huainan.gov.cn/tjgz/xqdt/551573939.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['按照全县党史学习教育“高质量发展，我们怎么干”大讨论活动要求，2021年6月10日至11日，县统计局党组书记、局长高松同志率部分班子成员和股室负责同志赴宁国市统计局考察学习经济发展和统计工作。考察期间，受到了宁国市统计局热情接待。通过座谈讨论和现场参观，考察学习取得了圆满成功。', '座谈交流会上，宁国市统计局从经济运行、统计体系建设、数据质量过程管控制度、统计考核奖惩制度等方面，详细介绍了该市经济发展和统计发展的主要做法以及取得的成效，同时与会人员就统计相关业务工作进行了探讨交流，并观摩阅览部分整理完备的统计文件资料，随后进行了实地考察。', '通过此次考察学习，大家一致认为，许多经验非常值得我们学习和借鉴，收获很大，启发颇深。回去后要把好的经验、好的做法运用到实际工作中，切实提高统计工作水平，为凤台县高质量发展贡献更大力量。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>96</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>凤台县统计局组织赴宁国市统计局考察学习</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2021-06-14</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/public/118322941/1258725669.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['县局党组书记、局长高松同志率部分班子成员和股室负责同志赴宁国市统计局考察学习经济发展和统计工作。考察期间，受到了宁国市统计局热情接待。通过座谈讨论和现场参观，考察学习取得了圆满成功', '的主要做法以及取得的成效，同时与会人员就统计相关业务工作进行了探讨交流，并观摩阅览部分整理完备的统计', '通过此次考察学习，大家一致认为，许多经验非常值得我们学习和借鉴，收获很大，启发颇深。回去后要把好的经验、好的做法运用到实际工作中，切实提高统计工作水平，为凤台县高质量发展贡献更大力量。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>96</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>淮南市供销社领导赴黄山供销集团考察学习</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>https://gxs.huainan.gov.cn/xwzx/gzdt/551562976.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['受淮南市供销社党委书记、理事会主任从永超委托，市供销社党组成员、理事会副主任顾云光、张云峰率相关科室负责人于4月6日至8日赴黄山供销集团考察学习。', '考察团一行与黄山市供销社领导班子进行了座谈交流。会上，黄山市供销社理事会主任，黄山供销集团党委书记、董事长刘邦铸介绍了黄山市供销社基本情况，详细介绍了在深化供销社综合改革、黄山市社机关企业化改革、社有企业转型发展、构建为农服务新体系等方面取得的突破和进展。刘邦铸重点介绍了资金互助社、农药集中配送、“田园徽州”、“四月乡村”、“泉水鱼养殖基地”等重点项目建设情况。淮南市供销社党组成员、理事会副主任顾云光表示黄山市供销社是全省乃至全国供销社系统的一面旗帜，此次参观学习受益良多。黄山市社敢为人先，理念先进，开拓创新，务实进取，坚持市场化发展，用市场的思维谋事，借资本的力量办事，走出了一条有黄山特色的供销社改革发展道路，值得我们学习借鉴。最后，顾云光邀请黄山市社领导班子到淮南市社传经送宝、调研考察，交流合作，携手共赢发展。', '考察组一行还在黄山市供销社理事会副主任、黄山供销集团党委委员胡大庆的陪同下，先后考察了黄山市农药集中配送项目、农村资金互助“黄山模式”、黟县有农供销社、现代休闲农业产业园、荷琇生物科技有限公司、黄山华塑新材料科技有限公司、黄山谷捷散热科技有限公司等，深入了解黄山市深化供销社综合改革、做大做强社有企业、探索发展农村合作金融、加强农业社会化服务等方面的情况。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>96</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>考察学习先进经验助推村集体经济发展</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2021-04-19</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/xwzx/xzcz/8025561.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['为进一步开拓视野、借鉴经验，加强县区间工作交流，加快村级集体经济发展，壮大村级集体经济实力，', '验区农业发展局观摩团前往凤台县岳张集镇参观学习发展壮大村级集体经济工作，进一步加强交流学习，助推村集体经济发展。', '毛集实验区农业发展局观摩团一行听取了岳张集镇负责人关于盘活闲置资产程序、股份经济合作社财务管理制度等方面的工作思路，查阅学习了村级集体经济基础台账及相关资料，实地了解了社务公开、平台监管等硬件设施提升及场所打造。观摩团成员边听、边问、边学、边记，并不时就关心的问题进行提问、交流，不断学习和借鉴好经验、好做法。毛集实验区农业发展局观摩团还参观了岳张集镇党史学习教育文化长廊及乡镇“五小”场所建设。', '毛集实验区农业发展局观摩团表示，回去后把岳张集镇发展壮大村级集体经济工作经验和做法带回去，结合实际、创新运用，推动毛集实验区发展壮大村级集体经济工作再上一个新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>96</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>大通区赴宿迁市考察学习房地产预重整工作</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2020-12-11</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>https://www.hndt.gov.cn/xwzx/bmdt/8013312.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['日，副区长聂鑫、区法院院长朱莉赴宿迁市中级人民法院、宿城区法院、涟水县人民法院学习房地产领域预重整工作，区住建局', '考察中，宿迁市中院民二庭副庭长赵振亚向考察组详细介绍了《宿迁市中级人民法院关于审理预重整案件的规定（试行）》出台的背景、主要内容以及预重整制度在实践中的运用。宿城区法院和涟水县法院分别向考察组介绍了宿城区和涟水县法院破产审判工作取得的成绩及主要做法，并结合实际案例详细介绍了房地产企业破产案件的审理情况。最后，双方就房地产企业破产案件的实务问题进行了深入的探讨和交流。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>96</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>高新区赴苏州考察学习带经验促进发展</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2021-01-04</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>https://gxq.huainan.gov.cn/ztzl/djgz/551551383.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['日，高新区党政办主任王怀亮、三和镇党委书记王纯率镇、社区工作人员赴苏州市工业园区娄葑街道考察学习基层社会治理以及社区建设等工作。', '日先后赴官渎社区党建公园、葑谊社区、娄葑街道基层社会治理实训基地参观交流，并与娄葑街道党工委书记傅刚、主任陈习伟以及邻里中心设计单位负责人分别进行了座谈交流。', '通过此次考察学习，学习了娄葑街道在党建和基层社会治理方面的先进经验，带队领导表示我们要找准差距，进一步解放思想，精心谋划，将先进单位好的做法与本单位实际相结合，进一步深化党建引领各项工作。此次考察学习也为高新区三和镇的社区建设提供先进理念，为高新区三和镇的基层治理提供了新思路。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>96</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>淮南市党政代表团赴上海市闵行区考察学习</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2020-12-14</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>https://www.huainan.gov.cn/zwgk/jrhn/1258453405.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['12月10日至11日，省人大常委会副主任、市委书记沈强，市委副书记、市长张孝成率淮南市党政代表团赴上海市闵行区考察学习，举行两地合作框架协议签约仪式，深化区域合作，助推长三角一体化发展。市领导汪谦慎、马文革、胡东辉，市政府秘书长夏智明参加考察学习活动。闵行区委书记倪耀明，区委副书记、区长陈宇剑，区人大常委会主任庞峻，区委副书记、区委组织部部长王观宝，副区长朱效洁等陪同考察或出席座谈会。', '10日下午，沈强、张孝成一行首先考察了新虹桥国际医学中心，对中心集约共享理念给予高度评价。沈强指出，医疗卫生事业是一项重要民生工程，要认真学习经验，推动淮南医疗水平不断进步，为人民群众提供更高水平的医疗服务。随后，沈强、张孝成一行参观了上海航天双创展示交流中心、军民融合展厅，了解推进科技创新、军民融合发展情况。沈强强调，要坚持创新引领，推进科创产业深度融合，大力发展军民融合产业，加快形成军民融合、军民通用型产业集群发展的产业布局。11日上午，沈强、张孝成一行考察了七宝镇华林社区邻里中心、七宝镇社区党建服务中心，了解创新社区治理情况。沈强强调，社区是城市的细胞，是社会治理的基础。要学习借鉴闵行区先进经验，坚持党建引领，加快建设邻里中心，引导居民参与社区治理，共建共治共享幸福家园。', '座谈会上，张孝成、陈宇剑分别介绍了淮南市市情、闵行区区情，并分别代表淮南市、闵行区签署两地合作框架协议；市党政代表团还观看了闵行区情宣传片。', '沈强在讲话时首先代表市四大班子对闵行区长期以来对淮南市的关心支持表示感谢。他指出，通过实地考察，我们深深感受到闵行区的经济发展水平高、创新思维强、服务意识优、城市品质美，震撼很大、触动很深、收获很多，解放了思想、开阔了视野、看到了差距、取到了真经，这既是一次贯彻落实习近平总书记在扎实推进长三角一体化发展座谈会上重要讲话精神的寻求发展合作之旅，也是一次积极融入长三角一体化、谋划推动高质量转型发展的思想提升之旅。', '沈强强调，闵行区和淮南市作为长三角一体化发展的共同成员，人缘相亲、文化相通，交流合作源远流长，面向未来有广阔的合作领域和空间。衷心希望两地以这次结为友好城市为契机，建立合作交流对接机制，在文旅、经贸、产业、科技、城市建设、党建、人才队伍培养等领域进一步强化交流合作，在进入新发展阶段、贯彻新发展理念、构建新发展格局中，共享新机遇，共谱新篇章。热诚欢迎闵行区各位领导、各位朋友，多到淮南走一走、看一看，领略淮南风土，感受淮南魅力，体验淮南热情，共商区域协同发展大计，实现发展共赢。', '倪耀明在讲话时指出，淮南市、闵行区正式签署两地合作框架协议，正式开启了两地加强区域合作的新开端，这是助推长三角一体化发展的有力行动。淮南市与闵行区两地人缘相亲、地缘相近，具有良好的合作基础，要按照党中央关于推进长三角一体化发展的战略部署要求，积极推进合作交流，努力把区域合作做深做实，确保取得实效。两地要建立长效的区域合作交流机制，在深化改革开放、推进产业发展、促进创新创业、加强区域平台建设等多领域加强合作；要推动合作发展，加强资源共享，加强在文化、旅游、教育等方面的合作，实现优势互补、合作共赢；要加强交流互通，不断加强两地政府与部门之间的衔接与协作，努力营造良好的合作氛围，不断增添合作发展新动力，用实际行动助推长三角一体化发展。', '张孝成在讲话时指出，淮南市是国家新型能源基地、华东工业粮仓、安徽省重要的工业城市，1952年设为省辖市，1984年被批准为第一批全国“较大的市”,有着“楚风汉韵、能源之都”之称，是一座历史文化之城、新型能源之城、山水生态之城、宜居宜业之城。淮南市、闵行区缔结友好市区，是贯彻落实习近平总书记关于扎实推进长三角一体化发展重要讲话指示精神的具体行动。此次实地考察，既是学习取经，更是寻求合作，我们感受到了闵行区作为繁荣之城、品质之城、智慧之城、人文之城的风采，是淮南学习的标杆和榜样。我们将以此次签约为新的起点，抢抓长三角一体化发展等战略机遇，更加积极主动抓沟通、抓对接、抓融入，尽最大努力推动合作框架协议具体化、项目化，主动融入“双循环”、唱好“双城记”，着力打造区域合作的样板。', '陈宇剑在讲话时指出，闵行区是国家先进制造业和战略性新兴产业集聚区，是上海的对外门户、工业摇篮、经济大区、科创基地，是一座科技之城、人文之城、绿色之城，是上海市高质量发展的排头兵，荣获“全国文明城区”“国家环保模范城区”“国家园林城区”“中国人居环境范例奖”等殊荣。希望双方抢抓长三角一体化发展战略机遇，坚持各扬所长，深化务实合作，合力推进高质量发展，努力实现合作共赢。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>96</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>颍上县来凤考察学习美丽乡村建设工作</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2020-07-26</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/xwzx/bmdt/8002728.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['近日，颍上县农业农村局组织100多名乡镇、村负责同志，来我县杨村镇后海村考察学习美丽乡村建设工作。 在杨村镇后海村八庄中心村工作人员的带领下，考察团一行参观了该村村史、党建、乡贤、产业等，并听取了该村规划建设的理念和具体做法。 考察团表示，要借鉴凤台县美丽乡村建设工作的经验和做法，发挥优势，做好自身定位，打造好颍上县美丽乡村建设。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>96</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>县文旅局赴蜀山区考察学习乡村旅游发展经验</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2020-04-26</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/public/118322773/1258205977.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['月23日，县文旅局赴合肥市蜀山区学习考察民宿、农家乐等乡村旅游发展精品的先进理念和成功经验，探索适合我县的乡村旅游发展之路，助推我县乡村振兴。', '考察组先后到蜀山区小岭南等地，详细了解乡村旅游项目的规划、管理等情况。通过考察，我县将会对照先进经验、找出差距，结合自身实际把乡村旅游、乡村振兴、美丽乡村建设等工作做出实效，为全县经济社会高质量跨越发展作出应有的贡献。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>96</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>寿县政法委到田家庵区考察学习双提升工作</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2020-03-19</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/zwzx/zwxx/7993179.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['3月19日，县委常委、政法委书记韩涛率政法部门负责同志前往田家庵区考察学习双提升工作。田家庵区委书记文见宝，区委常委、政法委书记许彬等接待考察组一行。', '在认真听取田家庵区政法委、公安分局、法院、检察院、司法局等单位负责人关于双提升工作开展情况介绍后，韩涛表示，此次考察学习，收获颇丰，受益匪浅，要求相关单位回去后认真消化吸收，结合寿县实际，将好的经验和做法运用到实际工作中，进一步推进寿县双提升工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>96</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>寿县发改委考察学习中国好粮油示范县项目</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2020-06-16</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/ztbd/ztzl/zghly/7999885.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['6月12日、13日，在省、市粮食部分负责人带领下，寿县发改委组团到安徽省各地考察学习“中国好粮油”示范县项目，通过学习和借鉴先进地区的经验和做法，加快推进寿县"中国好粮油"示范县项目推进工作。', '此次寿县考察团成员为"中国好粮油"示范县项目创建的相关工作人员和参加创建的当地粮食生产加工龙头企业。考察组分别赴肥东、怀宁、桐城、庐江等地，通过听取报告、实地参观、学习交流等方式，进一步开拓了眼界，理清了发展思路和规范化的创建流程，为下一步创建工作提供了宝贵的经验和指导。', '肥东县通过严格执行“中国好粮油”示范县项目创建的方案报备、企业进度申报、政府项目审计、奖补的比例发放等环节的规范化流程，分阶段的加快项目推进，取得了政府实施科学规范、企业投入积极性高的良好成效；怀宁县通过重点扶持本地龙头粮食企业——安徽稼籼金佳粮食集团和福宁米业，大力发展订单农业和推广优质良种，增加了优质粮油10万吨，较好地引导种粮农民种植结构的调整；桐城 “中国好粮油”示范基地——绿福农业科技股份有限公司，通过加入对改善土质的科技投入，和对常规水稻的自身培育，有效提升了粮食品质，成为国家级现代农业示范核心区域；庐江县依托省白湖农场集团为主导，通过鼓励企业自主开发金丝粳米、美香粘米等新产品，打造地方特色粮食品牌，提高了社会影响力和美誉度，提升了市场竞争力。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>96</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>市科技局赴芜湖考察学习孵化器建设工作</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>https://kjj.huainan.gov.cn/xwzx/tpxw/139124603.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['8月22日，市科技局副调研员高继刚带队赴芜湖高新技术创业服务中心考察学习孵化器绩效考核管理办法。高继刚一行首先参观了龙山科技园和银湖科技园，听取了专业人员的讲解并观看了芜湖高新技术创业服务中心的宣传片，详细了解了芜湖高新技术创业服务中心（以下简称“中心”）的发展历程及“中心”成立20年来取得的成就。深入芜湖圣大医疗器械技术股份有限公司参观。圣大医疗于2005年入驻“中心”，其公司产品在2015年4月获得第43届日内瓦国际发明展最高金奖、2016年纽伦堡国际发明展金奖、2016年12月中国专利优秀奖。', '座谈会上，“中心”执行董事、总经理张元还介绍了孵化器绩效考核管理办法、入孵企业标准、国家级孵化器相关条件等等。高继刚表示，芜湖在孵化器建设方面有着先进的经验，淮南将以此为契机，与芜湖加强交流合作，提升全市孵化器建设水平。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>96</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>桂超林带队赴八公山区考察学习创城工作</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2019-08-23</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>https://www.xiejiaji.gov.cn/xwzx/zwyw/8060721.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['8月23日上午，区政府副区长桂超林率队赴八公山区参观学习，区商务局、执法局、房管局、交警大队、交通分局、创城办和街道主要负责同志参加。', '桂超林一行先后实地考察了八公山区商业大街、背街小巷、主次干道和社区小区，认真了解八公山区文明创建开展情况。', '桂超林表示，八公山区的很多经验做法值得我们借鉴学习参考，希望今后各街道各部门在创城精细化上再下功夫，因地制宜、因城施策，推动创城进一步常态化、制度化。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>96</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>舒城县司法局来淮考察学习法治宣传教育工作</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2019-10-11</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>https://sfj.huainan.gov.cn/zhzx/gzdt/146907152.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['10月9日下午，舒城县司法局王涛局长一行来淮考察学习法治宣传教育工作。市司法局副局长顾成军及普法与依法治理科同志陪同考察。', '王涛一行首先参观了淮南法治文化馆，仔细观看了法与国、法与德、法与民、法与淮南和法治之光五个展区，观看了3D普法宣传片、《豆娃自传》沙画等，体验了场馆体感互动、智能机器人对话等一系列高科技普法产品，并详细询问了法治场馆的设计、施工、资金等方面问题。', '参观结束后，开展座谈交流，互相交流法治宣传教育工作经验及做法。顾承军对王涛一行的到来和给予淮南法治宣传教育工作的认可表示欢迎和感谢。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>96</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>市商务局赴砀山考察学习电商产业扶贫工作</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2019-07-02</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>https://swj.huainan.gov.cn/hnsw/126950017.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['6月19-20日，市商务局配合市扶贫办组织我市部分县区扶贫办负责人和电商企业代表赴砀山县学习考察电商运营和电商产业扶贫先进理念。朱克勤副局长及电商科负责人参加。学习考察组先后到安徽微谷电商物流产业园、砀山县电商大厦、砀山县农村电子商务物流中心、良梨村电商扶贫驿站，考察学习了砀山县电商产业聚焦特色产业，聚焦品牌打造，聚焦上下贯通，聚焦脱贫攻坚的先进经验。近年来，砀山县抓住国家电子商务进农村综合示范县创建机遇，依托水果资源优势，通过电商产业“四聚焦”，深入推进电商改革发展，呈现“井喷式”发展势头，成为引领经济转型升级的“新引擎”。目前，该县拥有电商企业1370余家，农产品电商品牌1500多个，网店和微商5万多家，年电商交易额达46.7亿元，有10万多人从事电商物流等相关产业。大家对 “砀山模式”学习考察有启发、有收获，纷纷表示，将学习研究砀山先进经验，在利用我市本地资源开发新产品、打造线上线下运营模式、配套物流快递设施等方面深耕细做，发挥好电商助贫带贫作用。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>96</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>市扶贫办到庐江县考察学习脱贫攻坚工作</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>https://xczxj.huainan.gov.cn/dtyw/xwdt/128333887.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['6月17日，市委副秘书长、市扶贫办主任贾俊带领市扶贫办相关科室负责人和各县区扶贫开发领导小组负责人、扶贫办主任到庐江考察学习脱贫攻坚工作。', '考察组听取了庐江县脱贫攻坚工作介绍，参观了石头镇渔网扶贫车间、石头镇笏山村瓜蒌子扶贫产业园并考察笏山村贫困户分类管理、精准帮扶等工作。庐江县坚持分类精准，采取定性分析与定量打分相结合的方式，通过村民组逐户评定、村民代表大会评议，把脱贫户家庭困难程度、发展能力和生活状况精准地测量出来，科学地划分为A类（发展能力不足）、B类（发展能力一般户）、C类（发展能力较强户）三类，并依据分类结果，除教育、医疗、社保兜底等保障性措施普惠制享受外，在产业发展模式选择、奖补标准、公益性岗位安排、资产收益分配方式、人居环境改造、社会扶贫资助等发展性政策措施上差异化落实，针对A、B、C三类家庭的实际需求，庐江县制订出不同的帮扶“菜单”，分类施策。对于A类户以“帮”为主，对于B类户以“扶”为主，对于C类户以“引”为主，实现从“大水漫灌”到“精准滴灌”的根本性转变，社会认可度明显提升。', '“庐江县对贫困户精准分类施策，对帮扶责任人有效压实责任，对产业扶贫的‘五个十’高标准推进，对防返贫机制的早谋划、早实施等先进经验，对淮南市的脱贫攻坚工作有着积极的借鉴意义。”贾俊表示，他山之石，可以攻玉，我们要将耳目一新，眼前一亮的学习心动，化作推动工作的具体行动，进一步提升政治站位，进一步补短板、强弱项、提质量，全面推动脱贫攻坚工作上台阶上水平。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>96</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>我县赴寿县考察学习干部队伍建设和扶贫工作</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2019-06-12</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/xwzx/ftyw/7906722.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['6月12日，县委副书记汪世福，县委常委、组织部长叶宜声率县直相关单位、部分乡镇负责同志到寿县考察交流乡镇干部队伍建设和脱贫攻坚工作。寿县县委书记从维德，县委副书记孙凯，县委常委、组织部长曾敬等分别陪同参加座谈或考察。 在寿县县委常委会议室召开的座谈会上，我县考察团认真听取了寿县乡镇干部队伍建设情况和推进脱贫攻坚工作的情况介绍；两县针对工作中遇到的瓶颈、困惑以及工作中好的经验做法等进行了交流。随后，我县考察团深入到寿县保义镇鸿康中药扶贫示范基地、保义镇桃园村扶贫车间及保义镇，通过听取相关情况介绍、现场察看，对寿县开展乡镇五小建设、扶贫工作中具体的方法和措施进行学习了解。 汪世福对寿县基层干部队伍建设和脱贫攻坚工作上取得的成绩予以高度评价；表示要结合我县实际，充分学习借鉴寿县工作先进经验，把学习考察成果充分运用到工作实践中，切实抓好基层乡镇干部队伍、产业扶贫等各项工作，进一步做好转化落实工作。', '在寿县县委常委会议室召开的座谈会上，我县考察团认真听取了寿县乡镇干部队伍建设情况和推进脱贫攻坚工作的情况介绍；两县针对工作中遇到的瓶颈、困惑以及工作中好的经验做法等进行了交流。随后，我县考察团深入到寿县保义镇鸿康中药扶贫示范基地、保义镇桃园村扶贫车间及保义镇，通过听取相关情况介绍、现场察看，对寿县开展乡镇五小建设、扶贫工作中具体的方法和措施进行学习了解。', '汪世福对寿县基层干部队伍建设和脱贫攻坚工作上取得的成绩予以高度评价；表示要结合我县实际，充分学习借鉴寿县工作先进经验，把学习考察成果充分运用到工作实践中，切实抓好基层乡镇干部队伍、产业扶贫等各项工作，进一步做好转化落实工作。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>96</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>毛集实验区责任督学赴八公山区考察学习</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2019-03-11</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://sjtj.huainan.gov.cn/content/article/110992189</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['为切实提高督导工作水平，推进毛集实验区挂牌督导创新工作，根据《毛集实验区2018-2019年度责任督学培训工作规划》，结合2019年度责任督学培训计划，2019年3月7日毛集实验区教育督导室组织责任督学赴八公山区考察学习。', '学习考察活动由毛集实验区教育局副局长王成带队，在八公山区教育局会议室，首先听取了八公山区政府教育督导室主任周连仁从挂牌督导创新区迎检资料建设、迎检流程、迎检注意事项三个方面详细的介绍了八公山区开展责任督学挂牌督导工作的经验。随后，全体责任督学参观八公山区第二督学责任区，第二督学责任区负责人分享挂牌督导管理平台的应用，学校、督学、责任区三个模块的资料建设和督导工作的经验。最后，我区专职责任督学就督导工作中的困惑与他们进行了深入的交流和探讨。这次八公山区之行，我们开阔了眼界，丰富了知识，统一了认识，为我区创建挂牌督导创新区工作打下良好的基础。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>96</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>高新区赴新桥产业园合肥高新区考察学习</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2018-12-25</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>https://gxq.huainan.gov.cn/yqdt/101501442.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['2018年12月21日，高新区招商局主要负责同志带队先后赴新桥产业园和合肥高新区考察学习招商引资先进经验，园区招商局主要负责人热情接待并主持座谈。', '座谈会上，双方就产业园区概况、招商现状、政策制定等方面展开交流，双方均表示希望今后进一步加强交流学习，在互学互鉴中实现共同发展。（招商局 乔琪）']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>96</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>芜湖市考察团来凤考察学习美丽乡村建设</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2018-10-12</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/xwzx/ftyw/7904469.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['10月11日，芜湖市美丽乡村建设考察团来我县考察学习美丽乡村建设工作。副县长李传峰及市县美丽办和有关乡镇等负责同志参加。', '考察团一行实地察看了桂集镇庙李中心村、中郢中心村和钱庙乡政府所在地等美丽乡村建设现场，详细了解我县在规划、建设美丽乡村上的成功经验和做法及项目推进、资源整合等方面的具体情况。 考察团认为我县美丽乡村建设项目措施有力、规划合理，具有乡村特色和文化底蕴，值得学习和借鉴。考察团表示，要将凤台的好经验、好做法带回去，结合芜湖各县区的实际情况，运用到美丽乡村建设当中；希望两地进一步加强交流，共享发展经验，共同提升美丽乡村建设水平。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>96</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>刘居胜率凤台代表团赴四川陕西等地考察学习</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2019-05-10</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/xwzx/ftyw/7905233.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['5月6日至8日，县长刘居胜率凤台代表团赴四川、陕西实地考察了五粮液集团、汉中市兴汉新区等单位。县委常委、副县长操海群，有关县直单位和乡镇负责同志随团参加。', '5月7日，代表团一行考察了五粮液集团酒文化博览馆以及相关原料供应、生产、展销、物流等环节。随后，代表团一行与五粮液集团举行了交流座谈会，五粮液集团公司副董事长、股份公司常务副总经理邹涛，中国白酒金三角酒业协会秘书长李富荣等出席会议，会上各方对酿酒专用粮产供销各品控环节进行深入交流。', '刘居胜在致辞中首先代表县委、县政府对五粮液集团的盛情邀请表示衷心的感谢。他指出，五粮液集团拥有600多年的悠久历史，底蕴厚重，最高年产量可达20万吨，年产值900多亿元，是世界上独一无二的。凤台县拥有得天独厚的地理资源，交通便利，四通八达。坚持生态绿色健康的人文理念，注重品牌与科技，与国内多所知名院校开展广泛而深入的合作。“凤台糯米”驰名中外，获国家农产品地理标志认证，拥有含糖量高、粘度大，富含硒、锌等微量元素的优越品质。最后，刘居胜表达了希望与五粮液集团建立长期合作关系的愿望，并诚邀五粮液集团来凤考察指导。', '邹涛表示，五粮液始终保持开放包容的态度欢迎优质产区优质企业来洽谈合作，并希望五粮液农业公司与凤台县建立长效沟通机制，通过实地调研考察，评估土壤、气候、水体等资源禀赋，确保原粮品质，合作顺利。', '5月8日，刘居胜一行前往陕西汉中，参观了汉中市亮化工程、汉中市兴汉新区规划馆及汉文化博物馆。汉中素有“汉家发祥地，中华聚宝盆”的美誉，兴汉新区项目位于汉中市中心城区北端，规划总面积为27.7平方公里，并预留有10.7平方公里的控制协调区，被列为国家文化部、财政部重点文化建设扶持项目。新区规划馆被誉为“城市会客厅”，体现了汉中市保护与开发并重的规划理念，突出绿色循环、生态宜居的发展定位。刘居胜一行实地学习考察了兴汉新区棚改征地拆迁安置、项目融资等运作模式和操作方法，深入学习了汉中市在文化建设和新区规划建设等方面的先进工作经验，为凤台县实施“主城区西进”战略提供有益借鉴，全力打造宜居宜业的活力新城。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>96</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>陈玉惠带队赴太和县经济开发区考察学习</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>https://www.xiejiaji.gov.cn/zwgk/qzx/ldxx/8172993.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['5月16日，区政协主席陈玉惠带领副主席周正富、陈光及部分区政协委员赴太和县经济开发区考察学习生物医药产业和发艺产业发展，太和县政协主席杨代军陪同考察。', '陈玉惠一行先后实地考察了太和县经济开发区悦康药业集团、华大基因、高安生物、富润发制品公司，认真了解产业发展情况。', '座谈会上，陈玉惠一行听取了太和县相关部门负责人关于太和县开发区建设发展情况的介绍。', '太和县经济开发区以生物医药为首位，发艺文化、工业滤布为特色，纺织服装、农副食品为基础，先进制造、现代物流、文化产业为新兴的产业体系。生物医药已成为阜阳市的首位产业，拥有亚洲最重要的医药物流中心和最大的医药仓库，是全国唯一以西药普药销售为主的市场、国内最大的医药集散地。', '很多经验做法值得借鉴学习参考，希望今后能进一步开展多领域、深层次的协商交流，促进两地经济社会更好更快发展。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>96</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>铜陵市交通运输局来我局开展考察学习</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2018-08-03</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>https://jtj.huainan.gov.cn/jtdt/jtxw/81612367.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['2018年7月31日，铜陵市交通运输局运输管理科路长滨一行五人来局考察学习道路危险货物运输从业人员培训考核工作。', '局党委委员、副局长鲍焕全安排局安全综合科、运输管理科详细介绍了我市道路危险货物运输从业人员培训考核工作的具体做法，并带领来宾实地参观考察了安徽扬安文化科技有限公司的理论教室和微机考试教室。', '铜陵市交通运输局的同志在听取书面材料介绍、查阅相关培训资料、座谈交流、参观培训机构后，一致认为我市道路危险货物运输从业人员培训考核工作环节程序严谨、考核科学公正、工作理念新颖，值得他们在今后的工作中学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>96</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>高新区建设发展局赴合肥高新区考察学习</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2018-08-23</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>https://gxq.huainan.gov.cn/yqdt/87842148.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['近日，高新区建设发展局局长王毅一行赴合肥高新区考察学习小区南阳台废水整治经验，先后参观了废水整治工程成功试点的顶间花园小区和望园小区。', '合肥高新区建设发展局有关负责同志详细介绍了项目的实施情况，包括总体实施方案、验收细则及安全计划等方面，具体涉及施工入户步骤、管道更换设置安装、管卡打眼防水处理、空调移机、室外管道接引、破除路面及恢复、安全文明施工等环节，并提供了项目相关资料。双方现场就工程细节问题进行了深入的交流和探讨。（建设局 郑瑞）']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>96</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>交易中心赴南京市公共资源交易中心考察学习</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2018-05-15</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>https://ggj.huainan.gov.cn/gzdt/551503120.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['月11日，市交易中心吴鹰主任、陈萍副主任一行到南京市公共资源交易中心考察学习公共资源交易平台的运行情况。先后参观了南京中心的业务受理大厅、开标室、评标室、网络服务室、专家抽取等功能区域以及相关配套服务设施。', '通过考察交流，了解到南京市公共资源交易体系的组织机构、交易平台的管理、运行，交易的范围、人员编制、平台整合、队伍建设等情况，重点交流了公共资源交易远程评标和投标保证金集中收退的管理与服务。随后，双方就公共资源交易平台整合、电子招投标、政府采购等方面进行深入探讨交流，同时就具体业务畅谈了各自工作中的成功经验和困惑。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>96</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>县人社局赴宿松县考察学习就业脱贫工作</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2017-03-06</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/public/118323004/257336754.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['近日，县人社局党组成员、副局长王琦率就业服务管理中心一行5人赴宿松县人社局考察学习就业脱贫工作。', '考察学习组一行听取了宿松县人社局就业脱贫工作开展情况介绍，到恒锋服饰、松兹服饰两个居家就业扶贫基地进行了实地考察，认真学习了宿松县人社局在脱贫政策、就业脱贫培训、促进岗位就业和居家就业工作等方面的成功经验，双方就存在的问题、规范使用资金及2017年就业脱贫工作进行了深入探讨。', '通过考察学习，增进了两地人社部门的了解，进一步明确了就业脱贫工作努力方向，在今后的工作中相互促进、取长补短、共同发展。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>96</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>谢家集区组团赴合肥市包河区考察学习</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2017-02-22</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>https://www.xiejiaji.gov.cn/xwzx/zwyw/8055590.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['日，区委常委邓宗河、区政府副区长潘若愚率区发改委、商务局、规划分局、唐山镇、招商服务中心等相关单位部门负责人赴合肥市包河区，对现代服务业、现代农业、基层党建进行考察学习。', '据了解，罍街位于包河区宁国南路，是集餐饮、娱乐、休闲、民俗、创意于一体的特色文化商业街区。该项目占地面积约', '万人。大圩镇坚持改变传统农业，发展现代农业、生态农业，促进一、二、三产业的深度融合，农业产业结构不断优化，形成了万亩蔬菜、万亩葡萄、万亩莲藕和万亩苗木的产业格局。', '的工作理念，不断创新党组织设置，整合党建资源，构建起新型的党建网络。建成都市农业产业联盟党总支', '产业联合体党小组三层党组织体系，成立葡萄、蔬菜、草莓、莲藕、苗木、农家乐六大产业协会，发展了', '名。实施互帮互带，健全了产业发展共享机制，党群干群关系更加密切；鼓励行业自律，化解了生产管理诸多矛盾，社会秩序更加和谐。', '通过参观考察和现场交流，考察组表示，包河区现代服务业和现代农业的工作思路、举措、运行模式对我区夯实', '具有很好的借鉴意义，相关部门和乡镇要以此次考察学习为新的起点，进一步拓展视野，吸取经验，认真总结，不断改进工作措施，把学习到的经验运用到具体工作中。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>96</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>庐江县政府代表团来寿县考察学习博物馆展陈运营工作</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2024-04-09</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/zwzx/zwxx/8129949.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['4月8日，庐江县副县长刘庆春、张丽娟率县政府代表团来我县考察学习博物馆展陈运营工作。县委常委、县委宣传部长、统战部长王亚晖陪同。', '庐江县政府代表团一行，参观了寿县楚文化博物馆，听取文物讲解，不时驻足观看，深入了解我县悠久的历史文化及博物馆展陈运营等情况。', '在随后召开的座谈会上，王亚晖对庐江县政府代表团一行来寿表示欢迎。王亚晖指出，我县是国家历史文化名城，文物众多。为此我县高度重视楚文化博物馆的建设和运营工作。楚文化博物馆开馆以来，得到了国家、省、市、县各级领导及社会各界的广泛关注，《安徽楚文化》基本陈列荣获第六届全省博物馆陈列展览精品推介“精品展览”奖。王亚晖希望寿县楚文化博物馆的陈列运营的工作经验，能够为庐江县博物馆的展陈设计提供借鉴。同时，也希望寿县与庐江县今后在文旅发展中加强互动，相互学习，促进两地文旅事业高质量发展。', '庐江县政府代表团表示，通过参观寿县楚文化博物馆，感受到了寿县悠久的历史文化，同时，也学习到了寿县在博物馆展陈和运营中的先进经验，回去后，将认真梳理，运用到庐江县博物馆的展陈和运营工作中。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>凤台县人大工作研究会赴合肥考察学习引江济淮工程</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2024-04-12</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/xwzx/ftyw/8130178.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['4月12日，凤台县人大工作研究会组团赴合肥考察引江济淮工程，深入了解该工程的建设进展情况。考察学习团一行受到省政协人口资源环境委员会副主任牛向阳等热情接待。', '引江济淮工程作为国家一项以城乡供水和发展江淮航运为主的重大水利工程之一，对于优化凤台县及皖北地区水资源配置、保障供水安全、改善生态环境等方面都具有重大意义。', '考察团一行首先来到亚洲第一大泵站——引江济淮蜀山泵站，实地参观了泵站机房，聆听了相关负责人对引江济淮工程概况的介绍，并在引江济淮调度大厅观看了专题片和实时远程监控。大家对该工程的创新性、科学性和实用性给予了高度评价。', '随后，大家还来到蜀山泵站枢纽，实地察看了世界第一大跨度钢结构渡槽——引江济淮淠河总干渠钢结构渡槽。', '考察团表示，回去后将认真总结考察成果，将先进经验和做法带回凤台县，推动凤台水利事业的持续发展。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>96</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>张家口市住房公积金管理中心来我中心考察学习</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2024-06-11</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>https://gjj.huainan.gov.cn/xwdt/zxxw/551761097.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['6月6日，河北省张家口市住房公积金管理中心党组书记、主任吴志军一行来我中心开展交流调研。', '交流会上，我中心重点围绕公积金贷款担保问题，对贷款担保公司选择、担保机构的监督管理方法进行分享。双方还就两地公积金工作中存在的重点、难点问题，进行了深入探讨。', '交流结束后，张家口市公积金中心一行实地参观了中心办事大厅，就双方中心办事大厅业务流程与业务要件的优化交流经验，两中心下一步将继续加强交流学习，吸收借鉴优秀经验做法，推动两地公积金高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>96</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>淮南市司法局赴合肥考察学习司法鉴定工作</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2017-11-03</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>https://sfj.huainan.gov.cn/zhzx/gzdt/41814145.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['为把“全面学合肥 对标提效能”活动落到实处，进一步加强司法鉴定质量体系建设、内部规范化建设，提高我市司法鉴定工作水平，11月2日，淮南市司法局携3家法医类司法鉴定机构代表，赴合肥考察学习司法鉴定工作经验。合肥市司法局司法鉴定管理处同志陪同参观学习。', '考察组一行实地考察了合肥市精神病医院司法鉴定所和安徽正邦司法鉴定所，参观了受案大厅、检验室、档案室、办公室等场所，详细了解2家鉴定机构的规章制度、鉴定流程及鉴定质量保证措施，翻阅学习了鉴定卷宗，听取机构负责人的经验介绍，并就司法鉴定工作中存在的问题以及鉴定疑点、难点进行了交流。', '此次考察学习，拓宽了淮南市司法鉴定工作的思路，更新了管理理念，学到了先进的工作经验，进一步明确了我市司法鉴定工作的目标和方向，特别是在加强机构场所、内部管理制度及质量体系建设方面有了新的认识，为进一步推动淮南市司法鉴定工作向规范化、科学化、制度化发展奠定了坚实的基础。', '双方表示要在以后的工作中加强交流学习、共同进步、共同提高、共同推进司法鉴定各项工作迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>96</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>彭亮带队赴南京厦门政务服务中心考察学习</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2017-09-19</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/zwzx/zwxx/7799972.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['9月12日至15日县委副书记、副县长彭亮带领县政务服务中心相关人员，赴南京市、厦门市考察学习。 彭亮一行先后考察了南京市、厦门市政务服务中心，详细了解了投资项目“多评合一”暨中介服务平台建设和网上报建系统开发运行等情况。 彭亮要求，寿县政务服务中心要认真学习南京市、厦门市政务服务中心的好经验、好做法，努力提高我县基本建设项目审批服务水平。 在厦门市，彭亮一行走访了我县在厦门创业成功人士鲁本国等人，到企业进行了实地参观考察，真诚欢迎他们回寿县投资兴业。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>96</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>寿县赴来安县考察学习县域医共体建设工作</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2017-09-11</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>https://wjw.huainan.gov.cn/xwzx/jcdt/38423133.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['为进一步推进县域医共体工作，按市卫计委统一安排，9月5日，市卫计委副主任陈安东带队组织寿县和凤台县考察团赴来安县考察学习县域医共体建设工作。我县考察团由副县长李琼、县卫计委主任涂满祖以及县医改办、县财政局、县人社局、县医院、县中医院和安丰镇中心卫生院相关负责同志组成。', '考察组听取了来安县紧密型医共体建设的经验介绍，并就人才流动、能力提升、利益分享、绩效考核、慢病防控等工作双方作了深入探讨。考察组一行现场参观了来安县人民医院以及水口镇中心卫生院，并就工作的具体细节进行详细交流。（寿县卫计委 洪璐璐）']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>96</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>淮南实验中学第一党支部赴万华电气考察学习</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2017-11-06</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://sjtj.huainan.gov.cn/content/article/41968427</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['11月4日，我校第一党支部全体党员及第五党支部部分党员二十余人在第一党支部书记郑文斌同志带领下，赴安徽万华电气股份有限公司考察学习。校党总支书记李仁强及总支委员李诚、常殿恒、余桦也应邀同往。', '9时整，李书记、郑书记等来到万华电气门口，公司董事长戴拥军先生已等候多时。戴总首先陪同党员同志们参观了厂区、车间，介绍了公司的发展情况。党员老师们仔细聆听，细致观察。作为民营企业，万华电气目前已具有省内同行业前四名的实力，合作对象均为大型上市公司，目前拥有员工五百人左右，年产值近一亿元。在公司会议室，戴总和老师们热烈讨论。校总支李仁强书记首先感谢万华给党员教师们提供了参观学习的机会，强调了党员教师们要学习万华电气的管理经验，也要在教育教学上学会做“减法”——随着时代的发展，实验中学过去某些成功的做法、措施已经落后，要敢于抛弃，要树立新理念，学习新方法，取得新成绩。戴拥军董事长的发言也给老师们留下了深刻的印象：丰富曲折的个人经历、割舍不断的家乡情怀、科学果敢的经营决策、不断上升的销售业绩。常殿恒委员、郑文斌支书等分别发言。11：30，在万华电气大门口，双方合影留念后，老师们才依依不舍地离开。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>96</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>保义镇组织老干部重阳节外出参观考察学习</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2017-10-30</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/zwzx/xzcz/7881035.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['10月28日，保义镇组织20多位离退休老干部，开展丰富多彩的庆祝“重阳节”活动。 活动中，老干部们来到了位于淮南市上窑森林公园，新四军革命陈列纪念馆，新四军红色教育基地，先后参观了革命烈士展厅、新四军史料展览馆和廉洁思想教育馆，展示的照片和实物、模型，把老同志们带到那艰苦卓绝的新四军抗战年代。回顾历史，不忘初心，感受辉煌史迹，缅怀革命先烈，重温当年将军写下的“云中美人雾里山，立马汤池君试看，千里江淮任驰骋，飞渡大江换人间”的著名诗句，再接受一次党史学习教育和思想洗礼。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>96</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>寿县信息中心到蜀山区政府信息中心考察学习</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2017-09-07</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/zwzx/bmdt/7833406.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['寿县信息中心按照寿县政府系统“全面学合肥、对标提效能”活动安排，以蜀山区政府信息中心为对标单位，进行全方位对标学习。9月6日，寿县信息中心负责人到合肥市蜀山区政府信息中心考察学习。 座谈会上，合肥市蜀山区政府信息中心负责人介绍了本单位情况和取得的成绩，对寿县信息中心发展提出建议。 随着“全面学合肥、对标提效能”活动的深入开展，寿县信息中心将全面学习蜀山区政府信息中心的先进工作理念、健全的体制机制、优化的工作流程、务实的工作作风和一流的工作标准，以蜀山区政府信息中心为标杆，通过对标学习，深入查找单位、部室和个人在工作理念、健全机制、工作流程、工作作风、工作标准等方面存在的问题和差距，分析找准原因，明确改进措施，推动寿县信息工作健康有序开展。', '寿县信息中心按照寿县政府系统“全面学合肥、对标提效能”活动安排，以蜀山区政府信息中心为对标单位，进行全方位对标学习。9月6日，寿县信息中心负责人到合肥市蜀山区政府信息中心考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>96</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>我委赴合肥经开区高新区新站区考察学习</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2017-08-25</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>https://fgw.huainan.gov.cn/gzdt/34622084.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['8月22日，市发改委主任沈斌、副主任徐文军率队赴合肥经开区高新区新站区考察学习。考察组一行考察了合肥经济技术开发区合肥海尔工业园、合肥高新技术产业开发区中盛溯源有限公司、华米科技有限公司和合肥新站高新技术开发区京东方视讯科技有限公司、欣奕华智能机器有限公司。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>96</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>合肥市考察团来我区考察学习反邪教工作</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2017-08-05</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>https://www.maoji.gov.cn/zxzx/bmdt/7807441.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['8月3号上午，合肥市政法委副书记、防范办主任李琼、合肥市宗教局副局长费广华率市、县区委防范办和市、县区宗教局负责人一行来我区考察交流在宗教界开展反邪教工作。区工委委员、区政法委书记王瑞永及市区相关负责人陪同。', '考察团一行先后前往花家湖教堂、洼梁社区、国家湿地公园反邪教宣传阵地，实地查看了相关宣传图版和创建材料，现场听取我区关于反邪教警示教育工作以及以正教反邪教工作开展情况介绍，并在区政务中心会议室集体观看了我区以正教反邪教警示宣传片。', '近年来，毛集实验区积极引导和支持宗教界参与反邪教，强力推进“以正教反邪教”活动，着力打造“制度健全、宣传高效、信仰有据、社教和谐”的良好格局，提升了反邪教工作水平，辖区内始终无邪教组织、无参加邪教组织人员、无严重反动宣传案件发生，打造了一方净土。', '考察团认为，毛集实验区在反邪教宣传教育特别是“无邪教创建”等工作在全省有影响、有地位，有很多值得学习借鉴的好做法、好经验。', '交流结束后，双方一致表示，两地将在今后反邪教工作方面进一步加强沟通，交流合作，互相学习，共同提高。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>96</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>焦岗湖镇焦岗村组团赴李郢孜镇考察学习</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2017-07-24</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>https://www.maoji.gov.cn/zxzx/bmdt/7807395.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['7月21日下午，市经信委扶贫工作队第一书记、队长黄明率焦岗湖镇焦岗村村支“两委”成员赴谢家集区李郢孜镇考察学习“向垃圾宣战建美丽家园”农村环境集中整治工作和农村基层党组织建设有关经验做法，李郢孜镇党委、政府有关人员陪同。', '在李郢孜镇三楼会议室，考察组一行听取了该镇先进经验介绍，认真查阅了镇级基层党组织建设和“三清两化”资料台账。', '在北梨园村，考察组一行深入该村上尹组、刘上岗组和陈郢组，观摩学习“三清两化”具体做法；在范圩村，考察组成员认真查看了该村基层党标准化建设相关资料台账，并就基层党组织党员活动开展情况向该村书记现场取经。', '活动结束，市经信委扶贫工作队和焦岗村村支“两委”成员均表示此次参观学习深受启发、收获颇丰，下一步将以此活动为契机，进一步凝心聚力、砥砺品质，做好焦岗村各项工作。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>96</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>池州市来我市考察学习户户通推进工作经验</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2017-05-12</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>https://wlj.huainan.gov.cn/xwzx/xwtt/19869824.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['2017年5月11日，池州市文广新局党组书记、局长何建民率领市县区文广新系统单位负责人一行10人来到我市潘集区，考察学习我市在直播卫星户户通整省推进工作中的先进经验。市局党委书记、局长方斌、潘集区副区长程晓玲等陪同考察。', '考察组一行来到潘集区平圩镇丁郢村，深入农民家里现场观摩直播卫星户户通的安装调试过程，询问农民朋友对户户通的切身感受。随后，市局党委委员、副局长孔淮祥在潘集区政府会议室主持召开户户通推进工作座谈会。潘集区副区长程晓玲向考察组成员介绍了潘集区的发展情况。潘集区文广体局局长吕国涛汇报了有关户户通推进工作先进经验。市局孔淮祥副局长交流了我市的有关工作做法，回答了考察组成员关心的有关户户通推进工作中的问题。', '池州市文广新局党组书记、局长何建民表示，淮南市在户户通推进工作中的突出表现得到省局领导的充分肯定和表扬，通过今天的实地考察，学习收获很大，感谢淮南市局、感谢潘集区同行的大力支持，希望今后在户户通整省推进工作中加强两地合作与交流，齐心协力完成好这一惠民工程。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>96</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>市医疗保障信息中心赴淮北市考察学习移动支付建设工作</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>https://ybj.huainan.gov.cn/gzdt/ybzxxnhgzdt/551732770.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['来到淮北市矿工总医院，市医疗保障信息中心一行根据工作人员引导，首先打开手机，微信扫码关注医院公众号并注册个人信息后获得个人就医码，通过全流程体验“挂号、就医、结算、取药”等环节，感受到了“一码在手，全程无忧”的便捷。接着，淮北市医保信息科负责人从医保移动支付建设工作的建设背景、建设过程及经验分享等方面，展示了如何依托医保电子凭证做到医保服务“掌上办”，切实满足患者多元化的医保就医体验，为群众提供安全、高效、便捷的医保线上服务。', '下一步，市医疗保障信息中心将以这次学习为契机，从省、市医保局政策要求及当前淮南市医保移动支付建设过程中遇到的重点难点问题着手，学习借鉴淮北市的先进工作经验，全力推广医保移动支付业务，深入拓展移动支付应用场景，真正实现“让数据多跑路，让群众少跑腿”。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>96</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>市医保局赴黄山合肥两市考察学习医疗救助资金管理</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2024-01-12</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>https://ybj.huainan.gov.cn/gzdt/sjdt/551742609.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['2024年１月４日至５日，市医保中心四级调研员、副主任陈传纪率市医保局待遇保障科、规划财务和法规科及市医保中心有关人员，赴黄山、合肥两市医保中心考察学习医疗救助资金管理先进经验。', '考察组一致认为，合肥市于2022年1月1日实施医疗救助资金市级统筹，为我市医疗救助资金市级统筹提供了成熟经验和模式，我市医疗救助资金市级统筹工作条件已经成熟。合肥市医疗救助资金市级统筹管理办法全省领先，做到了“两个四”：', '设立市级医疗救助基金财政专户，将中央、省、市、县区财政补助的医疗救助资金、社会捐赠资金、按规定可用于医疗救助的其他资金，以及市级统筹前各县区结余资金，全部纳入专户管理', ';坚持预算管理，依据“收支平衡、略有结余、分级负责、绩效挂钩”原则，制定年度支出计划。医疗救助基金独立建账、独立核算、专款专用。', '“当年支付，次年清算”原则，各级医保经办机构根据当年享受医疗救助待遇情况，做好医疗救助费用清算工作，实现当年清、市县清、区间清。县区年度支出计划有结余的，可结转至下一年度，用于抵扣下年度财政补助资金;年度支出计划超支的，按时将超支部分上解至市级医疗救助专户，保证基金不穿底、年度结余15%左右。', '“年初拨付、年底收回”原则，建立市、县区医疗救助预付周转金制度，保证支出流量和进度。', '“四个转变”见统筹实效。一是统筹层次实现“矮人半头”到“市域等高”转变。统筹之前，基本医保、大病保险实现市级统筹，而医疗救助“低人一等”，县区之间救助标准、救助政策、资金补助各有异同，制定“土政策”，使用“地方粮票”。统筹之后，医疗救助由市上建基金池、设财政专户、统收统支，三重保障统筹层级拉平，医疗救助实现“市域等高”。二是资金注入实现“配套不足”到“共同分担”转变。市级统筹之前，各县区主要依靠中央、省市财政补助“看米做饭”，自己不补助或者少补助，有多大蛋糕就切多大的蛋糕。市级统筹之后，参照上年医疗救助实际发生金额与中央省市补助资金差口，建立市县级财政分担机制，县区按标准足额配套资金，基金互助共济能力增强。三是兜底功能实现“特惠不均”到“待遇均衡”转变。医疗救助政策是解决困难群体的特殊政策。统筹之前，群体分类、兜底范围、政策尺度、经办流程均不统一，存在“特而不均”等问题。统筹之后，整合县区各类碎片化政策，明对象、分类别、定标准、造流程、管规范，实现救助标准、救助对象公平享受救助政策。四是风险抵御实现“孤木难支”到“抱团取暖”转变。统筹之前，个别县区人员进口较宽，资金入不敷出，寅吃卯粮;个别县区出地方小政策，“叠床架屋”保障过度，导致县区之间医疗救助基金过剩与保障不足问题并存，抗风险能力弱。统筹之后，加强人员入口管理、人员筛查甄别，实行预算管理、结算清算、预付调节，保证基金不穿底、可持续。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>96</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>交流学习促提升淮南市国动办赴厦门国动办考察学习</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2023-10-16</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>https://gfdy.huainan.gov.cn/ztzl/jkqjxd/551730280.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['10月10日-13日，淮南市国动办党组书记、主任连佩录率队前往厦门市国动办考察学习，厦门市国动办党组成员、副主任刘继明及相关处室负责同志陪同。', '考察组一行先后参观了厦门市鸿山隧道（人防工程平战结合社区示范点）、厦门市综合管廊兼顾人防试验段等场所，', '在厦门市人防基本指挥所双方举行了座谈交流，厦门市国动办重点介绍了国防动员、支前防护、指挥通信、战备建设等方面的先进经验做法。考察期间，考察组一行还实地调研了厦门日华集团数字人防与应急综合服务平台、人防警报器研发和建设情况。', '通过学习调研，考察组开阔了视野、增长了见识，收获良多，对下一步工作形成了新的思路和工作举措。淮南市国动办将以此次考察学习为契机，积极借鉴先进地区经验做法，创新方式方法，推动全市国防动员工作提质增效。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>96</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>学先进促提升谢家集区生态环境分局赴黄山考察学习先进经验</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2023-10-27</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>https://sthjj.huainan.gov.cn/xwdt/xqdt/551731985.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['为深入推进主题教育实践活动，谢家集区生态环境分局对标先进，开展素能提升，大兴学习研究之风。2023年10月，谢家集区生态环境分局赴黄山市进行考察调研学习。', '本次调研主要观摩了位于黄山市屯溪区屯光镇的南溪南村，本次调研主要对南溪南村的建筑风格、历史文化、经济发展以及未来规划等方面进行了深入了解。过去的南溪南由于缺少规划和整治，加上制作豆腐产生的污水无序排放，脏乱差一度败坏了南溪南的美名。近年来，黄山市委、市政府创造性深入实施乡村振兴战略，实施“五微”行动推进美丽乡村建设，聚焦产业丰美、环境优美、乡风纯美、社会和美、生活甜美，着力打造全国全省乡村振兴新典范。', '谢家集区也有很多的豆腐小作坊集群、卤菜加工小作坊集群、小家具作坊集群等。这些小作坊很多都因为环保不达标被整治，被关停。通过这次观摩学习，给我们整治小作坊提供了新的经验。学，然后知不足；比，方能见短长。下一步，谢家集区生态环境分局将以此次外出学习考察为契机，结合自身实际运用到生态环境保护工作实践中，对标先进学经验，找差距，学精神，找不足，学特色，找目标，努力做好全区生态环境保护工作，持续改善我区生态环境质量。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>96</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>张劲松带队赴江苏省宿迁市考察学习城市公共空间治理工作</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>https://cgj.huainan.gov.cn/xwzx/gzdt/551752335.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['3月25-26日，市委常委、市委统战部部长张劲松带队，市政府副秘书长刘开东，市城管局、市文明办、市住建局、市自规局、市机关事务管理局、市商务局、市发改委、市经信局等部门负责同志参加，赴江苏省宿迁市考察学习城市公共空间治理工作，重点学习借鉴宿迁市在城市公共空间治理导则制定及模式创新、城市治理体制机制运行等方面的先进经验做法。 3月25日下午，在宿迁市政府副秘书长沈素青陪同下，张劲松带领全体考察人员，先后来到富丽莱嘉苑小区片区、西楚农贸市场、黉学街、新盛街、洪泽湖东路片区、数字化城管监督指挥中心等特色点位，现场观摩沿街人行道板砖更新改造、单位庭院开放、农贸市场标准化建设、城市更新、背街后巷整治、线缆治理、“一网统管”城市运行管理服务平台建设等工作成果。一组组直观明了、图文并茂的对比简介，一条条整洁清爽、内涵丰富的改造街区，一片片功能完善、便民利民的集成治理，一处处知微见著、特色鲜明的空间更新，让“城在景中、景在城中”成为真实写照，给考察人员带来了视觉上的享受，留下深刻的印象。 3月26日上午，在宿迁市政府会议室召开考察学习座谈交流会议。淮南市委常委、市委统战部部长张劲松，宿迁市委常委、副市长章其波出席会议。淮南市全体考察人员，宿迁市对口部门及宿豫区、宿城区政府负责同志参加会议。章其波对张劲松一行的到来表示热烈欢迎，并在致辞中指出，近年来淮南市围绕“七个强市”奋斗目标，深入实施产业转型、城市更新、乡村振兴、生态修复、社会治理等“五大攻坚”行动，让老工业城市焕发新的活力、绽放新的“颜值”，宿淮两地市应以此为起点，加强合作交流，在互学互鉴中共同进步。宿迁市各相关职能部门和县区充分准备，对好经验、好做法进行全面介绍。考察人员围绕工作中难点堵点问题虚心请教、探讨交流、取得真经。最后张劲松部长作了讲话，他指出，宿迁市深入践行以人民为中心的发展理念，突出问题和民生需求导向，顶层设计到位，规划引领凸显，机制制度完善，目标责任明确，齐抓共管有力，创建成绩显著，城市治理水平和发展品质取得了跨越式提升，既令人赞叹，更提供了启发性思考。 张劲松指出，此次考察学习是我市立足新发展阶段，加快构建完善城市治理制度化、规范化、长效化体系，而开启的一次旨在破难、提效、筑精的学鉴交流之行。宿迁市尽管是江苏省最年轻的地级市，但始终坚持一张蓝图绘到底，一任接着一任干，一度跃居为长三角地区发展速度最快、综合实力提升最明显的地级市之一，并且以全国第一的成绩创成、全国第二的成绩蝉联全国文明城市。宿迁市聚力开展城市公共空间治理三年行动、“可爱宿迁”城市建设管理三年行动，打造一批公共空间治理“示范样板”。无论规划、建设还是管理，精心精致精细理念无处不在，坚持久久为功的韧劲无时不在，形成了诸多可复制、可推广的经验做法，在全国范围内树立了一批典型示范。我们要以先进为标杆，在对照中找差距、补短板，在追赶中勇担当、强作为。', '张劲松强调，考察学习的关键是要学深悟透。市城管局在分享交流考察学习体会时提出，从“宿迁变化”深切感受到全面发展的速度，应充分学习借鉴宿迁的干事之心、成事之要；从“宿迁样板”深挚感想到顶层设计的精度，应充分借鉴宿迁的制度之力、行动之效；从“宿迁模式”深刻感悟到城市治理的维度，应充分学习借鉴宿迁的理念之新、体制之能；从“宿迁精神”深情感知到攻坚克难的力度，应充分学习借鉴宿迁的奋进之志、担当之风，思考深刻、领会全面，引发了共鸣，凝聚了共识。要深刻理解宿迁市坚持“严格标准、‘精’字贯穿”带来的理念启示；坚持“规划先行、多规衔接”带来的方法启示；坚持“项目支撑、行动‘开局’”带来的路径启示；坚持“高位统筹、齐抓共管”带来的机制启示；坚持“真抓实干、久久为功”带来的作风上的启示。 张劲松要求，要扎实做好考察学习成果转化应用“下半篇文章”。围绕市委市政府决策部署，从深入透彻研析“宿迁变化”中，拓展“宿迁模式”、复制“宿迁样板”、感知“宿迁精神”，拉高标杆，求真务实，攻坚克难，争先进位。要聚焦“大衔接”，强化规划引领，推进城市科学化治理；聚焦“大导引”，强化制度保障，推进城市系统化治理；聚焦“大统筹”，强化项目攻坚，推进城市集成化治理；聚焦“大决战”，强化文明创建，推进城市协同化治理；聚焦“大落实”，强化作风建设，推进城市高效化治理。要保持定力、增强毅力、提升能力、形成合力，为加快建设现代化美好淮南作出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>96</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>市财政局国资委赴安庆市财政局国资委考察学习</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>https://cz.huainan.gov.cn/gzdt/551726683.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['近日，市财政局（国资委）副局长（副主任）管迎新一行赴安庆市考察调研国资国企监督管理和改革发展工作。安庆市财政局（市国资委）党委副书记、副局长（副主任）刘晓丽和相关科室负责人参加座谈交流。', '座谈会上，刘晓丽同志简要介绍了安庆市和安庆国资国企改革发展有关情况，相关科室负责同志分别介绍了国有企业改革深化提升行动、市属企业合规管理、国有企业负责人薪酬制度、经营业绩考核、国有企业外部董事建设和考核等工作情况，双方就企业整合重组、改革创新、资本化证券化等工作进行了交流。', '此次考察调研为双方提供了一个交流与学习的平台，双方均表示将进一步加强沟通交流，互相学习借鉴宝贵经验和成熟做法，共同推动国有资产监管和国有企业改革向更高水平发展。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>96</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>凤台县自然资源和规划局赴亳州市考察学习林下经济</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>https://lyj.huainan.gov.cn/xwzx/xqdt/551723069.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['8月10日至11日，凤台县自然资源和规划局副局长常燕带领凤台林场、林业和湿地保护站、绿化中心相关负责同志到亳州市考察学习林下经济发展先进经验。', '常燕一行首先来到蒙城县白杨国有林场，听取了该场负责人“依托四个基地、发展三白一花”（依托全民义务植树基地、公益诉讼生态修复基地、无絮杨繁育基地、杜仲苗繁育基地，发展白杨树、白山羊、白芍、花生产业）的发展思路介绍。白杨林场引进湖南九九慢城杜仲产业集团，发展杜仲基地6000亩，利用杜仲叶、杜仲种子、杜仲皮，生产杜仲面条、杜仲茶、杜仲油等产品，实现一二三产融合发展。以“林下种植”为切入点，全力做好“林下经济”大文章。一是鼓励林农参与到林下经济产业发展中来，努力把林场丰富资源转化为经济发展优势，助力乡村振兴。二是积极利用土地租金收益，在林地内修建了水泥路，建设了喷灌、滴灌设施，疏通了沟渠，确保旱能浇、涝能排，保障林农种植的蔬菜等农作物更好地生长。三是“林下种植”产业的大力发展，为当地村民及周边群众就业增收提供了新路径。白杨林场在做好森林抚育的同时，充分发挥林地资源优势，利用新植苗木空隙土地，大力实施土地流转，鼓励林农和公司积极发展林下特色种植。现在林场冬春季节“林下种植”的有白菜、花菜、萝卜、油菜，夏秋季节有红薯、花生、大豆等，已累计发展“林下种植”260多亩，每年有效节约苗木抚育费用10万余元。下一步，通过与种养专业合作社建立合作，推广“林场+合作社+林农”的模式，大力发展林下蔬菜种植、白芍种植、白山羊养殖等特色产业。一方面持续提升林地效益，另一方面开发更多就业岗位，让更多林农通过在合作社内打工，实现稳定就业。', '11日，常燕一行考察了谯城区林下经济发展情况。谯城区注重规模品牌效应和平台带动，积极建设种植加工基地，打造服务平台体系，为林下种植药材搭建“主战场”“主舞台”。该区成立了谯城区农民合作社联合会，打造了谯联品牌、谯联网站、谯联微博、谯联博客、谯联订阅号、谯联小程序、谯联微信交流群、谯联抖音等互联网工具共同组成的综合性为农服务平台。依托谯联，组织发展林下经济合作社153家，以合作社为载体发展林下经济1.5万亩。建设中药材初加工基地10个，镇级中药材产地批发市场3个，农村电子商务服务站98个，为当地农民专业合作社和农户提供各种综合性服务。截至目前，“县级农民合作组织+谯联品牌+农民合作社+中药材产业+农户”的新型农合服务体系基本建成，打通了林下药材的种、产、销产业链。为林下经济发展、助推乡村振兴奠定了基础。 考察学习后，常燕指出，我县认真学习、吸收、消化亳州市林下经济发展经验，按照“生态产业化、产业生态化”的发展思路，依托全县林业资源及优势产业项目，积极迎商招商和注重培育本土企业，深入推进“放管服”改革，加大政策扶持力度，不断优化林业营商环境，大力发展林下经济，推动我县林业产业高质量发展取得新突破。', '考察学习后，常燕指出，我县认真学习、吸收、消化亳州市林下经济发展经验，按照“生态产业化、产业生态化”的发展思路，依托全县林业资源及优势产业项目，积极迎商招商和注重培育本土企业，深入推进“放管服”改革，加大政策扶持力度，不断优化林业营商环境，大力发展林下经济，推动我县林业产业高质量发展取得新突破。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>96</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>经开区分局赴滁州经开区考察学习优化营商环境先进工作经验</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2023-08-07</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>https://scjgj.huainan.gov.cn/xwdt/jcdt/551721584.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['进一步提升经开区企业开办、市场监管、知识产权等营商环境指标,8月2日，市市场监管局经开区分局、经开区经济发展局组成调研专班远赴滁州经开区学习考察优化营商环境先进工作经验。', '一行人首先参观了滁州经开区政务服务中心，滁州经开区市场监管局窗口负责人就企业登记注册窗口、帮办代办服务、24小时自助服务等为企服务相关业务进行经验介绍。随后，来到滁州经开区市场监管局会议室，主要围绕企业开办、市场监管、知识产权三个方面工作开展学习交流，通过对标先进开阔了眼界，提升了境界，明晰了思路。', '这次考察结束后，经开区分局将会把学到的先进经验、方法举措结合实际制定可行性复制方案，用先进的工作经验指导具体的工作实践，持续激发市场主体活力，培育新的经济增长动能，营造一流的营商环境，为助推经开区经济社会高质量发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>96</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>市公积金中心赴淮北市住房公积金管理中心考察学习</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/public/118322749/1259819403.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['为细化落实“深化解放思想大讨论 推进高质量转型发展”工作部署，9月5日，市公积金管理中心党组书记、主任秦红权、总会计师闪丽丽率信息科、信贷科及稽核科一行5人，赴淮北市住房公积金管理中心就有关工作进行了考察学习。', '围绕考察学习工作内容，双方重点交流了在住房公积金数字化发展、行业分中心上划后资金统筹管理、住房公积金归集和使用政策调整及住房公积金贷款担保业务合作等方面的经验做法。同时，对两地市住房公积金管理服务差异及发展中普遍存在的难点、堵点等问题，也进行了深入的研讨，交换了意见和建议，通过考察交流学习，深受启发，开阔了思路，收获颇丰。', '在今后的工作中，结合“两淮”在人员构成、产业结构等方面具有较高的相似性，两中心将继续加强交流学习，吸收借鉴先进经验，共同探索公积金管理服务、政策创新及党建共建等方面共享合作，提升住房公积金管理水平，推进我市住房公积金事业高质量发展。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>96</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>淮南市供销社赴宿州市考察学习农业社会化服务体系建设</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2023-08-02</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>https://gxs.huainan.gov.cn/xwzx/gzdt/551720887.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['为了更好地提升淮南市农业社会化服务水平和质量，推进2023年中央财政农业生产社会化服务项目试点工作的顺利开展，7月27日，淮南市供销社党组书记、理事会主任顾云光率相关科室，县区供销社负责同志及部分农业社会化服务主体赴宿州意利达供销合作社有限公司考察学习。宿州市供销社党组书记、理事会主任孟振东，党组成员、监事会主任潘雷，党组成员、理事会副主任魏振南等陪同考察。', '顾云光一行实地考察了宿州意利达供销合作社有限公司农业产业联合体办事大厅、无人机飞防展示大厅、特色农产品展示中心、农资配送中心、农民技能培训部、豆制品加工厂房，听取了该公司负责人韩素兰的介绍，宿州意利达供销合作社有限公司通过“六大模式”（保姆式托管服务模式、全程社会化服务模式、菜单式社会化服务模式、联合种植经营模式、扶贫农场经营模式、产业扶贫经营模式）开展农业社会化服务，每年服务面积达13万亩左右，年产值达3000多万元，带动了农户、服务了农民，实现了社会效益和经济效益的“两手抓两手硬”，是全省供销系统的先进典型。', '参观结束后，双方进行了座谈交流，孟振东对顾云光一行的到来表示热烈欢迎，他重点介绍了意利达供销合作社有限公司“意在服务、利让于民、达至共赢”的理念和先进经验。顾云光表示，参观学习后感受、感想、感悟颇多，在农业社会化服务领域意利达供销合作社模式更加新颖、服务更加精准、成效更加明显，切实解决了“地谁来种、怎么种？”的难题。他要求我市供销系统农业社会化服务主体对标对榜学习，同时诚挚邀请宿州市社来淮指导调研，促进两市供销系统农业社会化服务提质、扩面、增效。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>96</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>招商引资县领导赴河南开展考察学习及招商引资活动</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/public/118322647/1259685827.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['6月8日至10日，县委副书记叶宜声，县人大常委会副主任高斌率队赴河南省南阳市、漯河市开展考察学习及招商引资活动。县直相关部门、乡镇负责同志参加。', '在南阳市牧原集团，叶宜声一行先后参观了该集团肉食产业综合体、肉食品城（屠宰场）、智能科技馆，并与企业负责人就行业发展、环境保护以及产业共建等事宜进行了座谈交流。叶宜声表示，双方要开展更深层次、更宽领域的务实合作，促进共赢发展。', '在漯河市临颍县，临颍县委副书记、县委政法委书记常国庆，县人大常委会副主任娄珍珍，副县长何向涛先后陪同叶宜声一行参观了临颍县国家级现代农业科创园、漯河市豫禾农业科技发展有限公司、食尚年华田园综合体、盼盼食品集团、中大恒源生物科技股份有限公司、颐海（漯河）食品有限公司等企业，就推进现代农业产业链发展、延长乡村产业链、实现三产融合等事宜进行了交流。', '考察中，叶宜声指出，近年来，凤台持续优化营商环境，全方位强化政策引领，希望各企业结合自身产业发展实际，能够让更多的优质农产品谋划布局等项目落户凤台，实现互利共赢。', '各企业负责人纷纷表示，凤台县区位优势突出，发展前景广阔，今后，双方将进一步加强沟通交流，积极寻求合作契机。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>96</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>河北省秦皇岛市卢龙县来淮考察学习亩均论英雄改革</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>https://jxj.huainan.gov.cn/xwzx/gzdt/551712291.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['5月31日下午,河北省秦皇岛市卢龙县相关部门领导来淮学习考察“亩均论英雄”改革工作，市经信局党委副书记、副局长余守坤主持召开座谈交流会，四级调研员李军、经济运行办和市中小企业发展促进中心负责同志参会。', '会上,余守坤就我市开展“亩均论英雄”改革工作经验和关键环节进行了深入辅导解读，经济运行办和中小企业发展促进中心也分别作了相关工作经验交流，并就相关问题进行了解答。卢龙经开区管委会副主任王治国表示此次来淮学习“亩均论英雄”改革工作，淮南经验做法符合卢龙工业经济发展实际，可复制、可操作，“干货”满满，为下一步探索推进工作提供了科学指导。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>96</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>寿春镇赴金寨县梅山镇考察学习文明城市创建工作</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2022-09-20</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/ztbd/ztzl/cjahswmcsgzzl/8084403.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['9月17日，寿春镇人大副主席鲍士山带领部分人大代表、物业公司经理以及城市社区书记主任一行32人，赴金寨县梅山镇考察学习文明城市创建工作。金寨县行政执法局副局长汪承金、梅山镇人大主席黄正先和党委副书记戈英伍等热情接待。', '考察组一行坚持问题导向，针对本镇文明创建暨创城工作中存在的问题，重点考察学习了2个住宅小区、1个农贸市场、1条背街小巷和主次干道等。考察组通过现场观摩学习、听取情况介绍、召开座谈会等方式，详细了解金寨县梅山镇创建全国文明城市的整体布局、组织领导、保障措施、财政投入以及成功经验等。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>96</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>落实情况寿县商务局赴太湖县考察学习农村电商建设工作</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2022-07-15</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>https://www.huainan.gov.cn/zwgk/ztzl/jjlyxxgkzti/sccygzlfz/1259939938.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['为学习先进县区在电商扶贫的好做法和好经验，7月14日寿县商务局副局长邓传林带队赴太湖县进行学习考察。在太湖县，通过实地参观、现场交流等形式，详细了解太湖县电子商务运营情况，并与太湖负责人就电商运营模式、建立农产品上行体系、电商发展等进行探讨。大家一致认为，通过参观学习开阔了视野、创新了思路、也看到了自身与先进县之间的不足之处，将进一步学习经验落到实处。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>96</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>淮南市组织高素质农民培训草莓班学员外出考察学习</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2022-12-22</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>https://nyncj.huainan.gov.cn/ztzl/hnnjh/njgzxx/551655912.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['近日，市农机技术推广中心组织高素质农民培育（草莓种植）培训班学员到长丰县、凤阳县和定远县等地外出考察学习，进一步开阔眼界，打开思路，为乡村振兴出一份力。', '在长丰县水湖镇勤丰果蔬专业合作社，通过实地查看、与合作社负责人郭同丰交流等方式，详细了解了该合作社育苗、种植、病虫害管理及销售等相关情况，全面学习勤丰果蔬合作社成功做法和先进经验。', '在凤阳小岗村的大包干纪念馆和沈浩同志事迹陈列馆，“小岗精神”和“沈浩精神”让学员们深感震撼，作为农机人就是要像“小岗精神”那样，勇于创新工作，像沈浩那样，全身心投入到机械强农实践中去。', '在定远县薛荣家庭农场，学员们边看边听薛荣介绍自己打工学技术，办家庭农场流转土地110余亩种植着草莓等瓜果蔬菜，并带动其他贫困群众就业的经历。', '整个考察学习活动，学员们一路认真听、仔细看、用心记、勤于问，不但开阔了视野，增长了见识，更新了理念，还激发了创业激情，增强了争做高素质农民干事创业的信心和决心。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>96</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>王希帮局长赴马鞍山市考察学习城中山管理经验</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>https://lyj.huainan.gov.cn/xwzx/zxdt/551635774.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['7月26日，市林业局党组书记、局长王希帮赴马鞍山考察学习城中山管理经验，局党组成员、副局长刘锦灿，舜耕山风景区管理处主任陈斌海陪同。', '王希帮一行来到马鞍山自然资源和规划局，与市林业局四级调研员刘安强、市园林处党委书记李群等相关负责同志，围绕风景管理、林长制工作、国有林场运营发展等进行了座谈，深入了解马鞍山市城中山机构设置、管理模式、运维方式等成功经验和做法。', '座谈会后，王希帮局等一行在市林长制工作领导小组办公室副主任韩兵等同志的陪同下，先后到城中山、薛家洼等地实地参观，并详细询问了管理、运营情况。', '考察中，王希帮指出，此次考察学习既是一次拓宽视野的交流之行，也是一次取长补短的学习之旅。 我们回去后，要认真学习借鉴马鞍山市的先进经验和做法，立足淮南实际情况，认真思考，踏实履职，跳出思维定式，打破固有模式，从思想和行动上改变工作作风，凝聚起真抓实干、干事创业的共识，助推淮南经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>96</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>市政府副秘书长刘开东一行赴合肥考察学习文旅融合项目经验</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2022-06-29</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>https://wlj.huainan.gov.cn/xwzx/xwtt/551629697.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['市政府副秘书长刘开东一行赴合肥考察学习文旅融合项目经验_淮南市文化和旅游局（广播电视新闻出版局）', '6月25日，市政府副秘书长刘开东、市文旅局局长程昊一行到合肥考察学习农文旅融合项目经验，副区长吴玲娣、区人大教科文卫工委主任李金琳陪同。', '· 磨滩生态旅游度假区、沈福村文化创意产业基地，就淮河沿线文旅项目连片发展进行了探讨，表达了欢迎企业来淮投资兴业的愿望。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>96</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>淮南市农业农村局考察学习溧阳市高标准农田建设</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2022-06-21</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>https://nyncj.huainan.gov.cn/xwzx/zwxx/551628294.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['6月19日，淮南市农业农村局调研员邹玲带队前往江苏省溧阳市考察学习高标准农田项目建设。市局农田建设科全体同志及大通区农业农村局陈松局长、毛集实验区农发局李兆新副局长参加考察。', '调研组先后到南渡镇庆丰村、上兴镇东塘村和上兴镇庙巷村学习建设成效，并与溧阳市农业农村局深入交流。溧阳市农业农村局王局长介绍说，溧阳农田建设因地制宜建设生态护坡、生态拦截沟渠和生态调畜塘，构建农田灌溉退水净化处理和循环利用系统，每年建设一个生态农田，打造高标准农田建设新亮点，如今多个项目区已成为网红打卡地，带动了农旅，助力了乡村振兴。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>96</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>驻村工作队前往小甸镇杨圩村考察学习淘小甸电商服务站</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>https://kjj.huainan.gov.cn/xwzx/tpxw/551618777.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['驻村工作队前往小甸镇杨圩村考察学习“淘小甸”电商服务站_淮南市科学技术局（淮南市外国专家局）', '为进一步巩固脱贫攻坚成果，助力乡村振兴发展。4月19日下午，铁佛村驻村工作队陪同村两委干部一行前往小甸镇杨圩村“淘小甸”电商服务站实地考察学习。', '考察团在杨圩村书记张宇的带领下，首先参观了杨圩村“淘小甸”电商服务中心。一进门就是展示架上摆放的整整齐齐的特色农产品，有菜籽油、香米、糙米、虾田米、香油、土鸡蛋等，品种繁多。张宇告诉大家，平台先后与近700余农户签订了供销协议，帮他们代销各式农产品。目前淘小甸的电商销售平台主要有3个，微信小程序、邮乐购以及近期开通的拼多多店铺。通过扫二维码进入店铺，可以看到品类更加齐全的各色农产品，目前平台将分散在小甸各地的特色农产品统一整合到“淘小甸”名下，市场竞争力也有了明显的增强。在粮食加工车间，考察团见证了一粒粒稻谷如何变身优质大米，并最终包装成袋的加工过程。自动化的碾米设备操作简单，方便快捷，极大提高了稻米加工处理速度，也极大地提高了工作效率，很好地实现了大米的质量品控。', '随后，张宇书记与考察团就农村电子商务公共服务体系，以及整合快递物流体系建设等方面的经验和做法进行了深入探讨交流，并对铁佛村下一步发展电商业务提出了意见和建议。']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>96</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>宋立敏带队赴八公山区考察学习网格化管理服务工作</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>https://www.panji.gov.cn/pjzx/jrpj/11258932611.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['3月22日下午，市委常委、区委书记宋立敏带队到八公山区就基层社会治理工作开展考察调研，先后到八公山区毕家岗街道新建社区、八公山镇杨家地村、八公山镇网格化管理服务中心、八公山区网格化管理服务中心进行网格化管理服务工作考察学习并座谈，区委常委、政法委书记盛星陪同考察学习，部分乡镇（街道）、区相关部门负责同志参加。八公山区区委书记汤洁、区委政法委及相关单位负责同志全程陪同。', '在考察学习中认真听取了八公山区区、镇、村（社区）三级网格化管理服务中心工作开展情况的介绍，详细了解了八公山区的网格架构、网格员作用发挥、“e治理”系统录入使用等情况，重点对“e治理”指挥平台在事件处置、疫情防控等工作中如何发挥作用进行探讨交流。宋立敏肯定了八公山区推进网格化管理服务工作成效，要求参学同志学习先进、借鉴经验、务实推进。', '宋立敏强调：网格化管理服务是提升社会治理能力和治理水平的重要抓手。首先领导干部认识问题是重要因素。思想上是否能够真正的认识到位，决定了此项工作能推到什么程度。其二人员素质是推进工作的重要基础。一方面是指挥体系的人员素质，现在各级指挥人员都是专职人员在做此项工作，这部分人不仅需要高度的责任心，还要对基层的各项工作都要熟悉，只有这样才能保证指挥体系的高效运转；另一方面是专兼职网格员的素质，要加强专兼职网格员的考核培训，特别是业务能力培训，只有专业的业务能力素质做支撑，才能更好地分析、发现、解决问题。其三网格员队伍稳定是重要课题。在基层一线工作的网格员，特别是专职网格员，在工资待遇上还需考虑，同时还要多关心，防止出现工作了一段时间不干了，又重新招人、培训，再从头熟悉工作，大量浪费精力、物力的情况。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>96</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>上窑镇一行赴寿县保义镇考察学习乡村振兴工作</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2022-02-28</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>https://www.hndt.gov.cn/public/118323418/1259009931.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['2022年2月27日上午，上窑镇党委书记刘子健带队，镇长谢伟、镇乡村振兴分管领导，镇农业办、窑河村、马庙村、方楼村、马岗村、村庄规划设计单位、马岗美丽中心村建设施工和监理单位相关负责人一行20余人，前往寿县保义镇学习乡村振兴工作，特别是村庄规划、省级美丽中心村建设相关工作经验。', '考察学习组先后前往保义镇代郢中心村、老井中心村通过实地考察观摩、听取情况介绍、现场交流等方式问计取经，详细了解两村在村庄规划、中心村建设、村史馆建设、党建引领、人居环境整治等方面取得的成果，并与当地干部探讨交流乡村振兴工作中的做法经验。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>96</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>上窑镇一行赴寿县保义镇考察学习乡村振兴工作</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2022-02-27</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>https://www.hndt.gov.cn/xwzx/xzjd/8056628.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['2022年2月27日上午，上窑镇党委书记刘子健带队，镇长谢伟、镇乡村振兴分管领导，镇农业办、窑河村、马庙村、方楼村、马岗村、村庄规划设计单位、马岗美丽中心村建设施工和监理单位相关负责人一行20余人，前往寿县保义镇学习乡村振兴工作，特别是村庄规划、省级美丽中心村建设相关工作经验。 考察学习组先后前往保义镇代郢中心村、老井中心村通过实地考察观摩、听取情况介绍、现场交流等方式问计取经，详细了解两村在村庄规划、中心村建设、村史馆建设、党建引领、人居环境整治等方面取得的成果，并与当地干部探讨交流乡村振兴工作中的做法经验。', '考察学习组先后前往保义镇代郢中心村、老井中心村通过实地考察观摩、听取情况介绍、现场交流等方式问计取经，详细了解两村在村庄规划、中心村建设、村史馆建设、党建引领、人居环境整治等方面取得的成果，并与当地干部探讨交流乡村振兴工作中的做法经验。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>96</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>寿县商务局到田家庵区高新区考察学习农贸市场创城工作</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2021-12-09</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>https://swj.huainan.gov.cn/hnsw/551600083.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['为了进一步做好农贸市场文明创建工作，12月8日上午，寿县商务局前往田家庵、高新区考察学习农贸市场文明创建工作。考察组听取了两地市场基本情况的介绍，实地了解了两地市场摊位摆放、环境卫生、管理秩序等情况。此次考察学习为寿县借鉴两地市场文明创建成功经验和典型做法提供了良好示范。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>96</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>李景练率队赴周口合肥考察学习港口建设管理工作</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2021-12-09</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/zwzx/zwxx/8049035.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['12月7日至8日，县委常委、副县长李景练、县人大常委会副主任王延友率县政府办、县交通运输局、正阳关镇负责同志赴河南周口中心港、合肥国际港综合集装箱码头考察学习，并到省交勘院对接寿县港口码头及船舶制造产业园规划建设事宜。', '李景练指出，要抢抓机遇，积极作为，加快推进寿县港区规划建设。要加强港口相关政策和法律法规研究，结合寿县实际，制定切实可行的工作方案。要尽快组织召开港区建设推进组成员会议，加强沟通会商和相互联系，积极发挥港口建设推进组作用，争取在12月底厘清港口码头建设的投资主体、基本建设程序。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>96</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>工作推进县文旅局组织开展赴肥东县考察学习民宿产业发展</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2023-04-27</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/public/118322644/1259915927.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['【工作推进】县文旅局组织开展赴肥东县考察学习民宿产业发展_政务公开 _寿县人民政府', '为提高寿州古城游客接待能力，激发寿县民宿产业发展，4月25日，县文旅局组织县公安局、县市场监督管理局、寿春镇等有关单位以及寿州古城民宿业主代表赴肥东县考察学习民宿产业发展。考察组先后考察花田·侨乡里民宿、四顶山居民宿、红石咀露营地，重点参观学习畈塘民宿群，详细了解当地乡村民宿等文旅产业发展现状、经营理念及先进的管理经验，并就民宿经济发展规划、客户群体、特色项目、带动农户就业等情况与当地相关负责人及民宿业主进行深入探讨交流。通过此次考察，开阔了寿州古城民宿业主代表们的眼界，加深了有关单位对民宿产业发展的认识，对寿县民宿产业发展具有重要借鉴意义。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>96</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>县文旅局组织开展赴肥东县考察学习民宿产业发展</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2023-04-27</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/ztbd/ztzl/qltdszgccjgj5Ajlyjq/ccdt/8107424.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['为提高寿州古城游客接待能力，激发寿县民宿产业发展，4月25日，县文旅局组织县公安局、县市场监督管理局、寿春镇等有关单位以及寿州古城民宿业主代表赴肥东县考察学习民宿产业发展。考察组先后考察花田·侨乡里民宿、四顶山居民宿、红石咀露营地，重点参观学习畈塘民宿群，详细了解当地乡村民宿等文旅产业发展现状、经营理念及先进的管理经验，并就民宿经济发展规划、客户群体、特色项目、带动农户就业等情况与当地相关负责人及民宿业主进行深入探讨交流。通过此次考察，开阔了寿州古城民宿业主代表们的眼界，加深了有关单位对民宿产业发展的认识，对寿县民宿产业发展具有重要借鉴意义。']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>96</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>谢欣然副局长带队赴肥东县考察学习民宿产业发展</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/public/118322773/1259618084.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['为提高寿州古城游客接待能力，激发寿县民宿产业发展，4月25日，县文旅局组织县公安局、县市场监督管理局、寿春镇等有关单位以及寿州古城民宿业主代表赴肥东县考察学习民宿产业发展。', '考察组先后考察花田·侨乡里民宿、四顶山居民宿、红石咀露营地，重点参观学习畈塘民宿群，详细了解当地乡村民宿等文旅产业发展现状、经营理念及先进的管理经验，并就民宿经济发展规划、客户群体、特色项目、带动农户就业等情况与当地相关负责人及民宿业主进行深入探讨交流。', '通过此次考察，开阔了寿州古城民宿业主代表们的眼界，加深了有关单位对民宿产业发展的认识，对寿县民宿产业发展具有重要借鉴意义。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>96</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>秦红权率队赴重庆市住房公积金管理中心考察学习</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>https://gjj.huainan.gov.cn/xwdt/zxxw/551706209.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['为深入学习贯彻党的二十大精神，借鉴先进省市在利用住房公积金制度支持民营企业发展，帮助民营企业解决融资难、融资贵问题，以及灵活就业人员缴存使用管理和数字化建设等方面的先进经验，4月18日，中心党组书记、主任秦红权率考察组赴重庆市住房公积金管理中心考察学习。考察组一行与重庆市住房公积金管理中心副主任赵燕，政策法规处处长张化友，信息管理处工作人员及银行人员等进行了座谈交流。', '重庆市住房公积金管理中心赵燕副主任首先向考察组介绍了该中心开展定向授信贷款业务的相关背景以及目前业务运行情况。政策法规处处长张化友向考察组介绍了该项业务在开展过程遇到的一些问题，并就授信对象、数据安全、信息安全、资金流向等问题进行了经验讲解。随后赵燕副主任又详细介绍了重庆市灵活就业人员缴存使用管理、开展住房公积金贴息贷款、推行住房公积金贷款资产证券化、以及建设“智慧公积金”等方面的主要做法，分享了先进经验。张化友处长专门就灵活就业人员缴存办法、目前实施情况、贷款管理及风险应对措施进行了介绍。考察组认真听取并记录了重庆市住房公积金管理中心的工作创新思路与经验分享，同时双方围绕上述几个方面又进行了深入交流和热烈探讨。', '座谈中，秦红权主任也向重庆中心介绍了淮南中心的机构基本情况、业务发展、以及资金运行管理情况等。秦红权表示，重庆市住房公积金管理中心的经验做法，管理方面的精细化和先进思路，为淮南中心开展联合银行定向为民营企业开展授信贷款业务、数字化建设、提升灵活就业人员缴存使用管理等工作提供了宝贵的经验参考和借鉴。', '通过此次考察学习，大家进一步认识到在支持民营企业发展方面，充分利用住房公积金制度的信用评价机制，联合承办银行对建立住房公积金制度的民营企业和职工开展定向授信服务，是帮助民营企业解决融资难、融资贵问题，以及提升住房公积金制度吸引力与推进归集扩面工作的有效途径；在灵活就业人员缴存使用管理方面，探索创新相关缴存和使用制度，以支持和帮助灵活就业群体利用住房公积金解决租购住房，共享住房公积金制度红利为工作出发点，是灵活就业人员缴存使用管理工作的新思路；在数字化建设方面，加强建设“智慧公积金”，将有效提升住房公积金政务一体化水平和群众办事效率，结合目前数字化转型的工作指引精神，将加快推进住房公积金政务服务事项数字化、标准化、精细化转型，不断提升我中心的数字化服务水平。', '下一步，中心将结合我市自身情况，切实把考察成果转化运用到实际工作中，着力践行“惠民生、促安居”的服务宗旨，努力推进淮南市住房公积金事业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>96</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>市城管局赴无锡市上海市苏州市考察学习城市管理工作</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2023-04-17</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>https://cgj.huainan.gov.cn/xwzx/gzdt/551705503.html</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['4月12日至15日，市城管局党组书记、局长宫传敏带队，先后赴江苏省无锡市，上海市闵行区、宝山区，江苏省苏州市，考察学习城市管理工作，现场观摩、实地调研城市精细化管理、网格化治理、信息化建设、生活垃圾分类、建筑垃圾资源化利用等先进经验做法。局领导田士坤、朱涛、王筠，局机关相关科室负责人，局属各单位及7个县区城管局主要负责人参加。', '在无锡市，宫传敏一行实地考察了公共停车场、公共卫生间（爱心驿站）以及城市家具主题展示区，详细了解无锡市公共停车场规划建设管理、公共卫生间日常运行维护、智慧城市试点示范等情况，并召开座谈会，听取无锡市城管队伍建设、执法实效、智慧城管等相关工作情况介绍，就城市管理执法工作中常见问题和解决办法进行了深入的交流探讨。宫传敏表示，要学习借鉴无锡城管在公共停车场、公共卫生间、城市家具建设管理等方面的经验和做法，加快推进城市精细化管理，提升群众的获得感、幸福感和满意度。', '在上海闵行区，宫传敏一行参观了闵行区城管执法局指挥中心，观看了闵行城管“数治将至”宣传片、淮南城管“新时代新城管新作为”宣传片和《人民城管之歌》，围绕推进信息化建设、落实非现场执法、推进文明城市创建等工作，与闵行城管进行了深入座谈交流。宫传敏强调，要按照国家发改委《沪苏浙城市结对合作帮扶皖北城市实施方案》的部署要求，在闵行·淮南结对合作帮扶框架下，进一步加强城市管理领域对接合作，推动和促进闵行城管好理念、好经验、好做法在淮南落地生根，助力实现长三角更高质量一体化发展。', '在上海宝山区，宫传敏一行观看了宝山区城管局综合指挥、网上办案、网上勤务、网上督察、诉件处置等平台功能演示，与宝山同行深情回顾了长三角一体化城管执法协作机制建立以来各项工作进展情况。双方围绕深化城管执法体制改革、加强违法建设治理、强化智慧城管建设、持续推进结对共建等内容进行了深入交流。宫传敏强调，要利用好长三角一体化城管执法协作机制，学习借鉴宝山城管运用现代化、智能化、科学化手段，推进城市高质量发展、高品质生活、高效能治理的经验做法，推动淮南城管补短板、强弱项、扬优势，推进城市管理向精细化方面迈进。', '在苏州市，宫传敏一行考察观摩了东汇公园地下停车场、中海凤凰熙岸居民小区清洁屋、胥口镇垃圾压缩中转站，详细了解停车场建设管理、社区生活垃圾分类、大中型垃圾转运站建设运行等情况；随后，在苏州市城市管理局，听取了苏州市数字城管建设运行、城市管理考核评价、文明城市创建、生活垃圾分类等情况介绍。宫传敏要求，要深入学习借鉴苏州市数字城管平台运行体制机制，加快建设城市管理领域数据共享、指挥调度、考核评价、群众参与等体系，多措并举破解难点、疏通堵点、消除盲点、打造亮点，聚力推动我市城市管理信息化水平再上新台阶。', '考察学习期间，宫传敏一行除白天考察观摩、座谈交流外，还充分利用晚间时间，徒步考察城市夜间市容管理、夜市经济发展、生活垃圾分类和收运等情况，使得此次考察学习之行更加充实、更有收获。在上海、苏州期间，还参观了哈啰单车上海总部、常熟市建筑材料再生资源利用中心、嘉诺环境（苏州）科技园、吴江区光大环保产业园，详细了解相关产业技术、市场规模、产值税收、投资回报等情况，并积极开展招商引资等工作。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>96</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>淮南市人防指挥所管理处赴淮北蚌埠对口单位考察学习</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2023-03-14</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>https://gfdy.huainan.gov.cn/ztzl/jkqjxd/551666868.html</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['3月9日 、10日，淮南市人防指挥所管理处负责人宋强同志带领指挥处工作人员前往淮北市国动办信息保障中心及蚌埠市国动办重管处进行学习交流工作。', '考察过程中，淮北、蚌埠两地同行给予大力支持和帮助，介绍了典型经验和做法。下一步，淮南市人防指挥所管理处将以此次学习为契机，对标对表，拾缺补差，推动人防指挥所各项管理提质增效，再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>96</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>安庆市太湖县城管局一行来淮考察学习智慧泊车项目有关情况</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2023-04-15</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>https://zjj.huainan.gov.cn/cxjs/551705428.html</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['2023年4月10日下午，安庆市太湖县城管局局长周建东带队，太湖县建投公司、太湖县电信公司等一行9人来淮考察学习我市智慧泊车项目建设有关情况，市住建局、市公安局交警支队、市建发集团等单位陪同。', '考察组实地参观了洞山公园立体停车楼等新建公共停车场，来到智慧泊车公司监控大厅观看了智慧泊车项目宣传片。工作人员现场演示智慧泊车系统后，本着相互学习、相互促进的愿景，双方进行了经验交流座谈。', '会上，太湖县城管局介绍了太湖县停车供需现状和来淮考察学习的目的。我市参会部门分别介绍了便民停车行动进展情况，机动车泊位日常管理和违法违规行为专项整治有关情况，以及智慧泊车项目组织架构、平衡融资、智能管理、泊位建设等有关做法，并对考察组提出的有关问题进行了解答。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>96</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>市商务局驻陈湖村工作队赴宿州埇桥区考察学习乡村振兴工作</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2023-04-15</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>https://swj.huainan.gov.cn/hnsw/551707457.html</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['4月14日，市商务局驻陈湖村工作队和村两委参加了祁集镇组织的考察学习团，赴宿州埇桥区考察学习乡村振兴工作。考察团先后考察学习了埇桥国家级现代农业产业园和大营镇大营村、灰古镇付湖村等项目，从人居环境、美丽乡村、田园综合体、村居建设、产业发展等方面学习他们的先进经验、典型做法和发展模式，为祁集镇乡村振兴工作更好地助力赋能。通过实地考察，大家一致认为，此次参观学习，开拓了视野、增长了见识、找到了差距、理清了思路，回去后要把此次参观学习中看到的、学到的好方法、好经验运用到本村实际建设中去，努力做好本村的和美乡村建设。']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>96</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>淮南市生态环境保护综合行政执法支队赴亳州考察学习执法工作</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2021-10-15</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>https://sthjj.huainan.gov.cn/xwdt/sjdt/551590999.html</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['为引他山之石，助环保执法，10月14日，市生态环境保护综合行政执法支队一行14人赴亳州市考察学习环境行政执法工作。', '在见面会上，亳州市支队领导及科室负责人介绍了该市综合行政执法机构改革及队伍建设情况、行政执法和专项行动情况及信访工作开展情况。两支队现场进行了交流互动。见面会后，考察组人员根据各自工作性质与亳州支队进行了业务对接。考察组一行还实地察看了谯城区马元社区环境专项监督长制度落实情况，通过认真查阅工作资料、听取工作介绍等方式，详细了解环境专项监督长制度体系建设、队伍建设、运行管理和制度建设有关情况。', '考察结束后支队召开了点评会，与会人员分别谈了感悟和收获，支队主要负责同志作了小结，吴作谦表示,此次亳州之行受益匪浅，有很多值得我们学习借鉴的地方：一是敢于创新的观念值得推崇，二是敢于碰硬的精神值得效仿，三是乐于奉献的情怀值得钦佩，四是服务发展的格局值得借鉴，五是队伍建设的成果值得共享。他要求支队上下要将此次考察学习到的好经验和好做法进行总结梳理，进一步转观念、攻重点、求创新、强作风，正视差距、对标先进、奋力追赶，大干60天，以优良的成绩向市局党组交上一份合格的答卷。']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>96</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>凤台县组织人员赴歙县考察学习灾害风险普查工作</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2021-09-10</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>http://yjj.huainan.gov.cn/gzdt/gzdt/551586311.html</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['为做好我县第一次全国自然灾害综合风险普查工作。9月1-2日县应急局组织全县涉灾单位赴试点县黄山市歙县应急局开展风险普查工作学习,县应急']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>96</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>大通区赴寿县考察学习美丽乡村及农村改厕工作</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2021-08-05</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>https://www.hndt.gov.cn/ztlm/ncrjhjzz/8036584.html</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['8月4日下午，区委副书记杨亮，区委常委、区政府副区长孙涛带队带队赴寿县学习美丽乡村建设和农村改厕工作。区农水局、区乡村振兴局负责同志，各乡镇主要负责人和分管领导，2020年省级美丽乡村建设中心村马岗村、王楼村主要负责人和部分老党员参加了实地学习。', '考察学习组一行首先来到保义镇，实地参观考察代郢中心、老井中心村美丽乡村及农村改厕建设情况，听取保义镇美丽乡村工作经验介绍，并走进农户家中实地察看。', '考察学习组一边参观，一边询问经验做法，一边用手机拍摄记录，对寿县保义镇美丽乡村及农村改厕工作的扎实举措和显著成效表示高度赞扬，并表示将把寿县保义镇的先进经验和做法带回去，应用到今后的实际工作中，通过学习借鉴，不断完善措施，提升本区美丽乡村和农村改厕工作水平。']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>96</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>潘集区赴淮南师范学院百年教育馆考察学习纪念馆展陈布展工作</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2021-07-26</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>https://www.panji.gov.cn/pjzx/jcgz/8199860.html</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['近日，受淮南师范学院党史学习教育馆和百年教育馆负责人苏正礼邀请，潘集区新四军研究会、区退役军人事务局和区文旅体局联合赴淮南师范学院百年教育馆考察学习纪念馆展陈设计和布展工作。考察活动由潘集区新四军研究会会长蔡群带队，区退役军人事务局、区文旅体局相关人员参加考察。', '淮南本土收藏家苏正礼向蔡群一行介绍了500多件馆藏展品中涉及新四军在抗日战争时期、解放战争时期的图片、图书、信件等珍贵实物，讲解了新四军和游击队在原九龙岗、寿县、凤台等地作战的英勇事迹，并就纪念馆的展陈设计和布展、宣传讲解理念及新四军在潘集地区的历史研究等进行了交流。', '通过这次考察学习，为潘集区革命纪念馆的展陈设计和布展引进了很多先进经验和好的做法，为双方今后合作打下了基础。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>96</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>潘集区赴淮南师范学院百年教育馆考察学习纪念馆展陈布展工作</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>https://tyjrswj.huainan.gov.cn/xw/gzdt/551579154.html</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['7月21日，受淮南师范学院党史教育馆和百年教育馆负责人苏正礼邀请，潘集区新四军研究会、区退役军人事务局和区文旅体局联合赴淮南师范学院百年教育馆考察学习纪念馆展陈设计和布展工作。考察活动由潘集区新四军研究会会长蔡群带队，区退役军人事务局、区文旅体局相关人员参加考察。', '淮南本土收藏家苏正礼向蔡群一行介绍了500多件馆藏展品中涉及新四军在抗日战争时期、解放战争时期的图片、图书、信件等珍贵实物，讲解了新四军和游击队在原九龙岗、寿县、凤台等地作战的英勇事迹，并就纪念馆的展陈设计和布展、宣传讲解理念及新四军在潘集地区的历史研究等进行了交流。', '通过这次考察学习，为潘集区革命纪念馆的展陈设计和布展引进了很多先进经验和好的做法，为双方今后合作打下了基础。']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>96</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>市局会同市餐饮烹饪协会赴铜陵考察学习餐饮单位管理模式</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2021-07-08</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>https://scjgj.huainan.gov.cn/xwdt/sjdt/551577169.html</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['市局会同市餐饮烹饪协会赴铜陵考察学习餐饮单位4D 6T管理模式_淮南市市场监督管理局', '近日，为推进夏季食品安全专项整治深入开展，吸取兄弟市提升餐饮行业的食品安全质量管理水平先进经验，由市局党组成员杜文廷、四级调研员王涛带队，会同市餐饮烹饪协会赴铜陵市市场监管局和铜陵商会进行了交流学习。', '考察学习组一行现场参观了铜雀台宾馆、和谐盛世酒店的厨房，两酒店均采取了4D模式管理，整个后堂做到管理到位、责任到位、执行到位、培训到位，各种厨房用具进行色标明示、分区存放，原辅材料按条件进行冷冻冷藏，明卡摆放，卫生整洁明亮干燥，初步改变了以往后堂厨房油烟缭绕污水满地流的脏乱差形象，比较好地执行了《餐饮服务食品安全操作规范》的各项标准要求，对保障餐饮食品安全起到了积极的促进作用。经过多年努力，铜陵市局和铜陵商会采取自愿原则，联合下文召开会议共同在1000多家餐饮单位推行4D、6T先进管理模式，餐饮单位也逐步认识到先进管理模式给自己带来的益处，由过去的被动接受向主动申请转变，目前已有120家获得通过并受到表彰。两市还互相介绍了餐饮产业发展状况，就行业协会协助市场监管部门做好食品安全监管工作进行深入探讨。', '下一步，市局将结合我市餐饮行业实际，会同行业协会和各县区力量，群策群力，分阶段分步骤地稳妥推进4D、6T餐饮管理模式在我市落地生根。']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>96</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>市医保中心组织人员赴亳州考察学习智能审核</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2021-04-02</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>https://ybj.huainan.gov.cn/gzdt/ybzxxnhgzdt/551562088.html</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['为加快推进我市医保信息智能化审核工作进程，努力完善OCR（光学字符识别）智能审核系统，提升识别准确率，进一步保障全市参保人员待遇享受，市医保中心组织人员赴亳州市政务服务中心考察OCR智能审核系统的使用情况。', '本次考察工作主要围绕着亳州市OCR智能审核系统的流程设置、识别方式、对照匹配等方面，就淮南市当前OCR智能审核系统开发及试行过程中出现的问题进行研讨。我市系统研发人员积极同亳州同行进行交流，取得较好成效。同时将亳州方面在使用OCR智能审核系统过程中出现的技术性问题进行详细记录，避免同样类型的技术问题在我市再次出现，减少我市在推进OCR系统落地使用过程中出现“走歪路”的情况。亳州市当前开展OCR智能审核经验较为丰富，市医保中心工作人员也就当前在使用OCR智能审核系统过程中发现的问题进行积极探讨，通过双方的有效交流，市医保中心工作人员对于OCR智能审核系统产生更深层次的认识。', '本次赴亳州实地考察OCR智能审核系统的使用情况后，进一步加深我市工作人员对于OCR智能审核系统的了解，并有助于解决当前我市审核智能化试行工作中存在的问题，为全面推广医保智能化打下良好基础。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>96</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>淮南高新区到合肥蜀山区考察学习统计中介服务工作</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2021-04-14</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>https://gxq.huainan.gov.cn/yqdt/551563461.html</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['近日，淮南高新区党工委委员、管委会副主任翟明率高新区统计相关人员一行6人到合肥蜀山区考察学习统计中介服务工作。', '翟明一行首先参观了深圳维度数据科技股份有限公司在蜀山区的文化长廊、工作环境，了解该公司自主研发的数据智能管理平台、经济运行监测平台等大数据产品及行业解决方案。', '随后在座谈会上，考察组一行与蜀山区统计局就统计外包服务内容、企业统计规范化建设、统计核查等工作进行了深入交流，共同探讨工作中遇到的问题。双方表示，在今后的工作中加强互动交流，取长补短，相互借鉴好的工作方法和经验，共同推进统计工作不断发展。', '此次考察，既开阔了工作视界，又拓展了工作思路，为我区创新统计工作方式、提升统计工作能力、推动大数据在统计工作中的应用打下基础。（高新区统计局 桂起航）']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>96</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>市经信系统赴宣城市考察学习推动工业经济发展先进经验</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2021-06-21</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>http://jxj.huainan.gov.cn/ywzl/jjyx/551578163.html</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['6月18日，市经信局（国资委）党委书记程启涛率队赴宣城市考察学习推动工业经济发展先进经验，市经信局（国资委）党委委员、总经济师吴淮君、各县区（园区）经信主管部门负责人、市经信局相关科室负责人参加活动。', '考察团首先与宣城市经信局进行了座谈交流，双方就推动本地工业经济高质量发展、激发民营经济活力、强化企业精准帮扶等问题深入对接。', '随后，考察团深入宣城市经济技术开发区，就当地处置“僵尸企业”土地、盘活低效企业土地、节约集约用地的先进经验进行交流学习，并现场调研了闲置土地利用的典型项目案例。', '通过考察学习，考察团成员纷纷表示将正视发展差距，结合“高质量发展，我们怎么干”大讨论活动，对照标杆、学习先进，进一步强化经信系统的担当意识，改进工作方法和工作作风，破除制约我市工业经济发展的瓶颈问题，加快推进工业经济高质量转型发展。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>96</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>高新区三和镇赴大通区考察学习产业项目建设工作</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2021-03-10</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>https://gxq.huainan.gov.cn/zqfm/551558901.html</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['王毅一行实地考察了孔店乡河沿村大棚草莓产业基地、农业科技生态园等地，听取河沿村驻村工作队负责同志关于考察点的情况介绍，与考察点负责同志就项目建设、运行管理、产品销售等方面进行交流探讨。考察指出，河沿村大棚草莓产业基地项目成功带动有劳动能力的群众就业、创业的经验值得借鉴和推广。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>96</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>我局机关房管科赴滁州考察学习党政机关办公用房管理工作</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2021-04-06</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>https://jgswglj.huainan.gov.cn/gzdt/551562428.html</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['4月2日，局机关房管科和寿县县管处负责同志在局四级调研员肖枫带队下，前往滁州市机关事务管理处对口学习党政机关办公用房管理工作经验。座谈会上，滁州市管处就市直机关办公用房日常管理情况作了介绍，其中重点介绍了办公用房维修改造和信息化建设方面的做法，目前办公用房维修改造主要是在利用信息化管理的基础上，采取线上备案、线下审批、单位组织的模式进行规范。此后，双方就办公用房管理的各个环节进行了交流、探讨，交换了意见。', '滁州市管处在办公用房管理方面起步早、积淀深、经验多，特别是用信息化手段提高办公用房管理的精准度和工作效率，给考察组很大的触动与启发。下一步，我们将认真总结吸收滁州市管处的经验与做法，按照省管局的工作部署，立足我市党政机关办公用房管理现状，开拓工作思路，灵活工作方法，提高工作水平，推动办公用房管理的“一体两翼”工作向前迈进，扎实做好全市办公用房保障服务工作。', '滁州市管处在办公用房管理方面起步早、积淀深、经验多，特别是用信息化手段提高办公用房管理的精准度和工作效率，给考察组很大的触动与启发。下一步，我们将认真总结吸收滁州市管处的经验与做法，按照省管局的工作部署，立足我市党政机关办公用房管理现状，开拓工作思路，灵活工作方法，提高工作水平，推动办公用房管理的']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>96</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>潘集区赴上海考察学习纪念馆展陈布展及烈士陵园建设</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2020-12-30</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>https://www.panji.gov.cn/pjzx/jcgz/8184096.html</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['12月26至28日潘集区新四军研究会、区退役军人事务局和区文旅体局联合赴上海考察学习纪念馆展陈布展和烈士陵园建设工作，考察活动由市退役军人事务局党组成员、副局长余涛带队，市退役军人事务局优待抚恤科负责同志参加考察。', '考察活动是落实今年10月份省退役军人事务厅优抚褒扬处二级调研员李加兴来潘调研我区烈士纪念设施建设工作时的指示要求，并由李加兴调研员亲自协调。考察组一行首先实地参观了上海龙华烈士陵园墓区建设、纪念馆展陈布展情况，认真听取了上海龙华烈士陵园管理处的介绍。重点与龙华烈士纪念馆就纪念馆的展陈布展设计、党史研究内容、宣传讲解理念等进行了沟通交流。讲解员着重介绍了龙华馆在改陈工作上的创新之处，龙华纪念馆是全国首个动态雕塑多媒体展项、螺钿画和漆刻画、玻璃刻画等交项辉映，为的是让观众们能够有一场沉浸式的体验，更能让英雄精神深入人心。', '在馆中的动态雕塑剧场——《血染桃花红满天》更是采用了全息技术与现代舞、雕塑相结合的形式。剧情讲述的是24名坚贞不屈，挫败了国民党当局的各种威胁和诱降，保守了党的秘密，最终被国民党当局秘密杀害的烈士们。生动展现了“龙华千古仰高风，壮士身亡志未穷。墙外桃花墙里血，一般鲜艳一般红”的历史革命意义。', '通过这次的考察学习，为潘集区革命纪念馆的展陈布展引进了很多先进经验和好的做法，并就下一步做好潘集区烈士陵园建设的谋划筹备作了深刻的探讨，大家一致认为要高起点谋划、高标准建设，争取早日建成潘集区烈士陵园。发挥革命烈士纪念设施在培育和弘扬社会主义核心价值观中的重要作用，教育人民群众，让理想信念的火种、红色传统的基因薪火相传、血脉永续。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>96</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>凤台县公管局交易中心赴肥东县公共资源交易中心考察学习</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2020-09-02</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>https://ggj.huainan.gov.cn/gzdt/551541642.html</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['凤台县公管局、交易中心赴肥东县公共资源交易中心考察学习_淮南市公共资源交易监督管理局', '8月31日，凤台县公管局、交易中心赴肥东县公共资源交易中心和省公共资源交易集团考察学习。', '在肥东县公共资源交易中心、省公共资源交易集团的陪同下，考察组一行先后观摩了交易服务大厅、开标区、评标区和监控区，详细询问了全流程电子化交易、投标保证金电子保函系统的运行、优化营商环境等工作开展情况，重点对电子平台建设，制度建设、开展远程异地评标等进行深入探索交流。下一步凤台县公共资源交易中心将紧紧围绕中央、省、市扎实推进公共资源交易市场化改革各项要求，优化交易场所各项功能、强化交易监管队伍建设，在电子平台建设、标准化服务、电子保函运用等方面积极探索创新模式，全面提升我县公共资源交易监管与服务水平。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>96</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>马鞍山市政协来淮考察学习非法采砂公益诉讼工作</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2020-06-04</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>https://slj.huainan.gov.cn/xwdt/slyw/551525659.html</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['6月2日下午，马鞍山市政协副主席卓龙华、副秘书长胡志武及马鞍山市政协社法委、马鞍山市法院、市检察院等相关负责同志一行来淮考察学习非法采砂实施生态修复工程公益诉讼工作。市政协副主席陈永多及市政协社法委、市检察院、市水利局负责同志陪同。 考察组一行乘船沿淮河顺流而上实地查看了东部水源地保护区、汤渔湖缕堤刘余段护岸工程、潘集区涉案非法采砂船只集中停靠点等处。在防汛指挥艇上，考察组听取了我市非法采砂实施生态修复工程公益诉讼情况汇报，对我市非法采砂公益诉讼工作取得的成效给予了充分肯定，两市相互交流了非法采砂公益诉讼工作经验和成功作法。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>96</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>寿县教体局考察学习蜀山区名师工作室建设管理工作</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2020-05-06</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://sjtj.huainan.gov.cn/xwzx/qxxx/551521863.html</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['为有效推进全县乡村中小学首席教师计划试点，4月30日，县教体局分管领导带领局人事股、教研室负责人以及安丰高中名师工作室主持人一行，赴蜀山区教体局考察学习中小学名师工作室建设管理先进经验。蜀山区教体局副局长孙波主持召开“蜀山-寿县名师工作室建设交流会”，并简要介绍了蜀山区深入实施合肥市名师、名校长、名班主任暨“三名”工作室建设的实践与成效。', '交流会上，考察组一行认真听取了该区教研室主任李德山、语文教研员刘文芬就名师工作室建设管理和活动开展方面的报告；双方还就名师工作室工作考核激励和经费保障等方面进行了深入的交流。', '在蜀山区教体局领导陪同下，考察组一行先后实地参观考察了合肥市五十中学西校教育集团合作化路校区“胡志杰初中数学名师工作室”、蜀山区金湖小学“王士春小学科学名师工作室”。', '据悉，寿县于2019年5月入选教育部“中西部乡村中小学首席教师计划试点”单位，并于2020年4月10日代表安徽省在教育部召开的乡村中小学首席教师计划试点工作推进视频会上作交流发言。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>96</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>淮南市公管局局长黄涛一行考察学习长沙公共资源交易中心</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2020-08-31</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>https://ggj.huainan.gov.cn/gzdt/551535991.html</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['淮南市公管局局长黄涛一行考察学习长沙公共资源交易中心_淮南市公共资源交易监督管理局', '8月28日，淮南市公共资源交易监督管理局局长黄涛一行考察学习湖南省长沙公共资源交易中心。黄涛局长一行在长沙交易中心主任黄峰等陪同下，先后考察了交易服务大厅、开标区、评标区和监控区，详细询问了全流程电子化交易、利企便民、优化营商环境的等情况，对长沙同行在推行阳光交易、智慧服务、深化“放管服”， 优化营商环境 、运用“5G+区块链”开展远程异地评标创新、整合专家资源，降低围标串标风险，打造风清气正的招投标市场方面取得的成绩给予了赞扬。考察学习后黄涛局长表示，结合此次考察学习，下一步，我们将紧紧围绕国家扎实推进公共资源交易市场化改革各项要求，在电子平台建设、标准化服务、电子保函运用等方面积极探索，加快推进，为实现“交易电子化、服务标准化、监管智能化、队伍专业化”的“四化”目标，创新公共资源配置方式，打造全程留痕、公开透明的公共资源交易平台，打下坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>96</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>潘集区赴上海考察学习纪念馆展陈布展及烈士陵园建设</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>https://tyjrswj.huainan.gov.cn/xw/gzdt/551550813.html</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['12月26至28日潘集区新四军研究会、区退役军人事务局和区文旅体局联合赴上海考察学习纪念馆展陈布展和烈士陵园建设工作，考察活动由市退役军人事务局党组成员、副局长余涛带队，市退役军人事务局优待抚恤科负责同志参加考察。', '考察活动是落实今年10月份省退役军人事务厅相关处室工作要求。考察组一行首先实地参观了上海龙华烈士陵园墓区建设、纪念馆展陈布展情况，认真听取了上海龙华烈士陵园管理处的介绍。重点与龙华烈士纪念馆就纪念馆的展陈布展设计、党史研究内容、宣传讲解理念等进行了沟通交流。讲解员着重介绍了龙华馆在改陈工作上的创新之处，龙华纪念馆是全国首个动态雕塑多媒体展项、螺钿画和漆刻画、玻璃刻画等交项辉映，为的是让观众们能够有一场沉浸式的体验，更能让英雄精神深入人心。', '在馆中的动态雕塑剧场——《血染桃花红满天》更是采用了全息技术与现代舞、雕塑相结合的形式。剧情讲述的是24名坚贞不屈，挫败了国民党当局的各种威胁和诱降，保守了党的秘密，最终被国民党当局秘密杀害的烈士们。生动展现了“龙华千古仰高风，壮士身亡志未穷。墙外桃花墙里血，一般鲜艳一般红”的历史革命意义。', '通过这次的考察学习，为潘集区革命纪念馆的展陈布展引进了很多先进经验和好的做法，并就下一步做好潘集区烈士陵园建设的谋划筹备作了深刻的探讨，大家一致认为要高起点谋划、高标准建设，争取早日建成潘集区烈士陵园。发挥革命烈士纪念设施在培育和弘扬社会主义核心价值观中的重要作用，教育人民群众，让理想信念的火种、红色传统的基因薪火相传、血脉永续。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>96</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>县教体局考察学习蜀山区名师工作室建设管理工作</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2020-05-06</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/zwzx/bmdt/7996415.html</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['为有效推进全县乡村中小学首席教师计划试点，4月30日，县教体局分管领导带领局人事股、教研室负责人以及安丰高中名师工作室主持人一行，赴蜀山区教体局考察学习中小学名师工作室建设管理先进经验。蜀山区教体局副局长孙波主持召开“蜀山-寿县名师工作室建设交流会”，并简要介绍了蜀山区深入实施合肥市名师、名校长、名班主任暨“三名”工作室建设的实践与成效。', '交流会上，考察组一行认真听取了该区教研室主任李德山、语文教研员刘文芬就名师工作室建设管理和活动开展方面的报告；双方还就名师工作室工作考核激励和经费保障等方面进行了深入的交流。在蜀山区教体局领导陪同下，考察组一行先后实地参观考察了合肥市五十中学西校教育集团合作化路校区“胡志杰初中数学名师工作室”、蜀山区金湖小学“王士春小学科学名师工作室”。', '据悉，寿县于2019年5月入选教育部“中西部乡村中小学首席教师计划试点”单位，并于2020年4月10日代表安徽省在教育部召开的乡村中小学首席教师计划试点工作推进视频会上作交流发言。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>96</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>怀远县委县政府考察组到寿县考察学习物业管理工作</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2020-04-10</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/zwzx/zwxx/7994715.html</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['4月9日，怀远县委常委、副县长袁龙星率考察组到寿县就政府部门物业管理中如何解决物业服务日常动态监管、监管部门与物业公司联动机制、物业公司日常服务保障措施等工作开展考察学习调研。副县长陶三宝出席调研活动，县政府办主任王多好、县机关事务管理服务中心主任李明陪同。', '考察组一行先后在城投大厦、国投大厦等政府办公区域进行实地考察，每到一处考察组成员或进行询问，或拍照记录，或提出想法，县机关事务管理服务中心和物业管理公司负责对基本情况、管理措施、创新做法进行解释说明。现场考察活动结束后，召开了座谈会。', '会上，副县长陶三宝代表县委县政府对怀远县委县政府考察组的到来表示欢迎，县机关事务管理服务中心主任李明作寿县国投大厦、城投大厦物业管理工作情况专题汇报，详细介绍了我县政府部门物业管理工作中服务企业基本情况、国投及城投大厦基本情况、物业管理工作具体措施等。与会双方就物业管理机构设立、监管委员会成立、物业服务企业考核、日常服务保障制度、信访应急工作处置等各方面工作进行经验交流，同时对政府部门物业管理需求、物业管理工作中存在的困难、如何规范物业服务企业保障体系等问题交换了意见和看法。', '考察组认为寿县物业监管体制机制健全、管理措施扎实有力、联动机制规范到位、创新做法值得借鉴，对寿县国投大厦、城投大厦物业规范化管理给予高度评价。双方表示今后将进一步加强沟通交流，不断推进两地物业管理工作取得新成效。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>96</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>考察交流怀远县委县政府考察组赴我县考察学习物业管理工作</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2020-04-10</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/public/118322854/1258190833.html</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['【考察交流】怀远县委县政府考察组赴我县考察学习物业管理工作_政务公开 _寿县人民政府', '月9日，怀远县委常委、副县长袁龙星率考察组赴我县就政府部门物业管理中如何解决物业服务日常动态监管、监管部门与物业公司联动机制、物业公司日常服务保障措施等工作开展考察学习调研。副县长陶三宝参加调研活动，县政府办主任王多好、县机关事务管理服务中心主任李明陪同。', '考察组一行先后在我县城投大厦、国投大厦等政府办公区域进行实地考察，每到一处考察组成员或进行询问，或拍照记录，或提出想法，县机关事务管理服务中心和物业管理公司负责对基本情况、管理措施、创新做法进行解释说明。现场考察活动结束后，双方到国投职工食堂二楼会议室召开座谈会。', '会上，副县长陶三宝代表县委县政府对怀远县委县政府考察组一行的到来表示欢迎，县机关事务管理服务中心主任李明作寿县国投大厦、城投大厦物业管理工作情况专题汇报，详细介绍了我县政府部门物业管理工作中服务企业基本情况、国投及城投大厦基本情况、物业管理工作具体措施等。与会双方就物业管理机构设立、监管委员会成立、物业服务企业考核、日常服务保障制度、信访应急工作处置等各方面工作进行经验交流，同时对政府部门物业管理需求、物业管理工作中存在的困难、如何规范物业服务企业保障体系等问题交换了意见和看法。', '考察组认为我县物业监管体制机制健全、管理措施扎实有力、联动机制规范到位、创新做法值得借鉴，对我县国投大厦、城投大厦物业', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>96</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>宁国市融媒体中心到寿县考察学习高清直播车运行情况</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2020-04-02</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/public/118322746/1258184159.html</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['3月31日，宁国市融媒体中心党组成员、副主任王勇带队到寿县考察学习高清直播车运行情况，寿县融媒体中心对口接待并介绍了相关情况。', '在寿县融媒体中心高清直播车上，王勇详细了解直播车功能区划分、设备使用、直播流程等情况，并就如何选用直播设备及现场直播中好做法、好经验同工作人员进行了探讨交流。', '寿县融媒体直播车具有数字高清光纤、机动直播、4+2+1光纤微波讯道、4G无线传输、新媒体推送等优势，同时具有广播直播、融媒体高清电视直播等多种功能，是我县融媒体中心传播手段和传播形式的一次跨越升级，提升了融媒体中心服务全县经济社会发展的能力。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>96</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>市自然资源和规划局副局长张猛率队赴六安市学考察学习</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2019-08-14</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>https://zrzyj.huainan.gov.cn/xwzx/ywlb/136329715.html</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['为深入贯彻落实“为群众办好一件事”的宗旨，进一步深化地区间交流合作，8月13日，市自然资源和规划局副局长张猛带领市自然资源确权登记科、市不动产登记中心有关同志，赴六安市考察学习不动产登记相关业务。', '张猛一行实地考察了六安市不动产登记中心，在登记大厅参观学习了窗口设置、人员配置、运行机制等相关业务，双方就有关工作进行了讨论交流，表示以后要加强不动产登记领域交流合作，推广复制成功经验，努力提升群众办证获得感、幸福感。']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>96</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>区扶贫办赴寿县堰口镇考察学习精准扶贫精准脱贫工作</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2019-10-23</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>https://www.tja.gov.cn/grassroots/content/1258670694</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['区扶贫办赴寿县堰口镇考察学习精准扶贫精准脱贫工作_基层政务公开 _淮南市田家庵区人民政府', '为学习借鉴脱贫攻坚工作先进经验，积极探索精准扶贫新模式，10月19日，区扶贫办组织曹庵镇、史院乡扶贫办等单位20余人赴寿县堰口镇实地参观学习精准扶贫精准脱贫工作。', '当天，在寿县扶贫办和堰口镇主要负责同志的陪同下，学习组一行先后来到堰口镇政府会议室交流学习精准扶贫、精准脱贫的相关经验，并对扶贫工作的开展、项目建设、党建促脱贫、压实帮扶责任人责任、扶贫宣传、提升群众满意度等方面的经验进行深入、细致地交流与探讨。随后，学习组一行来到堰口镇魏岗村，通过实地观摩、翻阅档案资料等形式，对村级的精准扶贫档案的收集、完善、整理、归档等工作进行详细了解，同时寿县扶贫办负责人就精准扶贫档案的先进经验、工作方法心得向参观学习人员进行了详细介绍。最后，学习组一行来到堰口镇扶贫办实地参观乡镇精准扶贫档案的管理工作，双方对巡视整改反馈问题、各类大排查等台账的整理完善进行交流，并对如何进一步抓好档案管理、促进脱贫摘帽进行了深入探讨。', '考察结束后，大家纷纷表示，通过参观学习，在比较中看到了不足，学到了经验，同时也增强了做好精致扶贫工作的信心。下一步，田家庵区将结合实际，充分消化吸收寿县精准扶贫、精准脱贫工作中的好经验、好做法，全力推动田家庵区精准扶贫工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>96</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>马鞍山市交通运输局来淮考察学习优先发展城市公交工作</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>https://jtj.huainan.gov.cn/jtdt/jtxw/128485483.html</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['7月11日下午，马鞍山市交通运输局宋金成副局长一行来淮考察学习优先发展城市公交等工作，双方举行座谈会，进行了深入、细致交流。市交通运输局党组成员、副局长朱勇、市交通战备办主任朱正龙，市财政局、市运管处、市公交公司等单位负责人及局机关相关科室负责人参加了会议。', '会上，客人们首先听取了我市公交发展基本情况、优先发展公交相关政策及成本规制实施情况等方面情况介绍。双方就优先发展城市公共交通政策的落实、公交企业成本规制、财政补贴政策及有关公交发展相关政策等方面进行了充分的沟通交流。双方表示，今后淮马两地交通主管部门和公交企业将进一步加强沟通和对接、合作，为两市的交通事业发展积极做出贡献。']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>96</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>区数据资源管理局赴蚌埠考察学习政务服务工作</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2019-05-20</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>https://www.bagongshan.gov.cn/zhxx/bmdt/7977450.html</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['为进一步对标先进地区找差距、学真经、补短板，提升我区政务服务管理工作水平，5月16日，区数据资源管理局、新庄孜街道赴蚌埠市埠山区、龙子湖区、禹会区数据资源管理局考察学习。', '政务服务大厅及下辖街道、社区的便民服务大厅，现场观摩政务服务大厅布局、“一网、一门、一次”改革综合窗口设置及政务服务平台建设，并同政务服务管理']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>96</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>寿县卫计委赴利辛县考察学习创建三级医院工作</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2019-03-20</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>https://wjw.huainan.gov.cn/xwzx/jcdt/112865961.html</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['近日，寿县卫计委党组成员、副主任李忠平率县医院相关负责人一行赴利辛县人民医院考察学习三级医院创建工作。', '李忠平一行在利辛县人民医院业务院长李传杰的陪同下，考察了利辛县人民医院整体布局，听取院负责人创建三级医院工作汇报，随行考察学习人员主动下沉相关科室，向科室业务人员虚心请教创建工作相关问题，相互交流了创建工作经验和方法。李忠平表示，目前县医院离创建三级医院要求还有一定差距，此次考察学习不仅开拓了视野，促进了双方业务交流，回去以后将先进经验做法运用到创建工作中，确保创建三级医院工作圆满成功。（吴刚）']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>96</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>区数据资源管理局赴合肥考察学习政务服务工作</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2019-05-10</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>https://www.bagongshan.gov.cn/zhxx/bmdt/7977381.html</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['为学习合肥在政务服务工作方面的成功经验，推进我区新建政务服务大厅建设，优化政务服务大厅功能。5月8日，区数据资源管理局全体人员赴合肥市包河区、庐阳区、瑶海区政务服务大厅考察学习。', '为学习合肥在政务服务工作方面的成功经验，推进我区新建政务服务大厅建设，优化政务服务大厅功能。', '该局在考察中详细了解政务服务大厅入驻单位的窗口设置、事项办理、办事流程等情况，听取了包河区政务服务大厅窗口建设、网上政务服务平台建设等情况的介绍，并同政务服务管理局相关同志就“一网、一门、一次”、政务服务标准化建设、“放管服”改革、政务服务大厅管理等工作进行深入交流探讨。', '该局在考察中详细了解政务服务大厅入驻单位的窗口设置、事项办理、办事流程等情况，听取了包河区政务服务大厅窗口建设、网上政务服务平台建设等情况的介绍，并同政务服务管理局相关同志就', '通过考察学习，进一步开阔了视野，拓宽了思路，坚定了做好政务服务工作的信心和决心。下一步，该局将立足我区实际，借鉴先进经验，不断提升政务服务管理水平。']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>96</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>李朝晖副市长带队赴北京市西城区考察学习社区治理工作</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2019-03-19</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>https://mzj.huainan.gov.cn/xwzx/gzdt/112523353.html</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['近日，市政府副市长李朝晖带队赴北京市西城区考察学习“街道吹哨、部门报到”党建引领下的基层社区治理工作。市委组织部副部长郑田宏、市民政局局长汤洁、市民政局副局长袁先进及县区组织、民政部门负责同志参加学习。', '3月14日，组织、民政两部门实地考察西城区天桥街道东经路服务站、大栅栏街道杨梅竹斜街，并召开座谈会议。重点考察学习了一个服务站服务多个居委会的“多居一站”试点工作及北京坊、杨梅竹斜街街区治理成果。', '3月15日，李朝晖副市长一行赴北京市西城区展览路街道万明园社区，实地考察街道吹哨部门报到工作及“展览路社区通”集政务服务、社会治理于一体的“一站式”掌上服务云平台建设情况。', '深入居民小区，赴西城三里河一区社区养老服务驿站，调研首批中央国家机关养老服务改革试点建设的驿站——西城三里河一区社区养老服务驿站运营情况。', '通过学习交流，进一步了解了北京市西城区社区治理工作先进经验，为下一步我市社区治理创新、智慧社区试点等工作开展提供了良好借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>96</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>区管委副主任王正选率队到寿县考察学习平台公司转型发展</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2019-02-25</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>https://www.maoji.gov.cn/zxzx/bmdt/7809117.html</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['区管委副主任王正选率队到寿县考察学习平台公司转型发展_淮南市毛集社会发展综合实验区管理委员会', '为加快区城投公司转型，提升国企运作资本管理能力，2月22日，区管委副主任王正选率区城投公司负责人到寿县考察学习平台公司转型发展。', '在寿县国有资产投资运营（集团）有限公司会议室，寿县国投负责人向王正选介绍了该（集团）公司的成立背景、产业经营、项目建设、运作模式等方面的成功经验和做法，并就投融资、项目运作、资产管理、政策支持、转型发展思路方法方式等内容进行探讨和交流。', '王正选副主任感谢寿县国投传经送宝，通过介绍了解和交流，让我们开阔了视野，拓宽了思路，找准了差距，学到了经验。要求区城投公司积极学习借鉴寿县国投在资本运作管理、创新融资模式、实体经济发展、棚改保障房项目建设、扶贫领域开发等好经验、好做法，以后的工作中多加强沟通交流，共享工作方法；要进一步打开转型思路、直面问题不足、加快改革转型发展步伐，为毛集实验区经济社会发展作出更大成绩。']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>96</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>高新投资集团与高新区管委会有关部门赴寿县考察学习</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2018-11-26</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>https://gxq.huainan.gov.cn/yqdt/98281548.html</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['根据高新区管委会工作部署，2018年11月20日，高新投资集团与建设发展局、国土分局、三和镇等相关部门，赴寿县房地产管理局考察学习。考察组深入了解寿县安置房项目情况及闲置房源处置方法，认真学习有关经验和做法，探索高新区安置房资产管理模式，切实做好闲置房源处置，有效盘活国有资产。（高新投资集团 蔡岩）']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>96</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>湖南省祁阳县政协来凤考察学习河长制推进工作</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2018-11-13</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/xwzx/ftyw/7904618.html</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['11月13日，湖南省祁阳县政协副主席黄爱蓉率队来我县考察河长制工作推进情况。县政协副主席李纯海，县水利局负责同志等陪同。', '“河长制”工作启动以来，我县高度重视，严格按照省、市有关要求，紧紧围绕总体目标，精心谋划、认真实施，各项工作持续深入开展，取得了阶段性成效，为实现“河更畅、水更清、岸更绿、景更美”的目标打下了坚实基础。 祁阳县考察组一行先后实地考察了朱马店镇永幸村永幸河岸线管护、利民村河岸环境整治及河长制助推乡村建设成果、联民村“五老”河长试点工作开展情况，听取了相关情况介绍，并就如何发展推行河长制等工作进行了深入交流。 通过实地考察、听取介绍，祁阳县考察组表示，凤台县河长制工作有许多值得学习的地方，希望两地今后在河长制、河岸综合治理等工作上进一步加强联系、深入交流、互相学习，共同推进两地河长制工作有序开展。', '祁阳县考察组一行先后实地考察了朱马店镇永幸村永幸河岸线管护、利民村河岸环境整治及河长制助推乡村建设成果、联民村“五老”河长试点工作开展情况，听取了相关情况介绍，并就如何发展推行河长制等工作进行了深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>96</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>县政协副主席李振锋带队赴亳州市谯城区考察学习增减挂钩工作</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2019-02-18</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/public/118322956/257034846.html</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['县政协副主席李振锋带队赴亳州市谯城区考察学习增减挂钩工作_政务公开 _凤台县人民政府', '为稳妥推进城乡建设用地增减挂钩工作，2月14日，县政协副主席、县国土局局长李振锋带队赴亳州市谯城区学习考察土地增减挂钩先进经验。', '在谯城区，考察学习组一行听取了谯城区城乡建设用地增减挂钩开展的情况。2018年，谯城区在区委政府领导下，国土部门、乡镇村干部充分发扬千言万语、千遍万遍、千方百计、千辛万苦的“四千精神”，包片乡镇干部吃住在项目区，解决拆迁户各种困难。通过不懈努力，仅2018年，谯城区就完成增减挂钩15000余亩。考察组成员纷纷表示谯城区的经验做法值得我们学习和借鉴，双方还对增减挂钩工作中存在的问题难点进行了交流座谈。', '座谈会后，考察组又实地考察了古井镇后老家中心村增减挂钩项目。详细查看了增减挂钩项目建设实施情况和土地复垦、集中安置等情况。', '在考察学习中，李振锋强调增减挂钩工作是优化土地利用结构和空间布局的重要举措，将有效解决农村房屋和村庄建设用地“散、乱、空”问题，调整优化城乡建设用地布局。李振锋要求，通过这次考察学习，要深化认识，要进一步统一思想，在县委县政府的领导下想方设法、克难攻坚实施增减挂钩项目，确保完成2800亩增减挂钩任务。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>96</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>高新区赴潘集考察学习生态园产业扶贫建设工作</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2018-07-04</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>https://gxq.huainan.gov.cn/yqdt/71654348.html</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['侯淮斌一行实地考察了城北村酥瓜草莓扶贫产业园、架河镇武庙生态园产业扶贫基地等地，听取了有关负责同志关于考察点的情况介绍，与考察点负责同志就园区建设、运行管理、产业扶贫等方面进行交流探讨。考察指出，架河镇武庙生态园产业扶贫基地成功带动村镇贫困户实现就业、创业的经验值得借鉴和推广。（三和镇 徐伦）']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>96</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>凤台县农广校组织新型职业农民外出实训考察学习</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2018-09-08</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/public/118323043/257454207.html</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['学员们先后到颍上县王岗镇金唐庆丰种植专业合作社、美唐湖罗氏兄弟芦笋生产种植基地、全国基层农机推广补助项目稻鸭萍共育试验示范基地、淮罗村公园、尤家花园等地进行了观摩和现场教学。每到一处，学员都认真听取基地技术人员和颍上县农广校负责人对关键技术的讲解，学员们初步了解了芦笋栽培管理及稻鸭共育生产技术、现代农业立体栽培技术和农业全程实现机械化作业技术，大家一边聚精会神地听着讲解，一边时而提出问题，参观学习气氛隆重而热烈。', '通过参观考察学习，学员们开阔了眼界，增长了见识，开阔了视野，学到了先进的种植理念，改变了自身的思维，了解了农业行业发展的现状及未来的发展趋势，切实感到了自身在产业发展中存在的差距，进一步明确了发展目标，为自身的产业发展奠定了基础，培训达到预期效果。鲍继龙', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>96</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>市民政局副局长秦红权带队到合肥蜀山烈士陵园考察学习</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2017-11-06</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>https://mzj.huainan.gov.cn/xwzx/gzdt/41943012.html</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['10月27日下午，根据市民政局“全面学合肥、对标提效能”活动方案安排，市民政局副局长秦红权带队到合肥蜀山烈士陵园进行考察学习。', '合肥蜀山烈士陵园占地约18万平方米，是安徽省规模最大的烈士陵园，被国务院批准为“中国重点烈士纪念建筑物保护单位”，并先后被国家民政部和安徽省人民政府列为中国、安徽省爱国主义教育基地。现由“安徽革命烈士事迹陈列馆”、“大蜀山革命公墓”、“悼念广场”、“烈士纪念碑”等部分组成。安徽革命烈士纪念馆建筑面积2642平方米，陈列着全省有代表性的从第一、第二次国内革命战争时期至社会主义建设时期的190位烈士的光辉业绩。陈列馆存有450幅图画及烈士手抄、名人字画、领导题词等，还有全省各地的烈士英名录。', '合肥市民政局优抚处处长李海松及蜀山烈士陵园的负责人对蜀山烈士陵园对发展历程、发展规划、工作亮点一一作了经验介绍。考察中，双方还就烈士资料收集应用、纪念设施建设、纪念活动组织、园林绿化建设、社会主义核心价值观的培树等工作进行了深入交流。针对我市烈士陵园在建设发展方面需要请教的问题，秦局长指出，一定要抓住“全面学合肥、对标提效能”活动的契机，以合肥蜀山烈士陵园为建设标杆，切实提高我市烈士纪念设施尤其是要做好市烈士陵园的建设、管理、保护工作，借鉴合肥经验实施纪念设施建设及场馆优化布置；学习加强清明节、公祭日烈士纪念活动的组织；如何借助园林绿化工作打造亮点，营造庄重氛围；如何通过烈士陵园这一重要爱国主义基地来培树和弘扬社会主义核心价值观等问题。']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>96</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>湖南省祁阳县政协来凤考察学习河长制推进工作</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2018-11-13</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/public/118323013/257390116.html</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['日，湖南省祁阳县政协副主席黄爱蓉率队来我县考察河长制工作推进情况。县政协副主席李纯海，县水利局局长 等陪同。', '工作启动以来，我县高度重视，严格按照省、市有关要求，紧紧围绕总体目标，精心谋划、认真实施，各项工作持续深入开展，取得了阶段性成效，为实现', '祁阳县考察组一行先后实地考察了朱马店镇永幸村永幸河岸线管护、利民村河岸环境整治及河长制助推乡村建设成果、联民村“五老”河长试点工作开展情况，听取了相关情况介绍，并就如何发展推行河长制等工作进行了深入交流。', '通过实地考察、听取介绍，祁阳县考察组表示，凤台县河长制工作有许多值得学习的地方，希望两地今后在河长制、河岸综合治理等工作上进一步加强联系、深入交流、互相学习，共同推进两地河长制工作有序开展。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>96</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>寿县政务服务中心赴阜阳市考察学习建设项目容缺预审</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2018-05-22</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/zwzx/bmdt/7834695.html</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['近日，寿县政务服务中心组织县住建局、县国土局相关业务负责人一行5人赴阜阳市政务服务中心考察学习建设项目容缺预审业务流程和工作成效。 考察组一行实地参观了阜阳市民中心办事大厅，整体了解大厅建筑规模、楼层布局、窗口进驻和日常管理运行情况。在不动产“一窗受理”、工商注册登记全程电子化、国地税联合办税服务、基本建设审批等窗口前，考察组细心听取各窗口首席代表工作情况介绍，详细询问了创新举措的具体实施方法、步骤和业务流程，并对口进行业务交流。 座谈会上，阜阳市政务服务中心介绍了建设项目容缺预审改革、业务流程优化、工作机制推进等容缺预审工作开展的经验和做法，解答了考察组对推行容缺预审中的疑惑和顾虑，交换了深入推进容缺预审工作意见。同时，双方就政务服务中心的日常管理、并联审批制度改革、“互联网+政务服务”平台建设等工作进行了交流探讨。']</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A179" t="n">
+        <v>96</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>淮南市民政局赴合肥市肥东县考察学习地名管理工作</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2017-10-25</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>https://mzj.huainan.gov.cn/xwzx/gzdt/41559490.html</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>['10月25日，淮南市民政局副调研员余静江带领市法规和区划地名科科长凤良春以及寿县民政局分管领导和股室负责人等一行五人，到合肥市肥东县考察学习地名管理工作。', '考察组听取了合肥市及肥东县地名管理工作的先进经验、做法介绍，翻阅了地名管理档案。通过此次实地考察学习，为淮南市进一步做好地名管理工作，全面提升地名管理工作水平打下了基础。']</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A180" t="n">
+        <v>96</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>潘集区市场监管局赴肥西县市场监督管理局对标考察学习</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2017-10-18</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>https://www.panji.gov.cn/public/118323298/255784816.html</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>['潘集区市场监管局赴肥西县市场监督管理局对标考察学习_政务公开 _淮南市潘集区人民政府', '按照区“全面学肥西、对标提效能”活动安排，10月13日，潘集区市场局李宏韬副局长、姚登友副局长、陈宏宇副局长率潘集区北城、古沟、祁集、市场监督管理所所长刘甲利、程晋功、苏西刚，赴肥西县市场监督管理局开展对标考察学习。', '肥西县市场监督管理局局长解宾启，副局长丁增雨、周鹏，法规科科长武红日，稽查大队队长孔德金，法规科科长武红日，质检科科长蒋南带队欢迎并组织召开座谈会。解宾启介绍了肥西县市场局近年以来市场监管工作开展情况，重点就业务对口部门工作特色进行了介绍。潘集区市场局副局长李宏韬简要介绍了我局工作情况，要求我局对口部门积极学习肥西县局的成功经验和典型做法，结合我局局实际，查找自身不足，取长补短，努力推动各项工作提质增效。会上，我局就质量强区、食品药品监管及案件办理、双随机一公开情况进行了分别交流；肥西县市场局对口部门分别作出详细解答，并针对其案件卷宗进行讨论学习。座谈会后，肥西县市场局带领我局一行实地考察了三河市场监督管理所，对其服务大厅、食品检验室、档案室等场所进行观摩。肥西县市场局整体业务工作、效能建设和基层所标准化建设给我局一行留下了深刻印象。', '考察学习活动结束后，区市场局李宏韬副局长提出明确要求，一要建立常态化对口联系。要加强与肥西县市场局对口部门间的沟通交流，取长补短，汲取肥西县市场局先进经验，推动我区市场监管工作不断发展进步。二要建立目标任务清单。要结合此次考察学习，查找自身不足，明确赶超重点，建立赶超任务清单，确保学习目标明确、台账健全。三要加强对标信息报送。紧密联系对照肥西县市场局好的做法，进行深入思考，并不断收集各部门对标情况，及时总结上报对标学习取得的成效。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A181" t="n">
+        <v>96</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>朱传喜书记赴合肥开展全面学合肥对标提效能考察学习</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>https://wjw.huainan.gov.cn/xwzx/gzdt/40858654.html</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>['10月16日，市卫生计生委党委书记朱传喜率部分科室负责人到合肥市卫生计生委，开展对标学习考察。受合肥市卫生计生委党委书记、主任秦继平委托，副主任张申平等人给予热情接待。张主任简要介绍了合肥市卫生计生工作总体情况，重点介绍了综合医改推进、医联体建设、计划生育协会组织架构等方面的经验做法。', '就近期省政府办公厅下发的医保管理体制改革试点工作指导意见，双方进行了深入交流。朱传喜表示，合肥市卫生计生很多亮点与经验值得学习，听了介绍深受启发。尤其是合肥市作为此轮我省新医改体制改革三个试点城市之一，承担着全省深化医改先锋队的光荣任务。淮南市卫生计生委将密切关注试点动态，积极借鉴先行经验，早谋划、早启动淮南市医保管理体制改革，以推动淮南市医保管理进一步完善。', '双方认为，“全面学合肥、对标提效能”活动搭建了一个很好的交流平台，今后两单位将建立更为紧密的联络机制，取长补短，携手并进。(办公室）']</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A182" t="n">
+        <v>96</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>淮南市财政局赴合肥考察学习财务集中管理平台建设情况</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>2017-10-26</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>https://cz.huainan.gov.cn/gzdt/41305287.html</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>['根据淮南市财政局市直预算单位财务集中管理平台建设工作安排。10月26日，市财政局总会计师黄仕兴率平台建设考察组赴合肥市财政局考察学习，与合肥市财政局进行了交流座谈。合肥市财政局总会计师王成双及国库支付中心、信息中心负责同志参加了座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A183" t="n">
+        <v>96</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>委扶贫工作队组织焦岗村村支两委成员赴李郢孜镇考察学习</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>2017-07-26</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>https://jxj.huainan.gov.cn/djzl/djgz/27752526.html</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>['7月21日下午，市经信委扶贫工作队第一书记、队长黄明率焦岗湖镇焦岗村村支“两委”成员赴谢家集区李郢孜镇考察学习“向垃圾宣战 建美丽家园”农村环境集中整治工作和农村基层党组织建设有关经验做法，李郢孜镇党委、政府有关人员陪同。', '在李郢镇三楼会议室，考察组一行听取了该镇先进经验介绍，认真查阅了镇级基层党组织建设和“三清两化”资料台账。', '在北梨园村，考察组一行深入该村上尹组、刘上岗组和陈郢组，观摩学习“三清两化”具体做法；在范圩村，考察组成员认真查看了该村基层党标准化建设相关资料台账，并就基层党组织党员活动开展情况向该村书记现场取经。', '活动结束，市经信委扶贫工作队和焦岗村村支“两委”成员均表示此次参观学习深受启发、收获颇丰，下一步将以此活动为契机，进一步凝心聚力、砥砺品质，做好焦岗村各项工作。']</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A184" t="n">
+        <v>96</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
           <t>陶店回族乡到安丰塘镇考察学习教育均衡发展工作</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>2017-07-28</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/zwzx/xzcz/7880411.html</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>['7月27日，陶店回族乡组织中小学校长、学区负责人到安丰塘镇考察学习义务教育均衡发展工作。 考察团一行听取了安丰塘镇在迎接省级义务教育均衡发展评估验收中具体做法和经验介绍。分别深入安丰塘镇中、小学，通过听取介绍、实地参观、询问交流等方式，全面细致了解考察学校的基础设施、功能室建设、实验仪器使用、学校管理、校园文化建设、档案管理和教育教学工作等情况， 尤其是对学校的发展理念、特色打造、校园内涵建设、迎检经验进行了详细交流。']</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A185" t="n">
+        <v>96</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
           <t>寿县农口单位到蜀山区开展全面学合肥对标提效能考察学习活动</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>2017-09-12</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>https://nyncj.huainan.gov.cn/xwzx/bmgz/38346508.html</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>['在对标单位蜀山区农林水务局，考察组认真听取该区农业农村工作情况介绍，结合寿县农口单位对标提效、争先进位目标任务，座谈学习蜀山区效能建设成功经验和特色工作思路，虚心听取蜀山区对结对帮扶工作的意见建议。', '考察组认为，蜀山区农林水务局先进工作理念，扎实工作作风，高效工作效率，为寿县进一步做好农业农村工作树立了标杆，提供了学习借鉴的宝贵经验，为寿县农口单位扎实开展作风建设，提升工作效能，争创一流工作业绩找到了打开突破口的“金钥匙”。']</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A186" t="n">
+        <v>96</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
           <t>寿县赴阜南县和界首市考察学习县域医共体建设工作</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>2017-08-17</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>https://wjw.huainan.gov.cn/xwzx/gzdt/32701750.html</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>['8月15日至16日，市政协副主席、市卫计委主任方严带队组织寿县和凤台县考察团赴阜阳市阜南县和界首市考察学习县域医共体建设工作。寿县考察团由副县长李琼、县政府办副主任湛有莉、县卫计委主任涂满祖以及县医改办、县财政局、县人社局、县医院、县中医院和安丰镇中心卫生院相关负责同志组成。', '考察团一行先后深入阜南县柴集镇贾茶棚村卫生室、柴集镇中心卫生院、阜南县人民医院以及界首市陶庙镇孙小集村卫生室和界首市人民医院现场观摩了医共体运行流程和远程会诊系统，并就工作的具体细节进行详细交流。在随后召开的座谈会上，阜南县和界首市分别介绍了本地区内部绩效分配改革和医防融合等工作开展情况。', '方严表示，阜南县和界首市在医共体建设方面勇于创新，在绩效分配改革和医防融合上创造了许多可复制、可推广的经验做法，值得我们学习和借鉴。李琼要求寿县考察团要认真总结两地的先进做法，不断完善医共体运行机制，进一步推进县域医共体工作。（寿县卫计委 洪璐璐）']</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A187" t="n">
+        <v>96</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
           <t>四川省渠县工商质监局来淮南考察学习双随机一公开监管工作</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>https://scjgj.huainan.gov.cn/ztgz/sszdgg/115658079.html</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>['四川省渠县工商质监局来淮南考察学习“双随机、一公开”监管工作_淮南市市场监督管理局', '7月18日，四川省达州市渠县工商质监局副局长刘元均等一行四人来淮南考察学习“双随机、一公开”监管工作。市工商局党组书记、局长王中，市场主体信用监管局、企业监管科、法规科等相关部门负责人参加此次工作交流会。', '市工商局向远道而来的客人详细介绍了淮南市推行“双随机、一公开”和联合惩戒工作的具体作法、工作成效以及取得的工作经验。考察组一行现场查阅了淮南市推行“双随机、一公开”和联合惩戒工作涉及到的工作机制建设、“一单两库一细则”建设、随机抽查开展情况、宣传培训情况、联合惩戒等相关工作资料，并与市工商局相关同志进行了热烈探讨和交流。', '考察组一行认为淮南市“双随机、一公开”和联合惩戒工作起步早，工作具有前瞻性，工作方法切实可行，工作成效显著，特别是“八个创新”值得学习借鉴，并对淮南市工商局的热情接待表示感谢。']</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A188" t="n">
+        <v>96</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
           <t>县公管局赴马鞍山市考察学习公共资源交易体制改革</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>2017-07-17</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/zwzx/bmdt/7833096.html</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>['为全面加快我县公共资源交易体制改革步伐，7月14日，县公管局局长江洪率团赴马鞍山市公管局、和县公管局考察学习公共资源交易体制改革工作。 活动中，考察组参观了马鞍山市及和县公共资源交易平台并进行座谈交流。马鞍山市局指出，寿县的公共资源交易体制机制与马鞍山原有运行体制机制有着相同或相似的地方，两地开展改革交流有助于促进公共资源交易事业的发展，需要在国家宏观政策的指引下，结合本地区的实际情况，着力把握好、解决好、处理好改革的重点、难点和热点问题，通过改革释放活力，带动创新，促进发展。座谈中，三地还围绕全流程电子化交易、标后履约监管、投诉举报处理、队伍建设、工程变更管理等方面的经验做法进行了交流。']</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A189" t="n">
+        <v>96</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>寿县公管局赴马鞍山市考察学习公共资源交易体制改革</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>2017-07-17</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>https://ggj.huainan.gov.cn/gzdt/551541612.html</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>['为全面加快寿县公共资源交易体制改革步伐，7月14日，寿县公管局江洪局长率团赴马鞍山市公管局、和县公管局考察学习公共资源交易体制改革工作。', '活动中，考察组参观了马鞍山市及和县公共资源交易平台并进行座谈交流。马鞍山市局指出，寿县的公共资源交易体制机制与马鞍山原有运行体制机制有着相同或相似的地方，两地开展改革交流有助于促进公共资源交易事业的发展，需要在国家宏观政策的指引下，结合本地区的实际情况，着力把握好、解决好、处理好改革的的重点、难点和热点问题，通过改革释放活力，带动创新，促进发展。座谈中，三地还围绕全流程电子化交易、标后履约监管、投诉举报处理、队伍建设、工程变更管理等方面的经验做法进行了交流。', '江洪局长对于马鞍山及和县同行先行先试的开拓精神表示钦佩，对其改革发展成果表示赞赏，这些成功的探索为寿县公共资源交易体制改革提供了较好的价值参考，希望三地进一步加强互通交流、共同提高。']</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A190" t="n">
+        <v>96</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
           <t>寿县人大常委会赴凤台县考察学习代表活动室建设工作</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>2017-06-07</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/zwzx/zwxx/7799600.html</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>['6月6日，县人大常委会主任陶良慧、副主任王延友一行，到凤台县学习考察代表活动室建设工作。实地参观了桂集镇人大代表活动室和殷岗社区人大工作站，查看了硬件建设和软件资料，凤台县人大常委会主任李勇、副主任马洪林陪同考察。 李勇介绍了该县代表活动室建设情况，交流了开展人大工作的做法和体会。凤台县近年来重视加强代表活动室的规范化建设，指导乡镇建成17个代表活动室，乡镇分片规划建设46个代表工作站。代表活动场所实现六有：有场地、有制度、有计划、有专栏、有记录、有资料，并上墙公布，结合实际开展了一些富有成效的代表活动。陶良慧一行对凤台县的代表活动室建设工作给予高度评价，认为硬件过硬，软件齐全，活动经常，痕迹明显，颇具特色，值得学习。']</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A191" t="n">
+        <v>96</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
           <t>高新区赴寿县考察学习房屋征收安置及补偿工作</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>2017-05-19</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>https://gxq.huainan.gov.cn/yqdt/19320379.html</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>['2017年5月18日下午，高新区领导徐权带队赴寿县考察学习房屋征收安置及补偿工作，财政局、建设发展局、审计分局、土地储备中心有关人员参加。', '座谈会上，双方就房屋征收安置及补偿工作进行了深入交流，寿县有关部门介绍了集体土地上房屋征收安置补偿相关文件及政策，并以寿县化肥厂家属区工矿棚户区改造项目为例，详细讲述了寿县在国有土地上房屋征收货币化安置及补偿方面的工作方法与成功经验。（土地储备中心 张启芳）']</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A192" t="n">
+        <v>96</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
           <t>区农林水利局组织新型职业农民培训班外出考察学习</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>2017-05-16</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>https://www.bagongshan.gov.cn/zhxx/ztzl/msgc/8127523.html</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>['5月13-14日，区农林水利局组织2017年民生工程新型职业农民培训班学员一行50人，赴山东临沂兰陵县进行考察学习。兰陵县国家级农业公园建设规模1万亩，是山东省唯一被命名为国家农业公园、规模最大的生态农业庄园。园区将传统农业与现代农业相结合，同时融入人文历史、农耕文明，生动展示了兰陵作为“中国蔬菜之乡”的美丽画卷。', '学员们先后参观考察了5个大型智能温室和数十个冬暖式大棚，每到一处，大家都饶有兴致的听取当地生产示范基地建设情况介绍，详细了解种植品种、产量产值、经营模式、栽培管理技术、病虫害防控等主题内容及其先进经验。在微滴灌溉示范区，学员们认真记录，踊跃提问，并针对生产实践中遇到的困难和问题与当地专家进行交流探讨。在大棚种植技术交流服务中心，大家兴致勃勃地观察、了解黄瓜、辣椒、茄子等蔬菜种植新技术，切身感受到了现代农业发展的前沿性和标杆性，为带动农民增收带来的良好示范作用。', '通过两天的参观考察，学员们纷纷表示，这次外出学习取经，开阔了视野，增长了知识，获益匪浅，看到了地区农业发展的差距，增加了紧迫感和责任感。回去后，要将把所见所闻所得跟村民们分享、宣传，取长补短，积极为带动周边群众科学种植，增产增收。']</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A193" t="n">
+        <v>96</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
           <t>八公山区组织新型职业农民培训班外出考察学习</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>2017-05-15</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>https://www.bagongshan.gov.cn/public/118323439/257311938.html</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>['5月13-14日，八公山区农林水利局组织2017年民生工程新型职业农民培训班学员一行50人，赴山东临沂兰陵县进行考察学习。兰陵县国家级农业公园建设规模1万亩，是山东省唯一被命名为国家农业公园、规模最大的生态农业庄园。园区将传统农业与现代农业相结合，同时融入人文历史、农耕文明，生动展示了兰陵作为“中国蔬菜之乡”的美丽画卷。', '学员们先后参观考察了5个大型智能温室和数十个冬暖式大棚，每到一处，大家都饶有兴致的听取当地生产示范基地建设情况介绍，详细了解种植品种、产量产值、经营模式、栽培管理技术、病虫害防控等主题内容及其先进经验。在微滴灌溉示范区，学员们认真记录，踊跃提问，并针对生产实践中遇到的困难和问题与当地专家进行交流探讨。在大棚种植技术交流服务中心，大家兴致勃勃地观察、了解黄瓜、辣椒、茄子等蔬菜种植新技术，切身感受到了现代农业发展的前沿性和标杆性，为带动农民增收带来的良好示范作用。', '通过两天的参观考察，学员们纷纷表示，这次外出学习取经，开阔了视野，增长了知识，获益匪浅，看到了地区农业发展的差距，增加了紧迫感和责任感。回去后，要将把所见所闻所得跟村民们分享、宣传，取长补短，积极为带动周边群众科学种植，增产增收。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A194" t="n">
+        <v>96</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
           <t>寿县政协赴芜湖考察学习推进农村体育事业发展工作</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>2017-05-25</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/zwzx/zwxx/7799547.html</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>['5月23至24日，寿县政协副主席徐晓军带领县政协专委办、县体育局等相关负责人赴芜湖市芜湖县、繁昌县考察学习“推进农村体育事业发展”工作。 在芜期间，寿县政协调研组通过看现场、听介绍等方式，仔细学习了芜湖、繁昌两县在“推进农村体育事业发展”工作中的做法经验，并就履行公共体育服务职责、完善农村体育基础设施、加大农村体育资金投入、加强培训农村体育人才、开展国民体质监测等方面同对方进行了深入、坦诚的交流。']</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A195" t="n">
+        <v>96</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
           <t>庐江四中赴我区考察学习义务教育均衡发展创建工作</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>2016-04-14</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>https://www.bagongshan.gov.cn/public/118322662/257302150.html</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>['庐江四中赴我区考察学习义务教育均衡发展创建工作_政务公开 _淮南市八公山区人民政府网', '为促进义务教育均衡发展创建工作，近日，庐江第四中学一行数人莅临八区一中，共同学习交流创建工作经验。', '考察组参观了校园环境，观摩了实验室、阅览室、计算机室、音体美室等各项功能教室和校园文化建设等，听取了八区一中关于义务教育均衡发展创建工作的经验介绍与做法。考察组对八区一中在教育教学管理、学校硬件建设、功能教室、校园文化等方面的创建工作给予较高评价，认为八区一中在标准化学校建设、精细化管理、教师队伍建设及课程开设与管理、学生行为习惯养成教育等方面，特别是在接受国家义务教育均衡发展示范县（区）迎检验收上的有效措施和典型做法值得借鉴学习，为庐江四中的创建工作开拓了视野，开阔了思路，提供了值得参考借鉴的经验与做法。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A196" t="n">
+        <v>96</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
           <t>寿县春季巩固拓展脱贫攻坚成果同乡村振兴有效衔接培训班组织学员赴长丰县考察学习</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/ztbd/ztzl/dhsdgjz/tpgjian/8133866.html</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>['寿县春季巩固拓展脱贫攻坚成果同乡村振兴有效衔接培训班组织学员赴长丰县考察学习_寿县人民政府', '3月12日，2024年寿县春季巩固拓展脱贫攻坚成果同乡村振兴有效衔接培训班组织学员赴长丰县考察学习。', '广大学员先后到长丰县义井镇红桥村、杨庙镇马鄞社区等地，听取当地工作经验介绍，参观村办企业，了解村集体经济发展壮大过程等。重点了解当地巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作的经验做法，并与当地有关人员交流。学员们表示，此次外出学习考察，既是一次业务提升、开拓眼界的机会，也更加增强了大家做好巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作的信心和决心，将把此次所学所得所悟运用到实际工作中，为助力寿县乡村振兴工作做出新贡献。']</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A197" t="n">
+        <v>96</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
           <t>田家庵区赴合肥淮北考察学习城市街道社区党建工作</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>2014-11-18</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>https://www.tja.gov.cn/public/118323169/256111425.html</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>['田家庵区赴合肥、淮北考察学习城市街道社区党建工作_政务公开 _淮南市田家庵区人民政府', '为学习借鉴先进经验，加快田家庵区城市街道社区党建工作，11月5日-6日，由区委常委、组织部长岳葆春率队，组织部分街道社区党组织书记一行20人前往合肥市蜀山区、淮北市相山区考察学习城市街道社区党建工作的先进经验，重点学习了区域性大党建、在职党员进社区服务群众活动、创建服务型社区党组织、社区一站式服务大厅建设、党员志愿者活动工作站、“党建质量认证体系”工作等好经验、好做法。实地查看了合肥市丁香社区、家家景园社区、青阳路社区，淮北市供电社区、纺织小区、锦华苑社区等6个不同类型小区的社区党建工作，考察了合肥（蜀山）国际电子商务产业园建设和产业党建联盟情况。', '合肥市蜀山区实施了大社区治理模式，通过社区共治，居委自治，购买服务，费随事转，实现政府职能转变，社会管理流程再造。按照“精街道、强社区、促服务、提效能”的原则，进一步整合街道内设机构，精简人员，老城区和城市拓展区的街道实现人力、资源、财力向社居委下沉，在城市社区增设“社会工作服务站”，推行“两委分设两站”，网格岗位分工，购买社工服务的管理模式，实现“两个强化”，强化社区服务，强化居民自治，以此培育社会组织，完善服务体系。', '淮北市相山区积极创新工作思路，开展“七彩相山”特色党建品牌创建活动，围绕“整体规划、重点突破、典型引路、全面推进”的工作思路，以建设文明和谐新社区为主题，以创新区域化党建工作机制、组织形式、活动方式和工作方法为切入点，以创先争优为抓手，以创建“金牌社区”为载体，从区域化的视角对基层党建工作进行统筹谋划，扎实推进区域化党建工作深入开展，初步形成组织全覆盖、工作区域化、活动开放式、管理服务型的新局面。', '每到一处，考察团成员都认真听取当地的工作经验，做好笔记，并与工作人员展开交流，进行了深入地座谈与交流。下一步，我区将全面规范和加强社区党的建设，通过落实“三有一化”来构建社区党建工作的新格局，不断提升社区党建科学化，进一步推动党建品牌创建向纵深开展，逐年推进，使得我区党建工作更趋成熟，服务群众、凝聚人心、促进社区发展。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A198" t="n">
+        <v>96</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
           <t>谢家集区教体局赴八公山区考察学习义务教育优质均衡发展工作经验</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>2024-04-01</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>https://www.xiejiaji.gov.cn/xwzx/bmdt/11259007826.html</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>['谢家集区教体局赴八公山区考察学习义务教育优质均衡发展工作经验_淮南市谢家集区人民政府', '，谢家集区教体局组织部分学校校长和督学赴八公山区考察学习义务教育优质均衡发展工作经验。八公山区教体局督导室主任周连仁陪同。', '此次考察学习，开阔了大家的视野，拓宽了创建思路，提振了创建信心。谢家集区教体局将认真总结八公山区义务教育优质均衡创建的经验做法，结合谢区实际，凝聚共识，积极作为，针对义务教育优质均衡发展存在的问题，补短板、强弱项，全力以赴做好义务教育优质均衡发展督导评估迎检工作。']</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A199" t="n">
+        <v>96</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
           <t>毛集实验区应急管理局一行赴宣城市泾县云岭镇考察学习基层应急管理运行模式</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>https://yjj.huainan.gov.cn/gzdt/xqkx/551728067.html</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>['毛集实验区应急管理局一行赴宣城市泾县云岭镇考察学习基层应急管理运行模式_淮南市应急管理局', '近日，为切实做好我区基层应急管理工作，不断提高基层应急管理人员专业素质，毛集实验区应急管理局负责同志带领三镇、景区、开发区应急办主任一行前往宣城市泾县云岭镇考察学习，云岭镇应急管理分管领导及应急办主任陪同。', '并在云岭镇召开了座谈会，会上，云岭镇应急管理分管领导就云岭镇应急管理机构管理模式及2023年工作开展情况进行介绍。双方对如何更好开展基层应急管理工作进行了深入探讨交流。会后，考察组一行现场考察了部分企业，参观了云岭镇新四军军部旧址纪念馆，瞻仰革命先烈事迹，增强应急管理工作者为民服务的思想意识。', '通过此次考察学习，为毛集实验区基层应急管理工作积累了经验，创新了发展动力，推动新管理模式加快构建，为毛集经济社会高质量发展营造更为坚实的安全环境。']</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A200" t="n">
+        <v>96</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
           <t>毛集实验区应急管理局一行赴宣城市泾县云岭镇考察学习基层应急管理运行模式</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>https://www.maoji.gov.cn/public/118322671/1259853225.html</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>['毛集实验区应急管理局一行赴宣城市泾县云岭镇考察学习基层应急管理运行模式_政务公开 _淮南市毛集社会发展综合实验区管理委员会', '2023年工作开展情况进行介绍。双方对如何更好开展基层应急管理工作进行了深入探讨交流。会后，考察组一行现场考察了部分企业，参观了云岭镇新四军军部旧址纪念馆，瞻仰革命先烈事迹，增强应急管理工作者为民服务的思想意识。', '创新了发展动力，推动新管理模式加快构建，为毛集经济社会高质量发展营造更为坚实的安全环境。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A201" t="n">
+        <v>96</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
           <t>市城管局赴山东省淄博市日照市青岛市潍坊市考察学习城市管理工作</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>https://cgj.huainan.gov.cn/xwzx/gzdt/551728201.html</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>['市城管局赴山东省淄博市日照市青岛市潍坊市考察学习城市管理工作_淮南市城市管理行政执法局', '9月20日至23日，市城管局党组书记、局长宫传敏带队，先后赴山东省淄博市、日照市、青岛市、潍坊市，考察学习城市管理工作，通过现场观摩、座谈交流、阅览资料等方式，实地调研摊点夜市管理、外立面及户外广告治理、城市家具整治、城市管理进社区、智慧城管建设运行、城市管理监督考核、生活垃圾分类等先进经验做法，开辟“政策共研、特色共鉴、问题共析、资源共享”互动交流渠道，为推动城市管理高质量发展注入新活力、新动能。局领导朱涛，局机关相关科室负责人，市城管督察大队、市环卫处及10个县区城管局（大队）主要负责人参加。', '在淄博，宫传敏一行首先参观主城区视觉一体化运维中心，集中观看了城市更新项目全景展示；随后实地观摩明清街沿街视觉一体化提升示范工程，感受规划设计引领带来的城市治理美观感、精致感；徒步水晶街调研夜间经济街区建设和秩序管理，了解烧烤店面“小炉”技术改进降低油烟污染的创新举措；最后走进齐盛湖公园，了解卫生保洁机制队伍、经费融资渠道等情况。在与淄博市城管局座谈交流期间，宫传敏一行听取了城市更新一体化提升、露天烧烤分类化治理、特色夜市街区明晰化管理等工作亮点介绍，重点关注了解“淄博烧烤”的“出圈”背景历程、管理标准、制度配套，围绕“淄博烧烤”摊点规范设置管理，实现市容、环保、民生、经济等多赢效应，进行了深入探讨交流。宫传敏指出，淄博城市更新规划先行，城市功能布局提升美观实用，要学习系统观念，树立“规划科学是最大的效益”意识，推动规划、建设、治理有机统一，持续提升城市品质，增强群众幸福感；“淄博烧烤”疏堵结合、以疏为先的“出圈密码”，与我们正在开展的深化“一改两为”打造“为民城管”行动理念相通、路径一致，要大力推进“四大”便民行动特别是各类摊点“安家”行动，促进“烟火气”与“城市美”融合共生，让执法有力度更有温度；淄博城市管理考核科学性强、覆盖面广、运行效果好，要借鉴其考核方式内容，结合实际完善我市城市管理考核标准体系，创新监督考核方式，延伸监督考核层级，健全监督考核评定机制，力求更具针对性、可操作性，进一步发挥好考核“指挥棒”“助推器”作用。淄博市城管局党组书记、局长窦修刚、三级调研员孟繁华及相关科室负责人参加调研考察、座谈交流活动。', '在日照，宫传敏一行来到日照街道凌云社区，听讲解、看资料，深入了解城市管理进社区体制机制运行和取得的成效；在文登路步行街，实地考察沿街商铺信用监管、“门前五包”责任制信息化管理、摊点引导入市进店等创新举措；在壹号学府小区、翰林府邸小区，现场观摩垃圾分类宣教中心、生活垃圾定时定点投放站、智能垃圾分类亭等建设使用，了解垃圾分类宣传动员方式、收集处置渠道、值守督导制度、设施投入机制等情况；在日照市城市综合管理指挥中心，集中观看科技赋能城市治理的流程演示。之后，两地市城管局就城市管理进社区、城管执法体制改革、生活垃圾“三端”体系建设、城市管理监督考核运用等重难点问题，开展座谈交流，互学互鉴。宫传敏强调，日照“城市管理进社区”先行先试，探索出城市管理与社会治理融合发展的新路径，要借鉴其联动一体全覆盖的机制模式，稳步推进城市管理重心下移、关口前移，坚持推行“开门办城管”，更好的实现服务群众“零距离”；日照生活垃圾分类基础扎实、方法创新，要共享招商项目信息，引进专业优势企业，推进垃圾分拣、收运处置等重点突破，加快健全垃圾分类全链条体系，进一步提升垃圾减量化、资源化、无害化处置效率；日照城市管理体系较为完善、制度保障效力强，要借鉴其顶层设计理念，以科技赋能为载体，以“门前五包”为基础，以信用监管为抓手，问需于民、优化设计、落实责任、强化考核，进一步提升城市科学化、精细化、智能化管理水平。日照市城管局党组书记、局长臧新宇、副局长刘海波及相关科室负责人参加调研考察、座谈交流活动。', '在青岛，宫传敏一行来到市南区中山路历史城区，参观老街更新改造效果，了解市场化管理运作情况，感受建筑设施承载的文化底蕴与现代美学的交融；在金都花园小区，实地观摩垃圾分类集中投放点、垃圾分类宣教中心，听取物业工作人员关于垃圾分类党建引领、机制建立、居民参与、设施覆盖等情况介绍，不时询问细节；在青岛市城市运行管理服务平台，观看智能化城市治理运行演示，了解青岛市城管局在推动信息技术与城市管理深度融合的创新做法。宫传敏指出，青岛中山路老旧街区改造，留住了历史记忆，提升了城市“颜值”，要结合淮南历史文化名街（古城）改造、城市更新行动，探索门头招牌个性化设计，实现整体性协调，体现地域文化特色，提升城市品味，促进商业繁荣；全国城市生活垃圾分类工作现场会在青岛举办，形成了一批可学可鉴的成果，要立足淮南优势，坚持党建引领、试点先行、因地制宜、全民参与，统筹推进垃圾分类抓点、连线、扩面，压实街道、社区、物业主体责任，补齐设施短板，严格督导评估，强化执法保障，抓实抓细垃圾分类“关键小事”“民生大事”；青岛市城市运管服平台机制成熟、科技领先，要聚焦需求，量身定制，精心打磨我市智慧城管“五个网上”系统，科学开发智能应用和便民服务新场景，完善动态感知、智能预警、快速处置、精准监管、实时监测运行体系，打造科技赋能城市治理全省新标杆。青岛市城管局党组书记、局长孙震，党组成员、副局长王博彤及相关科室负责人参加调研考察、座谈交流活动。', '在潍坊，宫传敏一行来到奎文区梨园街道，首先观看《城市管理进社区 三进三联筑民心》专题片，实地观摩街道办公区，了解城市管理进社区组织体系、机制流程、职责范围，翻阅工作台账，与相关负责同志就推进网格化管理、解决群众诉求等方面询问交流。随后，来到潍新区综合行政执法大队西关中队，观摩宣传展板、执法公示栏，翻阅台账资料，了解执法中队规范化、制度化建设，“党建红”引领“城管蓝”品牌打造等情况。沿途中，观瞻感受潍坊以城市家具美化为切口，为电力通讯箱柜等“换新衣”，带动城市环境提升效果。在潍坊市城市管理行政执法支队会议室，宫传敏一行集中观看《城管先锋 砥砺前行》宣传片，围绕城市管理进社区、生活垃圾分类、城管执法体制改革等工作进行交流探讨。宫传敏强调，潍坊市城管局采取“六个一”方式，推进城市管理进社区，打造了新样板，要结合第二批主题教育活动开展，启动“城管进社区、服务面对面”活动，推进宣传、管理、执法、服务一体，集中解决“急难愁盼”问题；潍坊城市家具整修美化“小投入”带来“大变样”，要以我市争创全国文明城市为契机，开展城市家具整治月行动，督促产权单位统一设计，对电力通讯箱柜等设施进行功能补缺、外观美化，打造城市靓丽的风景线；中队建设是队伍建设的基石，要以巩固深化执法队伍“强转树”行动为抓手，坚持党建引领，深入推进政治立队、改革兴队、素质强队、文化育队，全面打造人民满意城管品牌，着力建设一支政治坚定、作风优良、纪律严明、廉洁务实的新时代城市管理执法队伍，永葆奋发有为、昂扬向上的精神状态，为完成新使命、迎接新挑战提供坚强保证。潍坊市城管局二级调研员台炳友，市城管执法支队党总支书记、支队长李霄柏及相关科室负责人参加调研考察、座谈交流活动。', '学习考察期间，以淮南市城市管理工作亮点为切入点，大力宣传推介淮南。在淄博市城管局、日照市城管局、潍坊市城管局等单位，送发了淮南市城市管理宣传画册和自主创造的《人民城管之歌》等材料，特别是我市城管执法队伍“强转树”行动三次受到住建部表彰，获得对方的高度评价。每到一处，宫传敏一行与街道、社区、物业工作者、部门负责人、一线执法人员等交流交谈，确保学深学透，取到“真经”。', '此次考察学习内容丰富充实、行程严密紧凑，在返程的当天，又顺路参观考察再生资源回收项目场区及前端回收驿站，听取企业负责人关于垃圾收集网点体系搭建、大件垃圾分拣处置、产业发展收益等情况介绍，就邀请企业到淮南考察达成初步意向，在拉动社会投资，积极破解资金难题、工作难题上想办法、找对策，提升招商引资靶向性。', '考察人员一致表示，此次学习考察，通过“看、听、问、学、思”，开阔了视野、拓宽了思路，找准了差距、明确了方向，特别是针对一些难点问题，找到了通用“答案”，“解渴”又实用，同时更坚定了信心、激发了干劲。特别是在生活垃圾分类、城市管理进社区考察调研中，每到一处，街道、社区工作人员全面介绍，对城市管理工作“如数家珍”，积极主动性强，真正体现了属地管理主体责任的压实，让考察人员感触很深。下一步将围绕我市城市管理工作重点要点，在活学活用、真学真用上下功夫，推动考察成果在我市城市管理领域落地见效，奋力开创比学赶超、争先进位新局面，为建设现代化美好淮南积极贡献城管力量。']</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A202" t="n">
+        <v>96</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
           <t>毛集实验区应急管理局一行赴宣城市泾县云岭镇考察学习基层应急管理运行模式</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>2023-09-21</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>https://www.maoji.gov.cn/zxzx/bmdt/8114220.html</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>['毛集实验区应急管理局一行赴宣城市泾县云岭镇考察学习基层应急管理运行模式_淮南市毛集社会发展综合实验区管理委员会', '近日，为切实做好我区基层应急管理工作，不断提高基层应急管理人员专业素质，毛集实验区应急管理局负责同志带领三镇、景区、开发区应急办主任一行前往宣城市泾县云岭镇考察学习，云岭镇应急管理分管领导及应急办主任陪同。', '并在云岭镇召开了座谈会，会上，云岭镇应急管理分管领导就云岭镇应急管理机构管理模式及2023年工作开展情况进行介绍。双方对如何更好开展基层应急管理工作进行了深入探讨交流。会后，考察组一行现场考察了部分企业，参观了云岭镇新四军军部旧址纪念馆，瞻仰革命先烈事迹，增强应急管理工作者为民服务的思想意识。', '通过此次考察学习，为毛集实验区基层应急管理工作积累了经验，创新了发展动力，推动新管理模式加快构建，为毛集经济社会高质量发展营造更为坚实的安全环境。']</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A203" t="n">
+        <v>96</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
           <t>淮南市市场监管局党组成员副局长陈海峰带队赴宿州考察学习药品安全监管工作</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>2023-07-10</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>https://scjgj.huainan.gov.cn/ztgz/spaqggtsxd/551731124.html</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>['淮南市市场监管局党组成员、副局长陈海峰带队赴宿州考察学习药品安全监管工作_淮南市市场监督管理局', '为落实市局党组工作要求，学习兄弟地市药品安全监管工作理念思路、经验做法，提高我局药品安全监管业务能力和工作水平，7月6日，市市场监管局党组成员、副局长陈海峰率队赴宿州就药品安全监管工作开展学习考察。', '在与宿州市市场监管局座谈交流过程中，考察学习组认真听取了宿州市局在开展提升药品监管能力、推动医药产业发展等方面工作的情况介绍，了解宿州市局在药品安全考核工作中的具体做法和实际成效。双方围绕药械化监管目标任务、组织架构、日常监管、稽查办案、抽检工作、药品检验检测、技术保障等方面工作及药品安全监管面临的新形势、新挑战展开深入探讨、交流，并考察了宿州市食品药品检验检测中心中药标本馆。', '此次考察学习，有效开拓了视野、汲取了经验，淮南市局将进一步加强与兄弟单位沟通交流，借鉴先进地市药品监管经验和做法，拉高标杆、对标一流、主动作为、迎难而上，努力推进我市药品安全监管工作迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A204" t="n">
+        <v>96</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
           <t>淮南市供销社党组书记理事会主任顾云光一行到黄山供销集团考察学习田园徽州运营模式</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>2022-06-14</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>https://gxs.huainan.gov.cn/xwzx/gzdt/551627271.html</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>['淮南市供销社党组书记、理事会主任顾云光一行到黄山供销集团考察学习“田园徽州”运营模式_淮南市供销社', '淮南市供销社党组书记、理事会主任顾云光一行到黄山供销集团考察学习“田园徽州”运营模式', '6月9日－11日，淮南市供销社党组书记、理事会主任顾云光，党组副书记、监事会主任邓传国率相关科室、企业负责人到黄山供销集团考察学习“田园徽州”运营模式。淮南市农业农村局党组书记、局长李艳景一同考察学习。黄山市供销社党组书记、理事会主任、供销集团董事长刘邦铸，监事会主任俞鹦鹦陪同调研。考察期间黄山市委常委、政法委书记任生接见了淮南考察团一行。', '顾云光一行先后参观“田园徽州”梦工厂、“田园徽州”旗舰店、“田园徽州”直播联盟基地，考察交流“田园徽州”农产品区域公用品牌创建及推广运营工作。详细了解品牌打造、品牌推广、标准设定、组织管理、产品销售，以及区域公用品牌助推当地农产品发展等方面情况。', '考察结束后，在黄山供销集团会议室进行了座谈。黄山市供销集团办公室主任（黄山市精致农业产业协会秘书长）侯艳介绍了黄山市绿色农产品区域公共品牌组建过程，从协会组建、团标制定、商标注册、品牌政策支持等情况，并就如何提升、利用好农产品区域公用品牌进行探讨交流，重点提到了在组建过程中，得到了市委组织部的支持，从发改委、农业农村局、市场监管局、财政局、商务局、旅游局等六部门抽调人员到黄山市精致农业科技发展有限公司挂职，有效地推动了“田园徽州”区域公共品牌各项工作的开展。黄山供销集团“田园徽州”绿色农产品区域公共品牌董事长王朋详细介绍了“田园徽州”的组建过程、运营模式、取得的成效。重点强调了市委市政府及有关部门的重视程度和支持力度。希望两地在充分利用丰富的农业特产资源和已有的产业基础上，抢抓乡村振兴发展机遇，加大对农业区域公用品牌建设的支持保障力度，狠抓产品质量，做大做强市域品牌，推动农业品牌建设工作取得新的发展。', '最后，淮南市供销社党组书记、理事会主任顾云光对田园徽州农产品区域公用品牌开发建设中的经验和做法给予高度评价。他指出，黄山供销集团的发展业绩在全省乃至全国供销系统都是一面旗帜，更值得淮南市供销社学习，通过这次考察学习受益匪浅。考察团返淮后，将认真落实市委市政府要求，借鉴黄山“田园徽州”模式，打造好淮南“淮畔良品”特色农产品区域品牌。顾云光希望黄山供销集团到淮南传经送宝，多指导、多帮助、多沟通，加强合作，实现共赢。']</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A205" t="n">
+        <v>96</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
           <t>区教体局赴广德市考察学习全国义务教育优质均衡发展区创建工作</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>2023-06-15</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>https://www.bagongshan.gov.cn/zhxx/bmdt/11258980486.html</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>['区教体局赴广德市考察学习“全国义务教育优质均衡发展区”创建工作_淮南市八公山区人民政府网', '为学习借鉴“全国义务教育优质均衡发展区”创建工作的好方法、好措施、好经验，进一步加快建设八公山区高质量教育体系，促进教育公平，更好地推动义务教育优质均衡发展。近日，区教体局局长黄磊带队赴广德市进行考察学习。', '考察组先后来到广德市邱村小学人民路校区、实验小学教育集团北校区、桃州四小教育集团北校区。每到一处，考察组成员都认真听取学校负责人在推动义务教育优质均衡发展、打造办学品牌、提高教育教学质量、强化学校内涵发展等方面的情况介绍，收集学校义务教育优质均衡发展经验材料，参观功能室及展厅等场所。', '座谈会上，广德市委教体工委书记、市教体局局长邱秀敏介绍了广德市教育、经济和文化情况，并将评估验收中专家组重点关注的问题和整改经验进行了分享。双方就义务教育规范管理、师资配置、政府保障、缩小校际间差异系数等创建中的难点、疑点及台账资料进行了学习交流。', '此次学习考察，学到了经验，开阔了视野，受到了启发，理清了思路，明确了努力方向和工作措施，区教体局将凝心聚力、真抓实干，深入推进“全国义务教育优质均衡发展区”创建工作。']</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A206" t="n">
+        <v>96</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
           <t>寿县卫健委赴六安市金寨县考察学习乡镇卫生院和村卫生室标准化建设</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>2021-08-10</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>https://www.shouxian.gov.cn/zwzx/bmdt/8036435.html</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>['为加快基层卫生院和村卫生室标准化建设，近日，寿县卫健委带队，组织六家乡镇卫生院负责人和相关工作人员赴六安市金寨县进行考察学习，在金寨县召开座谈会，交流了金寨县乡镇卫生院、村卫生室标准化建设工作中的成功经验和先进做法。', '座谈会后，考察学习团前往金寨县古碑镇中心卫生院、大湾村卫生室进行了实地考察，具体了解卫生院整体布局、科室建设、人才建设、文化建设等及村卫生室的建筑面积、用房布局、业务开展、人员配备等内容。']</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A207" t="n">
+        <v>96</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
           <t>芜湖市农业农村局组团来淮考察学习全市犬只免疫检疫等工作经验</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>2021-03-09</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="F207" t="inlineStr">
         <is>
           <t>https://nyncj.huainan.gov.cn/xwzx/zwxx/551560339.html</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>['2021年3月4日，芜湖市专题考察组来淮考察我市农牧部门贯彻落实《淮南市犬只管理条例》工作经验。', '考察组由芜湖市农业农村局分管局长朱赤平同志带队，成员为芜湖市、县区畜牧兽医管理部门负责人员。', '考察组先后参观走访了位于我市大通区境内的东部流浪犬只收容中心、田区和寿县辖区内的“犬只一站式服务办证点”以及全市犬只办证管理服务中心等重点场所。', '淮南市农业农村局总农艺师张由平同志率市局畜牧兽医科、市畜牧兽医服务中心、市动物疫病防控中心等相关负责同志陪同走访考察。陪同组分别从组织领导、部门配合、业务规范、科技应用等方面工作做法进行重点介绍，供考察组参考借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A208" t="n">
+        <v>96</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
           <t>全区退役军人事务系统赴利辛县考察学习退役军人服务保障体系建设</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>2020-11-18</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>https://www.bagongshan.gov.cn/zhxx/ztzl/cjsymfczl/8199314.html</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>['全区退役军人事务系统赴利辛县考察学习退役军人服务保障体系建设_淮南市八公山区人民政府网', '为更加扎实深入地做好退役军人服务保障工作，进一步提升退役军人服务保障体系建设水平。11月17日上午，在市退役军人事务局党组成员、副局长邓宗河的带领下，区退役军人事务系统及基层相关负责同志赴利辛县考察学习退役军人服务中心（站）建设。', '为更加扎实深入地做好退役军人服务保障工作，进一步提升退役军人服务保障体系建设水平。', '考察人员先后参观了利辛县退役军人服务中心、城关镇退役军人服务站和永兴镇退役军人服务站，与利辛县退役军人事务系统同志就推进退役军人服务保障体系建设的经验做法进行了深入交流学习。', '考察中，邓宗河要求，要对标先进，按照“五有”标准，加强“两站一中心”建设，将利辛县对退役军人服务保障体系建设的先进经验和做法与自身实际情况相结合，确保按时按质完成示范型退役军人服务中心（站）创建工作。要认真总结学习成果，进一步做好退役军人服务保障体系建设，更好地服务广大退役军人。']</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A209" t="n">
+        <v>96</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
           <t>市退役军人事务局领导带队赴利辛县考察学习退役军人服务保障体系建设</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="F209" t="inlineStr">
         <is>
           <t>https://tyjrswj.huainan.gov.cn/xw/gzdt/551545673.html</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>['市退役军人事务局领导带队赴利辛县考察学习退役军人服务保障体系建设_淮南市退役军人事务局', '为更加扎实深入地做好退役军人服务保障工作，进一步提升退役军人服务保障体系建设水平。11月17日上午，市退役军人事务局党组成员、副局长邓宗河带领八公山区退役军人事务系统及基层相关领导同志赴利辛县考察学习县、镇退役军人服务中心（站）建设。', '当天上午，市退役军人事务局党组成员、副局长邓宗河，市退役军人服务中心副主任徐斌，八公山区退役军人事务局局长杜成红，八公山镇党委书记刘志勇，山王镇党委书记陈进及区镇退役军人服务中心（站）负责同志在利辛县退役军人事务局局长马连清、副局长赵茂琼、县退役军人服务中心主任徐克的陪同下先后参观了县退役军人服务中心、城关镇退役军人服务站和永兴镇退役军人服务站。', '在县退役军人服务中心、城关镇退役军人服务站和永兴镇退役军人服务站，邓宗河一行对县、镇退役军人服务中心（站）功能室的设置进行了考察，与利辛县退役军人事务系统同志就利辛县在退役军人服务保障体系建设工作中的经验做法进行了深入的交流学习。', '邓宗河对八公山镇、山王镇两个镇的党委书记亲自参加考察学习，重视退役军人服务保障工作给予了高度肯定，并对八公山区退役军人事务系统提出要求：要对标先进，按照“五有”标准，加强“两站一中心”建设，将利辛县对退役军人服务保障体系建设的先进经验和做法与自身实际情况相结合，确保按时按质完成示范型退役军人服务中心（站）创建工作。', '参加考察学习的八公山区、镇退役军人服务中心（站）相关负责同志表示，利辛县退役军人服务保障体系建设工作亮点频现，成效显著，对我们在今后如何加强退役军人服务保障能力、高效推进退役军人服务中心（站）建设和功能完善方面带来了更多的借鉴、学习和启发。回去后要认真总结学习成果，进一步做好八公山区退役军人服务保障体系建设，更好地服务广大退役军人。']</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A210" t="n">
+        <v>96</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
           <t>淮南市卫生计生委组织医共体试点县赴阜南县界首市考察学习县域医共体工作</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>2017-08-18</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>https://wjw.huainan.gov.cn/xwzx/gzdt/33913324.html</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>['淮南市卫生计生委组织医共体试点县赴阜南县、界首市考察学习县域医共体工作_淮南市卫生健康委员会', '在阜阳市、阜南县、界首市卫生计生委、县医院等相关单位负责人精心安排下，考察学习采取了先现场观摩后座谈的形式。考察学习团一行先后深入到阜南县柴集镇中心卫生院（阜南县人民医院柴集分院）、柴集镇贾茶棚村卫生室、阜南县人民医院以及界首市陶庙镇孙小集村卫生室、界首市人民医院，通过现场观摩一块块图文并茂的展板，在讲解员讲解下，全面了解县域医共体建立、运行、发展情况；绩效考核建立及落实情况；“医防融合医共体”信息化建设、使用情况。', '座谈会上，考察团一行听取了阜南县卫计委、县医院介绍以绩效考核为抓手推行县域医共体开展情况，界首市人民医院张学武副院长“关于医防融合医共体开展的工作报告”，并就“基层医疗卫生人才、基建设备、绩效分配、信息化建设” 等问题做了交流。淮南市政协副主席、市卫生计生委主任方严座谈时表示：首先感谢阜阳市阜南县、界首市提供了考察学习的机会；二是淮南对此次考察学习非常重视，寿县、凤台县二家医共体试点县县政府分管县长、财政、人社、卫计所有涉及部门负责人都参加了考察学习；三是通过此次考察学习，不虚此行，一句话概括叫“阜南、界首做得有成就，我们看了有信心”，特别是听了“绩效考核方案、细则的讲解”和“医防融合工作报告”，所讲内容都是“干货”，阜南县、界首市创新了医共体工作机制，我们将学习借鉴，在淮南推行。', '考察团一行听取了阜南县卫计委、县医院介绍以绩效考核为抓手推行县域医共体开展情况，界首市人民医院张学武副院长']</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A211" t="n">
+        <v>96</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
           <t>市目标办效能办坚持走出去考察学习民主评议和机关效能建设工作</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>2015-08-24</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
+      <c r="F211" t="inlineStr">
         <is>
           <t>https://www.huainan.gov.cn/public/118320703/12744978.html</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>['市目标办（效能办）坚持“走出去”考察学习民主评议和机关效能建设工作_政务公开_淮南市人民政府', '根据工作安排，8月18、19日，市目标办（效能办）副主任马长玉一行前往蚌埠市、滁州市、泰州市考察学习民主评议、机关效能建设工作，听取了以上三市效能办相关领导对本市开展民主评议、机关效能建设情况经验介绍，并就有关问题进行了交流、探讨。', '三市通过民主评议和机关效能建设工作的开展，取得了明显的成效，进一步推动了工作作风转变，服务态度明显好转，行政效率明显提高，发展环境明显改善。此次考察学习收获很大，对进一步完善提高我市民主评议和机关效能建设工作有一定的借鉴意义。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A212" t="n">
+        <v>96</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
           <t>唐山镇人大组织赴八公山区山王镇闪冲村考察学习美好乡村建设工作</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>2016-05-09</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>https://www.xiejiaji.gov.cn/public/118323148/257116516.html</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>['唐山镇人大组织赴八公山区山王镇闪冲村考察学习美好乡村建设工作_政务公开 _淮南市谢家集区人民政府', '闪冲村位于八公山区西郊的丘陵地带，东靠国家4A级八公山风景区，西与凤台县李冲回族乡接壤，南与寿县隔山相望，是八公山区唯一的少数民族村。闪冲村地域为半山半田，森林覆盖率90%以上，依山傍水，环境优美。', '一行人首先来到闪冲村少数民族特色村寨会议室，闪冲村主要负责人对民族特色村相关情况进行了详细介绍。', '将以乡村旅游为统揽，大力发展农家乐，乐涧套、伊斯兰民族风情文化展示园等项目，着力打造以青山、碧水、野趣为特色，集现代文明、田园风光、乡村风情于一体的花园式度假美丽乡村。交流会上，', '并就闪冲村基层党建工作、民生工程建设、农村清洁工程、农民经济收入等情况进行了深入了解。', '沿路慢行，一条笔直的乡间水泥路直通村里，路两旁苗木和果树，道路两边的房屋处处彰显这个民族特色村寨的“民族风”。路西侧，一座漂亮的小学映入眼帘，路东侧四周描绘着民族风情的清真寺、还有村民服务中心、太阳能路灯、文化活动广场……美丽闪冲跃然眼前。', '通过此次考察学习，考察人员学到了很多宝贵的经验，回去后将结合自身实际，加大美好乡村的建设力度，把农村基础设施放在优先位置，要建设与管理并重，在建设过程中注重大环境也要注重小细节，基础设施建设好了更好维护好，要通过规划引导，彻底实现村庄美化亮化；要广泛发动群众，可以教育引导老百姓开展家园清洁行动，自觉清理卫生，美化村庄环境。做到美好乡村建设依靠农民、美好乡村建设成果全体农民共享；要善于学习先进，学习先进地区的好的理念、思路，', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A213" t="n">
+        <v>96</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
           <t>他山之石筑兰台区政协副主席程忠杰率队赴霍山县档案馆考察学习</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>2017-03-17</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
+      <c r="F213" t="inlineStr">
         <is>
           <t>https://www.xiejiaji.gov.cn/xwzx/zwyw/8055702.html</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>['他山之石筑兰台——区政协副主席程忠杰率队赴霍山县档案馆考察学习_淮南市谢家集区人民政府', '3月15日，谢家集区政协副主席、区工会主席程忠杰率区档案局、区文明办有关同志一行6人，赴六安市霍山县档案局馆考察学习。霍山县委常委、宣传部长曹君，县政协副主席方庆林，县档案局党组成员、副局长潘声华等陪同。', '这次考察学习目的是借鉴霍山县档案馆“大别山明珠”主题展厅的经验，筹备建设谢家集区历史沿革陈列展厅。', '在霍山县档案馆讲解员引领下，程忠杰一行首先参观了“大别山明珠”主题展厅，展厅运用了声、光、电等现代化技术，突出展现了霍山县“古色”、“红色”、“绿色”独特文化，图文并茂，内容丰富，主题鲜明，布局科学，观古鉴今，发人启迪。在会议室座谈时，程忠杰一行着重就主题展厅的筹备预案、资料征集、分工协作、设计布展、经费预算、对外宣传及下一步规划进行了详细地了解，霍山县档案局负责人对此一一作了介绍。区档案局负责同志还就霍山县档案馆概况、馆藏资源、数字化加工、电子档案的异地异质备份等问题进行具体咨询。座谈会真诚生动，轻松愉悦，最后双方一致表示，档案系统的广大同仁应进一步加强沟通交流，积极开展资源共享与合作，共同促进档案事业不断发展。', '新建的霍山县档案馆风格别具，秀外慧中，馆藏面积5000多平方米，总投资3000余万元，是霍山县委、县政府对外精神文明建设宣传的一张靓丽名片。该馆2010年荣获“全省档案管理模式改革先进单位”，2012年被国家人社部和国家档案局授予“全国档案工作先进集体”称号，是安徽省唯一获此殊荣的县级综合档案馆。2014年1月，该馆通过国家二级档案馆测评，成为六安市首家国家二级档案馆。霍山县档案馆还是安徽省中小学档案教育社会实践基地，六安市爱国主义教育基地及霍山县档案资源安全保管基地、档案信息利用服务中心、电子文件中心和现行文件利用中心。', '他山之石，可以攻玉。通过这次实地“取经”，大家纷纷表示受益匪浅，密切了交流，开阔了视野，更新了观念，明确了差距，为下一步自我补齐短板积累了经验。区政协副主席程忠杰参观后表示，我们将紧密结合区情，充分借鉴霍山“大别山明珠”主题展厅建设经验，依托区国家综合档案馆，大力推进“谢区记忆”工程建设，切实把我区独有的矿产文化、蔡楚文化、豆腐文化、清真文化、红色文化、生态文化等优秀资源发掘好、保护好、宣传好、利用好、传承好，努力把“谢区记忆”陈列展建成展现全区对外形象的一扇窗口。']</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A214" t="n">
+        <v>96</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
           <t>践行党的群众路线提升审计工作凤台县审计局赴肥西县考察学习政府投资项目审计</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="E214" t="inlineStr">
         <is>
           <t>2014-05-13</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
+      <c r="F214" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/public/118322953/257031373.html</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>['践行党的群众路线提升审计工作—凤台县审计局赴肥西县考察学习政府投资项目审计_政务公开 _凤台县人民政府', '为更好地控制和防范审计风险、规范政府投资审计，提升政府投资审计工作水平，近日，凤台县审计局局长张云峰带领班子成员和业务股长一行5人，专程赶赴肥西县审计局考察学习政府投资审计。肥西县审计局做了精心准备。学习交流采取听取情况介绍、座谈讨论、查阅资料的形式进行。', '肥西县审计局局长胡昌勇、党组书记汪昌忠、副书记、副局长程运安、副局长姚则年、评审中心常务副主任汪柏、投资科科长康升平等同志参加了座谈会。座谈会上， 肥西县审计局局长胡昌勇介绍了政府投资审计的实践经验及政府投资预算、决算、跟踪、评估审计的做法，重点介绍了“内外统筹”的人力资源保障、投资审计计算机信息管理平台管理、财政预算保证的经费保障等投资审计工作机制。并提供了当地政府投资审计制度建设方面的文件资料。我局就投资审计的政府购买审计中介服务经费来源、购买形式以及中介机构审计的使用、管理、考核方法、工程审计质量控制、计算机审计信息化建设、廉政风险点防控、投资审计管理制度建设及程序流程规范化等情况进行了学习交流探讨。', '此次学习考察，尽管时间短，但学到了很多好的做法，启发了思路，而且增进了友谊。决定以此次专题考察学习为契机，认真学习和借鉴肥西县政府投资审计的先进经验和成功做法，结合我县审计工作实际，制定切实可行的政府投资审计工作提升方案，促进凤台县政府投资审计工作更上一个新台阶。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A215" t="n">
+        <v>96</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
           <t>学习先进经验用心呵护成长凤台县未成年人救助保护中心赴肥西县考察学习未成年人保护工作</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>2022-03-11</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
+      <c r="F215" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/public/118322962/1259022017.html</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>['学习先进经验用心呵护成长——凤台县未成年人救助保护中心赴肥西县考察学习未成年人保护工作_政务公开 _凤台县人民政府', '学习先进经验用心呵护成长——凤台县未成年人救助保护中心赴肥西县考察学习未成年人保护工作', '为进一步加强凤台县困境儿童、留守儿童关爱服务工作，推动未成年人保护工作提档升级、创新发展，2022年3月9日，淮南市民政局党组成员、副局长秦红权，凤台县民政局党组书记、局长宋维玉等一行八人赴肥西县民政局及未成年人救助保护中心(以下简称：未保中心)考察学习未成年人保护工作经验。合肥市民政局党组副书记、副局长方滨，肥西县民政局党组书记、局长王昊、等人陪同考察。', '为进一步加强凤台县困境儿童、留守儿童关爱服务工作，推动未成年人保护工作提档升级、创新发展，', '，特别是肥西县未保中心的基础建设、功能设置、职能发挥、档案管理以及购买社会组织服务的工作流程和模式的经验介绍。', '在学习交流过程中，肥西县未保中心主任介绍目前采用与当地社会组织展开合作，在民政局的指导下，建立了社会组织、社区和社会资源相互联动和相互支持的工作模式。', '对肥西的未成年人救助保护工作给予了高度评价，表示在今后的工作中，会对照考察学习中获得的好经验和好做法，结合中心实际，开展凤台县未成年人救助保护工作：一是通过政府购买引入专业服务，对未成年人开展专业关爱服务；二是完善各项规章制度和岗位职责，强化中心标准化建设；三是进一步完善基础设施建设，充分发挥中心工作职能，努力提高服务能力。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A216" t="n">
+        <v>96</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
           <t>县水利局组织人员赴六安市金安区考察学习农业水价综合改革先进经验</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>2018-08-15</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
+      <c r="F216" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/public/118323013/257371987.html</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>['县水利局组织人员赴六安市金安区考察学习农业水价综合改革先进经验_政务公开 _凤台县人民政府', '为切实提高我县实施农业水价综合改革水平，近日，县水利局组织相关工作人员赴六安市金安区考察学习农业水价综合改革先进经验。', '考察组一行实地考察了金安区水价改革项目区、工程配套和计量设施，参观了明泉用水户专业合作社的测量水自动测报设备及后台监测交流系统。参观学习后通过座谈交流的方式，金安区水务局负责人介绍了本区农业水价改革工作情况，从组建用水组织、分配农业水权、优化工程配套、核定农业水价、建立奖补机制、落实管护责任及规范水费征缴等七个方面详细说明了改革工作流程。', '通过此次考察学习，考察人员收益匪浅，将以此为契机，借鉴金安区的经验，结合我县实际，将农业水价综合改革落实好，让群众真正享受到改革带来的好处。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A217" t="n">
+        <v>96</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
           <t>学习先进找差距树立标杆促提升市公管局陈家雪副局长带队赴兄弟地市考察学习</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>2019-08-20</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
+      <c r="F217" t="inlineStr">
         <is>
           <t>https://ggj.huainan.gov.cn/gzdt/551502850.html</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>['学习先进找差距 树立标杆促提升——市公管局陈家雪副局长带队赴兄弟地市考察学习_淮南市公共资源交易监督管理局', '为进一步拓宽公共资源交易工作思路，主动对标先进地区，8月13日至16日，市公共资源交易管理局党组成员、副局长陈家雪带领相关业务科室和部门人员前往滁州、合肥、芜湖、黄山等地，考察学习各地先进工作经验和做法。', '考察组一行首站来到滁州市公共资源交易监督管理局，在认真听取滁州市公共资源交易管理体制机制、平台建设运行、行政执法、廉政风险防范等工作介绍后，就各自关心的代理机构管理、专家抽取、质疑投诉、行政处罚等问题进行了深入交流讨论。', '在合肥市，考察组实地考察了合肥市公共资源交易中心的场地布局、硬件设施以及电子视频系统，详细了解到合肥市公共资源交易工作流程。在随后的座谈会上，与合肥市公共资源交易局相关科室就平台建设、信用体系建设、专家考核管理、投诉应诉处理及工程建设招标文件示范文本等进行了探讨和交流。', '在芜湖市考察的过程中，考察组重点围绕芜湖市公共资源交易大数据监测预警分析体系、交易中心平台服务标准化进行学习，与相关科室共同探讨了公共资源交易的运行规则、监督管理制度、市县一体化建设和电子信息应用以及信用体系建设工作。', '考察组最后到了黄山市，实地参观了黄山市公共资源交易廉政警示馆，与黄山市公共资源交易中心就公共资源交易机构设置、开评标现场管理、代理机构和专家管理、建设工程小额招投标、远程异地评标“易彩虹”建设等方面进行了充分的沟通和交流。', '通过此次考察学习，考察组一行表示，既开阔了眼界、增长了知识，加强了与兄弟地市机构的交流与合作，也体会到自身工作的不足，要学习对标先进，强化责任担当，充分借鉴兄弟地市在公共资源交易制度管理、平台服务等方面的先进经验和做法，不断优化提升我市公共资源交易服务能力。']</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A218" t="n">
+        <v>96</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
           <t>市审计局驻寿县桃园村扶贫工作队赴兄弟乡张李乡考察学习艾草种植技术</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>2019-12-24</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>https://sjj.huainan.gov.cn/xwzx/sjxx/551500805.html</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>['为壮大帮扶村寿县保义镇桃园村实体经济，努力打造富民增收的特色产业扶贫项目，市审计局驻村工作队把产业脱贫作为精准脱贫的重要举措，近日，市审计局驻寿县保义镇桃园村扶贫工作队与镇村干部一行前往张李乡参观学习艾草种植技术，通过考察学习进一步推广艾草种植，让贫困户增加新的经济增长点，促进贫困户实现早日脱贫。考察组一行实地考察了艾美艾草种植有限责任公司，考察中了解到该公司是一家以农业为主的多元化公司，公司主要经营艾草种植、艾产品加工生产、艾灸器材设备、艾绒家纺制品、艾草保健产品网络销售等。通过该公司负责人介绍，进一步了解了艾草生长属性、种植规模、合作社模式及艾产品的生产销售情况等。考察组一行对该公司以“基地+农户”的模式带动30多户贫困农户发展艾草产业，实施精准脱贫表示大加赞赏。考察结束时，市审计局驻村工作队表示将加强与镇村两级和企业的协商对接，重点强化艾草种植技术全指导，鼓励大户试验种植，并延伸艾产品产业链，力争把发展艾草产业作为增加贫困人口收入、助力精准脱贫的新兴绿色生态产业做大做强。']</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A219" t="n">
+        <v>96</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
           <t>县局党委委员政工监督室主任平桂芝带队赴肥西县局对标考察学习</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>2017-10-10</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
+      <c r="F219" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/public/118322986/257229769.html</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>['县局党委委员、政工监督室主任平桂芝带队赴肥西县局对标考察学习_政务公开 _凤台县人民政府', '日上午，县局党委委员、政工监督室主任平桂芝率县局指挥、警保、法制、治安、巡防、保安监管等部门主要负责人，赴肥西县公安局开展对标考察学习。', '肥西县局党委委员、纪委书记张葆春和肥西县局政工监督室主任王永胜带队欢迎并组织召开座谈会。张书记带领观看了肥西县局', '年公安工作记录片，介绍了肥西县局今年以来公安工作开展情况，重点就业务对口部门工作特色进行了介绍。县局党委委员、政工监督室主任平桂芝简要介绍了县局工作情况，要求县局对口部门积极学习肥西县局的成功经验和典型做法，结合县局实际，查找自身不足，取长补短，努力推动县局各项工作提质增效。会上，县局各对口部门根据工作情况进行了分别交流、分别实地学习。座谈会后，肥西县局带领县局一行实地参观了肥西县局指挥大厅、警体训练馆、实战模拟训练馆、游泳馆、视频作战室等场所，肥西县局整体业务工作、效能建设和基础设施建设给县局一行留下了深刻印象。', '要加强与肥西县局对口部门间的沟通交流，取长补短，汲取肥西县局先进经验，推动我县公安工作不断发展进步。', '要结合部门和个人实际，紧密联系对照肥西县局好的做法，进行深入思考，并在此基础上认真撰写认识体会，于', '要结合此次考察学习，查找自身不足，明确赶超重点，建立赶超任务清单，明确完成时限，确保学习目标明确、台账健全。各部门任务清单于', '要将此次考察学习情况及时上报县“全面学合肥、对标提效能”活动办公室，并不断收集各部门对标情况，及时总结上报对标学习取得的成效。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A220" t="n">
+        <v>96</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
           <t>凤台县司法局赴长丰县司法局开展全面学合肥对标提效能考察学习活动</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>2017-09-14</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="F220" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/public/118322959/257037667.html</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>['凤台县司法局赴长丰县司法局开展“全面学合肥、对标提效能”考察学习活动_政务公开 _凤台县人民政府', '在长丰县司法局党组书记、局长杨维成的陪同下，考察团一行先后实地参观了吴山司法所、陶楼司法所，详细了解了司法所规范化建设工作开展情况，仔细查看了人民调解、法律援助和社区矫正等工作资料和台帐。', '随后，长丰县司法局党组书记、局长杨维成率该局班子成员及相应科室负责人参加了考察座谈，并从单位基本情况、基础建设、法治宣传、特殊人群管理、法律服务职能等角度，全面介绍了长丰县司法行政工作近年来的经验做法。双方各职能部门进行了对接，并进行了经验交流和探讨。', '凤台县司法局党组书记、局长朱玉峰充分肯定了长丰县司法行政工作成效，他表示“长丰经验”让学习考察团受益匪浅，通过参观学习，开拓了眼界，增长了见识，取得了“真经”。在接下来的对标活动中，要认真学习和借鉴“长丰经验”，加强两地的工作经验交流，推动司法行政工作共同发展，争取凤台县司法行政工作步入全省先进行列。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A221" t="n">
+        <v>96</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
           <t>凤台县教师进修学校组织师训人员赴利辛县教师进修学校考察学习国培计划项目实施</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>2017-09-11</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="F221" t="inlineStr">
         <is>
           <t>https://www.ft.gov.cn/public/118322971/257478238.html</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>['凤台县教师进修学校组织师训人员赴利辛县教师进修学校考察、学习“国培计划”项目实施_政务公开 _凤台县人民政府', '按《教育部办公厅 财政部办公厅关于做好2017年中小学幼儿园教师国家级培训计划实施工作的通知》（教师厅【2017】2号）和安徽省教育厅《关于做好2017国培计划项目规划的通知》精神，今年我县共涉及五大国培项目：中西部项目和幼师国培项目、中西部项目送教下乡培训、幼师国培项目送教下乡培训、中西部项目乡村校园长培训和幼师国培项目乡村校园长培训。', '为扎实做好我县“国培计划”项目，并鉴于利辛县去年在“国培计划”项目实施中取得的优异成绩，9月6日，凤台县教师进修学校一行4人，在苏德安校长的带领下，专程来到利辛县教师进修学校考察、学习其“国培计划”项目实施经验。', '张侠校长代表利辛县教师进修学校表示热烈欢迎，希望加强两校间的交流。李梅副书记详细介绍了利辛县国培计划中西部项目实施情况：利辛县中小学教师送教下乡活动从2015年10月份启动到2017年3月底，历时两年。23个镇723所学校，通过诊断示范、研课磨课、成果展示、总结提升四个阶段，分学段、分学科共开展送教下乡活动384次。通过系列化主题式送教下乡培训，共培训中小学幼儿园乡村教师 6920 人。两年的送教下乡活动，有效解决了乡村教师的工学矛盾，达到了“聚焦课堂教学，共同解决问题”的效果，全面提升了乡村教师素质和能力，较好地实现了“国培计划”项目实施预设目标，在教育部的考核评比中取得安徽省第一名的好成绩。', '通过听取经验介绍，查看相关资料，深入座谈交流，我们获得了许多好的做法与宝贵经验，为我县即将开始的“国培计划”项目的实施提供重要借鉴。', '为进一步了解掌握社会公众对政策执行效果的反馈与评价，请您对该政策的制定及执行提出宝贵的意见或建议。我们将及时收集并分析，共同助力政策不断完善。']</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A222" t="n">
+        <v>96</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>淮南市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
+          <t>淮南市</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
           <t>我市赴合肥市考察学习财政工作认真推进全面学合肥对标提效能活动</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>2017-08-22</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="F222" t="inlineStr">
         <is>
           <t>https://cz.huainan.gov.cn/gzdt/34370773.html</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>['我市赴合肥市考察学习财政工作 认真推进“全面学合肥、对标提效能”活动_淮南市财政局', '根据市政府部署，为扎实开展“全面学合肥、对标提效能”活动，8月21日下午，局党组书记、局长张瑞昌率全体局领导班子成员和相关科室负责同志，赴合肥市财政局考察学习，召开了座谈会。', '合肥市财政局介绍了该局机构设置、主要职能、在岗人员、工作成效等基本情况，并着重谈了财政职能定位、经济社会发展、理财环境改善、深化财政改革、坚持问题导向、坚持从严治党等在历年工作中的深切感受。', '座谈中，双方预算、民生、人事、国库、债务、经建、农业、PPP中心、办公室等对口科处室之间认真对接，真诚交流，互通有无，就目标管理绩效考核、财政收入、民生支出和民生工程、财政体制改革和政府性债务管理、PPP模式、“三公”经费、脱贫攻坚等方面工作进行了深入研讨，我市总结借鉴经验，达到了考察学习的预期目标。']</t>
         </is>
